--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28095" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -42,25 +42,25 @@
     <t>wmc_test</t>
   </si>
   <si>
-    <t>3_使用已存在的字符创建项目，新建失败</t>
-  </si>
-  <si>
-    <t>4_使用特殊字符创建项目，新建成功</t>
+    <t>2_使用已存在的字符创建项目，新建失败</t>
+  </si>
+  <si>
+    <t>3_使用特殊字符创建项目，新建成功</t>
   </si>
   <si>
     <t>_#$^&amp;*!@?~</t>
   </si>
   <si>
-    <t>5_输入的项目名称为空，新建失败</t>
-  </si>
-  <si>
-    <t>6_项目名称超过20个字符，新建失败</t>
+    <t>4_输入的项目名称为空，新建失败</t>
+  </si>
+  <si>
+    <t>5_项目名称超过20个字符，新建失败</t>
   </si>
   <si>
     <t>_#$%^&amp;*!@?~</t>
   </si>
   <si>
-    <t>7_项目描述超过200个字符，新建失败</t>
+    <t>6_项目描述超过200个字符，新建失败</t>
   </si>
   <si>
     <t>_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?c</t>
@@ -69,13 +69,13 @@
     <t>编辑项目</t>
   </si>
   <si>
-    <t>8_把_wmc项目修改成_wmc_edit</t>
+    <t>7_把_wmc项目修改成_wmc_edit</t>
   </si>
   <si>
     <t>_wmc_edit</t>
   </si>
   <si>
-    <t>9_把_wmc_edit结尾的项目名改成wmc_修改，修改失败</t>
+    <t>8_把_wmc_edit结尾的项目名改成wmc_修改，修改失败</t>
   </si>
   <si>
     <t>wmc_修改</t>
@@ -84,7 +84,7 @@
     <t>查找项目</t>
   </si>
   <si>
-    <t>10_查找以wmc开头的项目，并进行排序</t>
+    <t>9_查找以wmc开头的项目，并进行排序</t>
   </si>
   <si>
     <t>wmc</t>
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -718,11 +718,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,13 +1076,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="51.375" customWidth="1"/>
@@ -1113,113 +1116,6 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1232,14 +1128,137 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="$A2:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" s="1" customFormat="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>module</t>
   </si>
@@ -30,6 +30,12 @@
     <t>project_desc</t>
   </si>
   <si>
+    <t>edit_project_name</t>
+  </si>
+  <si>
+    <t>edit_project_desc</t>
+  </si>
+  <si>
     <t>创建项目</t>
   </si>
   <si>
@@ -42,6 +48,12 @@
     <t>wmc_test</t>
   </si>
   <si>
+    <t>_wmc_edit</t>
+  </si>
+  <si>
+    <t>wmc_desc</t>
+  </si>
+  <si>
     <t>2_使用已存在的字符创建项目，新建失败</t>
   </si>
   <si>
@@ -64,30 +76,6 @@
   </si>
   <si>
     <t>_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?c</t>
-  </si>
-  <si>
-    <t>编辑项目</t>
-  </si>
-  <si>
-    <t>7_把_wmc项目修改成_wmc_edit</t>
-  </si>
-  <si>
-    <t>_wmc_edit</t>
-  </si>
-  <si>
-    <t>8_把_wmc_edit结尾的项目名改成wmc_修改，修改失败</t>
-  </si>
-  <si>
-    <t>wmc_修改</t>
-  </si>
-  <si>
-    <t>查找项目</t>
-  </si>
-  <si>
-    <t>9_查找以wmc开头的项目，并进行排序</t>
-  </si>
-  <si>
-    <t>wmc</t>
   </si>
 </sst>
 </file>
@@ -1076,21 +1064,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="51.375" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="30.125" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1103,20 +1093,112 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1128,137 +1210,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:S9"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="$A2:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:19">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>module</t>
   </si>
@@ -63,16 +63,16 @@
     <t>_#$^&amp;*!@?~</t>
   </si>
   <si>
-    <t>4_输入的项目名称为空，新建失败</t>
-  </si>
-  <si>
-    <t>5_项目名称超过20个字符，新建失败</t>
+    <t>4_项目名称超过20个字符，新建失败</t>
   </si>
   <si>
     <t>_#$%^&amp;*!@?~</t>
   </si>
   <si>
     <t>6_项目描述超过200个字符，新建失败</t>
+  </si>
+  <si>
+    <t>ceshi</t>
   </si>
   <si>
     <t>_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?c</t>
@@ -1064,13 +1064,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="51.375" customWidth="1"/>
@@ -1167,38 +1167,27 @@
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
+    <row r="6" s="1" customFormat="1" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:19">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S7" s="2"/>
+      <c r="S6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1213,7 +1202,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD9"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28095" windowHeight="12270"/>
+    <workbookView windowWidth="28095" windowHeight="12270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="relationdataSource" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>module</t>
   </si>
@@ -76,6 +76,48 @@
   </si>
   <si>
     <t>_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?c</t>
+  </si>
+  <si>
+    <t>dataSource_name</t>
+  </si>
+  <si>
+    <t>dataSouce_desc</t>
+  </si>
+  <si>
+    <t>dataSource_url</t>
+  </si>
+  <si>
+    <t>dataSource_user</t>
+  </si>
+  <si>
+    <t>dataSource_pwd</t>
+  </si>
+  <si>
+    <t>创建关系型数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名创建mysql数据源，创建成功</t>
+  </si>
+  <si>
+    <t>mysql_</t>
+  </si>
+  <si>
+    <t>_desc</t>
+  </si>
+  <si>
+    <t>jdbc:mysql://10.88.36.230:3306/test</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>2_使用特殊字符创建mysql数据源，创建失败</t>
+  </si>
+  <si>
+    <t>m&amp;**</t>
+  </si>
+  <si>
+    <t>jdbc:mysql://10.88.36.230:3307/test</t>
   </si>
 </sst>
 </file>
@@ -1066,8 +1108,8 @@
   <sheetPr/>
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1199,14 +1241,76 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="39.75" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:8">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1216,14 +1320,54 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1">
+        <v>123457</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\07_python\hufu_ui\database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28095" windowHeight="12270" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
   <si>
     <t>module</t>
   </si>
@@ -84,6 +79,9 @@
     <t>_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?c</t>
   </si>
   <si>
+    <t>dataSource_name</t>
+  </si>
+  <si>
     <t>dataSouce_desc</t>
   </si>
   <si>
@@ -96,7 +94,10 @@
     <t>dataSource_pwd</t>
   </si>
   <si>
-    <t>创建关系型数据源</t>
+    <t>edit_sourceName</t>
+  </si>
+  <si>
+    <t>创建mysql数据源</t>
   </si>
   <si>
     <t>1_使用正确的命名创建mysql数据源，创建成功</t>
@@ -117,56 +118,17 @@
     <t>123456</t>
   </si>
   <si>
-    <t>m&amp;**</t>
-  </si>
-  <si>
-    <t>jdbc:mysql://10.88.36.230:3307/test</t>
-  </si>
-  <si>
-    <t>module</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataSource_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_使用特殊字符创建mysql数据源，创建失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>123457</t>
-  </si>
-  <si>
-    <t>%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2_使用非字母开头创建mysql数据源，创建失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>_wmc_edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>_wmc_edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_使用已有的名字创建mysql数据源，创建失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建mysql数据源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>mysql_edit</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>创建m</t>
     </r>
     <r>
@@ -174,7 +136,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -190,24 +151,88 @@
       </rPr>
       <t>数据源</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql_</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_使用非字母开头创建mysql数据源，创建失败</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>jdbc:mysql://10.88.36.230:3307/test</t>
+  </si>
+  <si>
+    <t>3_使用已有的名字创建mysql数据源，创建失败</t>
   </si>
   <si>
     <t>jdbc:mysql://10.88.36.230:3308/test</t>
   </si>
   <si>
-    <t>123458</t>
+    <t>4_使用名字长度超过20创建mysql数据源，创建失败</t>
+  </si>
+  <si>
+    <t>_wmc1212122</t>
+  </si>
+  <si>
+    <t>jdbc:mysql://10.88.36.230:3309/test</t>
+  </si>
+  <si>
+    <t>5_使用以数字开头创建mysql数据源，创建失败</t>
+  </si>
+  <si>
+    <t>1_</t>
+  </si>
+  <si>
+    <t>jdbc:mysql://10.88.36.230:3310/test</t>
+  </si>
+  <si>
+    <t>创建sqlServer数据源</t>
+  </si>
+  <si>
+    <t>6_使用正确的命名创建sqlServer数据源，创建成功</t>
+  </si>
+  <si>
+    <t>sqlServer_</t>
+  </si>
+  <si>
+    <t>jdbc::postgresql://10.88.36.133:5432;DatabaseName=test</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>1234@Qwer</t>
+  </si>
+  <si>
+    <t>创建postgreSql数据源</t>
+  </si>
+  <si>
+    <t>7_使用正确的命名创建postgreSql数据源，创建成功</t>
+  </si>
+  <si>
+    <t>postgreSql_</t>
+  </si>
+  <si>
+    <t>jdbc:postgresql://10.88.36.133:5432/test</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +241,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,36 +256,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -261,40 +602,326 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -581,19 +1208,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="51.375" customWidth="1"/>
@@ -603,7 +1230,7 @@
     <col min="6" max="6" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +1250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -643,17 +1270,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
@@ -663,263 +1290,382 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:19">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S6" s="2"/>
+      <c r="S6" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="56.25" customWidth="1"/>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
     <col min="6" max="6" width="39.75" customWidth="1"/>
     <col min="7" max="7" width="17.875" customWidth="1"/>
     <col min="8" max="8" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>47</v>
+      <c r="I2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" customFormat="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1">
-        <v>123457</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+      <selection activeCell="A1" sqref="$A1:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="61">
   <si>
     <t>module</t>
   </si>
@@ -94,7 +94,10 @@
     <t>dataSource_pwd</t>
   </si>
   <si>
-    <t>edit_sourceName</t>
+    <t>result</t>
+  </si>
+  <si>
+    <t>expect_url1</t>
   </si>
   <si>
     <t>创建mysql数据源</t>
@@ -118,7 +121,7 @@
     <t>123456</t>
   </si>
   <si>
-    <t>mysql_edit</t>
+    <t>http://hufu.test.xuelangyun.com/tml/index#/integrate/dataSource</t>
   </si>
   <si>
     <r>
@@ -165,6 +168,9 @@
     <t>3_使用已有的名字创建mysql数据源，创建失败</t>
   </si>
   <si>
+    <t>mysql_edit</t>
+  </si>
+  <si>
     <t>jdbc:mysql://10.88.36.230:3308/test</t>
   </si>
   <si>
@@ -184,6 +190,9 @@
   </si>
   <si>
     <t>jdbc:mysql://10.88.36.230:3310/test</t>
+  </si>
+  <si>
+    <t>http://hufu.test.xuelangyun.com/tml/index#/integrate/dataSource/dataSourceAdd</t>
   </si>
   <si>
     <t>创建sqlServer数据源</t>
@@ -228,18 +237,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,8 +265,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,15 +363,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,25 +386,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,77 +401,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -415,181 +417,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,32 +605,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,6 +640,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -672,31 +688,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,10 +710,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,133 +722,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -854,13 +856,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1349,13 +1351,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
@@ -1365,9 +1367,11 @@
     <col min="6" max="6" width="39.75" customWidth="1"/>
     <col min="7" max="7" width="17.875" customWidth="1"/>
     <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="86.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1395,34 +1399,197 @@
       <c r="I1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H3" t="s">
         <v>33</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1435,184 +1602,207 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A15" sqref="$A15:$XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:8">
+    <row r="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
       <c r="H3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:9">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:9">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-    </row>
+        <v>60</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1"/>
     <row r="8" spans="3:5">
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="3:5">
@@ -1620,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="3:5">
@@ -1628,7 +1818,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="3:5">
@@ -1636,7 +1826,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="3:5">
@@ -1644,7 +1834,71 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:10">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:10">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12270" activeTab="1"/>
+    <workbookView windowWidth="13725" windowHeight="12270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -1354,7 +1354,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12270" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -53,30 +53,6 @@
   </si>
   <si>
     <t>wmc_desc</t>
-  </si>
-  <si>
-    <t>2_使用已存在的字符创建项目，新建失败</t>
-  </si>
-  <si>
-    <t>3_使用特殊字符创建项目，新建成功</t>
-  </si>
-  <si>
-    <t>_#$^&amp;*!@?~</t>
-  </si>
-  <si>
-    <t>4_项目名称超过20个字符，新建失败</t>
-  </si>
-  <si>
-    <t>_#$%^&amp;*!@?~</t>
-  </si>
-  <si>
-    <t>6_项目描述超过200个字符，新建失败</t>
-  </si>
-  <si>
-    <t>ceshi</t>
-  </si>
-  <si>
-    <t>_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?c</t>
   </si>
   <si>
     <t>dataSource_name</t>
@@ -230,6 +206,30 @@
   <si>
     <t>test123</t>
   </si>
+  <si>
+    <t>2_使用已存在的字符创建项目，新建失败</t>
+  </si>
+  <si>
+    <t>3_使用特殊字符创建项目，新建成功</t>
+  </si>
+  <si>
+    <t>_#$^&amp;*!@?~</t>
+  </si>
+  <si>
+    <t>4_项目名称超过20个字符，新建失败</t>
+  </si>
+  <si>
+    <t>_#$%^&amp;*!@?~</t>
+  </si>
+  <si>
+    <t>5_项目描述超过200个字符，新建失败</t>
+  </si>
+  <si>
+    <t>ceshi</t>
+  </si>
+  <si>
+    <t>_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?c</t>
+  </si>
 </sst>
 </file>
 
@@ -237,8 +237,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -258,8 +258,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,32 +371,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,94 +396,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -411,187 +411,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,11 +607,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,15 +640,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,30 +668,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -702,6 +682,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -710,10 +710,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,133 +722,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -856,10 +856,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1216,13 +1216,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="51.375" customWidth="1"/>
@@ -1272,75 +1272,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:19">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S6" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1353,7 +1284,7 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1382,214 +1313,214 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H2" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:10">
-      <c r="A6" s="1" t="s">
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1602,10 +1533,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="$A15:$XFD16"/>
+      <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1614,154 +1545,154 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I1">
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1769,137 +1700,205 @@
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="1"/>
     <row r="8" spans="3:5">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="3:5">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:10">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:10">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
-      </c>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:19">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12270"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
-    <sheet name="relationdataSource" sheetId="2" r:id="rId2"/>
+    <sheet name="mysql_add" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
   <si>
     <t>module</t>
   </si>
@@ -53,6 +53,30 @@
   </si>
   <si>
     <t>wmc_desc</t>
+  </si>
+  <si>
+    <t>2_使用已存在的字符创建项目，新建失败</t>
+  </si>
+  <si>
+    <t>3_使用特殊字符创建项目，新建成功</t>
+  </si>
+  <si>
+    <t>_#$^&amp;*!@?~</t>
+  </si>
+  <si>
+    <t>4_项目名称超过20个字符，新建失败</t>
+  </si>
+  <si>
+    <t>_#$%^&amp;*!@?~</t>
+  </si>
+  <si>
+    <t>5_项目描述超过200个字符，新建失败</t>
+  </si>
+  <si>
+    <t>ceshi</t>
+  </si>
+  <si>
+    <t>_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?c</t>
   </si>
   <si>
     <t>dataSource_name</t>
@@ -141,36 +165,48 @@
     <t>jdbc:mysql://10.88.36.230:3307/test</t>
   </si>
   <si>
+    <t>3_使用非字母开头创建mysql数据源，创建失败</t>
+  </si>
+  <si>
+    <t>4_使用已有的名字创建mysql数据源，创建失败</t>
+  </si>
+  <si>
+    <t>mysql_edit</t>
+  </si>
+  <si>
+    <t>jdbc:mysql://10.88.36.230:3308/test</t>
+  </si>
+  <si>
+    <t>5_使用名字长度超过20创建mysql数据源，创建失败</t>
+  </si>
+  <si>
+    <t>_wmc1212122</t>
+  </si>
+  <si>
+    <t>jdbc:mysql://10.88.36.230:3309/test</t>
+  </si>
+  <si>
+    <t>6_使用以数字开头创建mysql数据源，创建失败</t>
+  </si>
+  <si>
+    <t>1_</t>
+  </si>
+  <si>
+    <t>jdbc:mysql://10.88.36.230:3310/test</t>
+  </si>
+  <si>
+    <t>http://hufu.test.xuelangyun.com/tml/index#/integrate/dataSource/dataSourceAdd</t>
+  </si>
+  <si>
     <t>3_使用已有的名字创建mysql数据源，创建失败</t>
   </si>
   <si>
-    <t>mysql_edit</t>
-  </si>
-  <si>
-    <t>jdbc:mysql://10.88.36.230:3308/test</t>
-  </si>
-  <si>
     <t>4_使用名字长度超过20创建mysql数据源，创建失败</t>
   </si>
   <si>
-    <t>_wmc1212122</t>
-  </si>
-  <si>
-    <t>jdbc:mysql://10.88.36.230:3309/test</t>
-  </si>
-  <si>
     <t>5_使用以数字开头创建mysql数据源，创建失败</t>
   </si>
   <si>
-    <t>1_</t>
-  </si>
-  <si>
-    <t>jdbc:mysql://10.88.36.230:3310/test</t>
-  </si>
-  <si>
-    <t>http://hufu.test.xuelangyun.com/tml/index#/integrate/dataSource/dataSourceAdd</t>
-  </si>
-  <si>
     <t>创建sqlServer数据源</t>
   </si>
   <si>
@@ -205,30 +241,6 @@
   </si>
   <si>
     <t>test123</t>
-  </si>
-  <si>
-    <t>2_使用已存在的字符创建项目，新建失败</t>
-  </si>
-  <si>
-    <t>3_使用特殊字符创建项目，新建成功</t>
-  </si>
-  <si>
-    <t>_#$^&amp;*!@?~</t>
-  </si>
-  <si>
-    <t>4_项目名称超过20个字符，新建失败</t>
-  </si>
-  <si>
-    <t>_#$%^&amp;*!@?~</t>
-  </si>
-  <si>
-    <t>5_项目描述超过200个字符，新建失败</t>
-  </si>
-  <si>
-    <t>ceshi</t>
-  </si>
-  <si>
-    <t>_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?_#$%^&amp;*!@?c</t>
   </si>
 </sst>
 </file>
@@ -856,10 +868,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1216,13 +1228,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="51.375" customWidth="1"/>
@@ -1272,6 +1284,75 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" s="2" customFormat="1" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:19">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1284,8 +1365,8 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1313,214 +1394,214 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
+      <c r="A2" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
-      <c r="A6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:10">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1533,10 +1614,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="$A19:$XFD19"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1545,154 +1626,154 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:10">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>29</v>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I1">
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1700,205 +1781,136 @@
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="3:5">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:10">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:10">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:19">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S22" s="3"/>
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
-    <sheet name="mysql_add" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="mysqlAdd" sheetId="2" r:id="rId2"/>
+    <sheet name="sqlServerAdd" sheetId="5" r:id="rId3"/>
+    <sheet name="PostgreSQLAdd" sheetId="6" r:id="rId4"/>
+    <sheet name="Db2Add" sheetId="7" r:id="rId5"/>
+    <sheet name="OracleAdd" sheetId="8" r:id="rId6"/>
+    <sheet name="1" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="117">
   <si>
     <t>module</t>
   </si>
@@ -195,6 +199,183 @@
     <t>jdbc:mysql://10.88.36.230:3310/test</t>
   </si>
   <si>
+    <t>创建sqlServer数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名创建sqlServer数据源，创建成功</t>
+  </si>
+  <si>
+    <t>sqlServer_</t>
+  </si>
+  <si>
+    <t>jdbc:sqlserver://10.88.36.133:1433;DatabaseName=test</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>1234@Qwer</t>
+  </si>
+  <si>
+    <t>2_使用非字母开头创建sqlServer数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:sqlServer://10.88.36.230:3307/test</t>
+  </si>
+  <si>
+    <t>3_使用非字母开头创建sqlServer数据源，创建失败</t>
+  </si>
+  <si>
+    <t>4_使用已有的名字创建sqlServer数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:sqlServer://10.88.36.230:3308/test</t>
+  </si>
+  <si>
+    <t>5_使用名字长度超过20创建sqlServer数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:sqlServer://10.88.36.230:3309/test</t>
+  </si>
+  <si>
+    <t>6_使用以数字开头创建sqlServer数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:sqlServer://10.88.36.230:3310/test</t>
+  </si>
+  <si>
+    <t>创建PostgreSql数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名创建PostgreSql数据源，创建成功</t>
+  </si>
+  <si>
+    <t>Pg_</t>
+  </si>
+  <si>
+    <t>jdbc:postgresql://10.88.36.133:5432/test</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>2_使用非字母开头创建PostgreSql数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:PostgreSql://10.88.36.230:3307/test</t>
+  </si>
+  <si>
+    <t>3_使用非字母开头创建PostgreSql数据源，创建失败</t>
+  </si>
+  <si>
+    <t>4_使用已有的名字创建PostgreSql数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:PostgreSql://10.88.36.230:3308/test</t>
+  </si>
+  <si>
+    <t>5_使用名字长度超过20创建PostgreSql数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:PostgreSql://10.88.36.230:3309/test</t>
+  </si>
+  <si>
+    <t>6_使用以数字开头创建PostgreSql数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:PostgreSql://10.88.36.230:3310/test</t>
+  </si>
+  <si>
+    <t>创建Db2数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名创建Db2数据源，创建成功</t>
+  </si>
+  <si>
+    <t>Db2_</t>
+  </si>
+  <si>
+    <t>jdbc:db2://10.88.36.133:50000/testdb</t>
+  </si>
+  <si>
+    <t>DB2INST1</t>
+  </si>
+  <si>
+    <t>2_使用非字母开头创建Db2数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:Db2://10.88.36.230:3307/test</t>
+  </si>
+  <si>
+    <t>3_使用非字母开头创建Db2数据源，创建失败</t>
+  </si>
+  <si>
+    <t>4_使用已有的名字创建Db2数据源，创建失败</t>
+  </si>
+  <si>
+    <t>Db2</t>
+  </si>
+  <si>
+    <t>jdbc:Db2://10.88.36.230:3308/test</t>
+  </si>
+  <si>
+    <t>5_使用名字长度超过20创建Db2数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:Db2://10.88.36.230:3309/test</t>
+  </si>
+  <si>
+    <t>6_使用以数字开头创建Db2数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:Db2://10.88.36.230:3310/test</t>
+  </si>
+  <si>
+    <t>创建Oracle数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名创建Oracle数据源，创建成功</t>
+  </si>
+  <si>
+    <t>Oracle_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jdbc:oracle:thin:@10.88.36.133:1521:xe </t>
+  </si>
+  <si>
+    <t>2_使用非字母开头创建Oracle数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:Oracle://10.88.36.230:3307/test</t>
+  </si>
+  <si>
+    <t>3_使用非字母开头创建Oracle数据源，创建失败</t>
+  </si>
+  <si>
+    <t>4_使用已有的名字创建Oracle数据源，创建失败</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>jdbc:Oracle://10.88.36.230:3308/test</t>
+  </si>
+  <si>
+    <t>5_使用名字长度超过20创建Oracle数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:Oracle://10.88.36.230:3309/test</t>
+  </si>
+  <si>
+    <t>6_使用以数字开头创建Oracle数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:Oracle://10.88.36.230:3310/test</t>
+  </si>
+  <si>
     <t>http://hufu.test.xuelangyun.com/tml/index#/integrate/dataSource/dataSourceAdd</t>
   </si>
   <si>
@@ -207,24 +388,12 @@
     <t>5_使用以数字开头创建mysql数据源，创建失败</t>
   </si>
   <si>
-    <t>创建sqlServer数据源</t>
-  </si>
-  <si>
     <t>6_使用正确的命名创建sqlServer数据源，创建成功</t>
   </si>
   <si>
-    <t>sqlServer_</t>
-  </si>
-  <si>
     <t>jdbc::postgresql://10.88.36.133:5432;DatabaseName=test</t>
   </si>
   <si>
-    <t>sa</t>
-  </si>
-  <si>
-    <t>1234@Qwer</t>
-  </si>
-  <si>
     <t>创建postgreSql数据源</t>
   </si>
   <si>
@@ -232,15 +401,6 @@
   </si>
   <si>
     <t>postgreSql_</t>
-  </si>
-  <si>
-    <t>jdbc:postgresql://10.88.36.133:5432/test</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test123</t>
   </si>
 </sst>
 </file>
@@ -259,6 +419,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,14 +507,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,10 +882,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,73 +894,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -812,69 +972,75 @@
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1284,17 +1450,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:6">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="4" customFormat="1" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
@@ -1304,54 +1470,54 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:6">
-      <c r="A4" s="2" t="s">
+    <row r="4" s="4" customFormat="1" spans="1:6">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:4">
-      <c r="A5" s="2" t="s">
+    <row r="5" s="4" customFormat="1" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:19">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="4" customFormat="1" spans="1:19">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1365,8 +1531,8 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1437,7 +1603,7 @@
       <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="I2">
@@ -1614,10 +1780,1014 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="58.625" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
+    <col min="6" max="6" width="48.25" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
+    <col min="6" max="6" width="39.75" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="3">
+        <v>123456</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
+    <col min="6" max="6" width="39.75" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1654,7 +2824,7 @@
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:10">
@@ -1662,7 +2832,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -1686,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
@@ -1694,7 +2864,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -1715,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
@@ -1723,7 +2893,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1747,33 +2917,33 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H5" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" t="s">
-        <v>58</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1781,28 +2951,28 @@
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1850,28 +3020,28 @@
     </row>
     <row r="15" customFormat="1" spans="1:10">
       <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" t="s">
         <v>53</v>
       </c>
-      <c r="B15" t="s">
+      <c r="H15" t="s">
         <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1882,28 +3052,28 @@
     </row>
     <row r="16" customFormat="1" spans="1:10">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1913,13 +3083,16 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H5" r:id="rId1" display="1234@Qwer"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,16 @@
     <sheet name="PostgreSQLAdd" sheetId="6" r:id="rId4"/>
     <sheet name="Db2Add" sheetId="7" r:id="rId5"/>
     <sheet name="OracleAdd" sheetId="8" r:id="rId6"/>
-    <sheet name="1" sheetId="3" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId8"/>
+    <sheet name="hiveAdd" sheetId="9" r:id="rId7"/>
+    <sheet name="1" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="117">
   <si>
     <t>module</t>
   </si>
@@ -2535,8 +2536,8 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2784,6 +2785,257 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
+    <col min="6" max="6" width="39.75" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -3092,7 +3344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="134">
   <si>
     <t>module</t>
   </si>
@@ -176,211 +176,262 @@
     <t>4_使用已有的名字创建mysql数据源，创建失败</t>
   </si>
   <si>
+    <t>jdbc:mysql://10.88.36.230:3308/test</t>
+  </si>
+  <si>
+    <t>5_使用名字长度超过20创建mysql数据源，创建失败</t>
+  </si>
+  <si>
+    <t>_wmc1212122</t>
+  </si>
+  <si>
+    <t>jdbc:mysql://10.88.36.230:3309/test</t>
+  </si>
+  <si>
+    <t>6_使用以数字开头创建mysql数据源，创建失败</t>
+  </si>
+  <si>
+    <t>1_</t>
+  </si>
+  <si>
+    <t>jdbc:mysql://10.88.36.230:3310/test</t>
+  </si>
+  <si>
+    <t>创建sqlServer数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名创建sqlServer数据源，创建成功</t>
+  </si>
+  <si>
+    <t>sqlServer_</t>
+  </si>
+  <si>
+    <t>jdbc:sqlserver://10.88.36.133:1433;DatabaseName=test</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>1234@Qwer</t>
+  </si>
+  <si>
+    <t>2_使用非字母开头创建sqlServer数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:sqlServer://10.88.36.230:3307/test</t>
+  </si>
+  <si>
+    <t>3_使用非字母开头创建sqlServer数据源，创建失败</t>
+  </si>
+  <si>
+    <t>4_使用已有的名字创建sqlServer数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:sqlServer://10.88.36.230:3308/test</t>
+  </si>
+  <si>
+    <t>5_使用名字长度超过20创建sqlServer数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:sqlServer://10.88.36.230:3309/test</t>
+  </si>
+  <si>
+    <t>6_使用以数字开头创建sqlServer数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:sqlServer://10.88.36.230:3310/test</t>
+  </si>
+  <si>
+    <t>创建PostgreSql数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名创建PostgreSql数据源，创建成功</t>
+  </si>
+  <si>
+    <t>Pg_</t>
+  </si>
+  <si>
+    <t>jdbc:postgresql://10.88.36.133:5432/test</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>2_使用非字母开头创建PostgreSql数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:PostgreSql://10.88.36.230:3307/test</t>
+  </si>
+  <si>
+    <t>3_使用非字母开头创建PostgreSql数据源，创建失败</t>
+  </si>
+  <si>
+    <t>4_使用已有的名字创建PostgreSql数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:PostgreSql://10.88.36.230:3308/test</t>
+  </si>
+  <si>
+    <t>5_使用名字长度超过20创建PostgreSql数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:PostgreSql://10.88.36.230:3309/test</t>
+  </si>
+  <si>
+    <t>6_使用以数字开头创建PostgreSql数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:PostgreSql://10.88.36.230:3310/test</t>
+  </si>
+  <si>
+    <t>创建Db2数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名创建Db2数据源，创建成功</t>
+  </si>
+  <si>
+    <t>Db2_</t>
+  </si>
+  <si>
+    <t>jdbc:db2://10.88.36.133:50000/testdb</t>
+  </si>
+  <si>
+    <t>DB2INST1</t>
+  </si>
+  <si>
+    <t>2_使用非字母开头创建Db2数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:Db2://10.88.36.230:3307/test</t>
+  </si>
+  <si>
+    <t>3_使用非字母开头创建Db2数据源，创建失败</t>
+  </si>
+  <si>
+    <t>4_使用已有的名字创建Db2数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:Db2://10.88.36.230:3308/test</t>
+  </si>
+  <si>
+    <t>5_使用名字长度超过20创建Db2数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:Db2://10.88.36.230:3309/test</t>
+  </si>
+  <si>
+    <t>6_使用以数字开头创建Db2数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:Db2://10.88.36.230:3310/test</t>
+  </si>
+  <si>
+    <t>创建Oracle数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名创建Oracle数据源，创建成功</t>
+  </si>
+  <si>
+    <t>Oracle_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jdbc:oracle:thin:@10.88.36.133:1521:xe </t>
+  </si>
+  <si>
+    <t>2_使用非字母开头创建Oracle数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:Oracle://10.88.36.230:3307/test</t>
+  </si>
+  <si>
+    <t>test124</t>
+  </si>
+  <si>
+    <t>3_使用非字母开头创建Oracle数据源，创建失败</t>
+  </si>
+  <si>
+    <t>test125</t>
+  </si>
+  <si>
+    <t>4_使用已有的名字创建Oracle数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:Oracle://10.88.36.230:3308/test</t>
+  </si>
+  <si>
+    <t>test126</t>
+  </si>
+  <si>
+    <t>5_使用名字长度超过20创建Oracle数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:Oracle://10.88.36.230:3309/test</t>
+  </si>
+  <si>
+    <t>test127</t>
+  </si>
+  <si>
+    <t>6_使用以数字开头创建Oracle数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:Oracle://10.88.36.230:3310/test</t>
+  </si>
+  <si>
+    <t>test128</t>
+  </si>
+  <si>
+    <t>创建hive数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名创建hive数据源，创建成功</t>
+  </si>
+  <si>
+    <t>hive_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jdbc:hive:thin:@10.88.36.133:1521:xe </t>
+  </si>
+  <si>
+    <t>2_使用非字母开头创建hive数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:hive://10.88.36.230:3307/test</t>
+  </si>
+  <si>
+    <t>3_使用非字母开头创建hive数据源，创建失败</t>
+  </si>
+  <si>
+    <t>4_使用已有的名字创建hive数据源，创建失败</t>
+  </si>
+  <si>
+    <t>hive</t>
+  </si>
+  <si>
+    <t>jdbc:hive://10.88.36.230:3308/test</t>
+  </si>
+  <si>
+    <t>5_使用名字长度超过20创建hive数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:hive://10.88.36.230:3309/test</t>
+  </si>
+  <si>
+    <t>6_使用以数字开头创建hive数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:hive://10.88.36.230:3310/test</t>
+  </si>
+  <si>
+    <t>http://hufu.test.xuelangyun.com/tml/index#/integrate/dataSource/dataSourceAdd</t>
+  </si>
+  <si>
+    <t>3_使用已有的名字创建mysql数据源，创建失败</t>
+  </si>
+  <si>
     <t>mysql_edit</t>
-  </si>
-  <si>
-    <t>jdbc:mysql://10.88.36.230:3308/test</t>
-  </si>
-  <si>
-    <t>5_使用名字长度超过20创建mysql数据源，创建失败</t>
-  </si>
-  <si>
-    <t>_wmc1212122</t>
-  </si>
-  <si>
-    <t>jdbc:mysql://10.88.36.230:3309/test</t>
-  </si>
-  <si>
-    <t>6_使用以数字开头创建mysql数据源，创建失败</t>
-  </si>
-  <si>
-    <t>1_</t>
-  </si>
-  <si>
-    <t>jdbc:mysql://10.88.36.230:3310/test</t>
-  </si>
-  <si>
-    <t>创建sqlServer数据源</t>
-  </si>
-  <si>
-    <t>1_使用正确的命名创建sqlServer数据源，创建成功</t>
-  </si>
-  <si>
-    <t>sqlServer_</t>
-  </si>
-  <si>
-    <t>jdbc:sqlserver://10.88.36.133:1433;DatabaseName=test</t>
-  </si>
-  <si>
-    <t>sa</t>
-  </si>
-  <si>
-    <t>1234@Qwer</t>
-  </si>
-  <si>
-    <t>2_使用非字母开头创建sqlServer数据源，创建失败</t>
-  </si>
-  <si>
-    <t>jdbc:sqlServer://10.88.36.230:3307/test</t>
-  </si>
-  <si>
-    <t>3_使用非字母开头创建sqlServer数据源，创建失败</t>
-  </si>
-  <si>
-    <t>4_使用已有的名字创建sqlServer数据源，创建失败</t>
-  </si>
-  <si>
-    <t>jdbc:sqlServer://10.88.36.230:3308/test</t>
-  </si>
-  <si>
-    <t>5_使用名字长度超过20创建sqlServer数据源，创建失败</t>
-  </si>
-  <si>
-    <t>jdbc:sqlServer://10.88.36.230:3309/test</t>
-  </si>
-  <si>
-    <t>6_使用以数字开头创建sqlServer数据源，创建失败</t>
-  </si>
-  <si>
-    <t>jdbc:sqlServer://10.88.36.230:3310/test</t>
-  </si>
-  <si>
-    <t>创建PostgreSql数据源</t>
-  </si>
-  <si>
-    <t>1_使用正确的命名创建PostgreSql数据源，创建成功</t>
-  </si>
-  <si>
-    <t>Pg_</t>
-  </si>
-  <si>
-    <t>jdbc:postgresql://10.88.36.133:5432/test</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test123</t>
-  </si>
-  <si>
-    <t>2_使用非字母开头创建PostgreSql数据源，创建失败</t>
-  </si>
-  <si>
-    <t>jdbc:PostgreSql://10.88.36.230:3307/test</t>
-  </si>
-  <si>
-    <t>3_使用非字母开头创建PostgreSql数据源，创建失败</t>
-  </si>
-  <si>
-    <t>4_使用已有的名字创建PostgreSql数据源，创建失败</t>
-  </si>
-  <si>
-    <t>jdbc:PostgreSql://10.88.36.230:3308/test</t>
-  </si>
-  <si>
-    <t>5_使用名字长度超过20创建PostgreSql数据源，创建失败</t>
-  </si>
-  <si>
-    <t>jdbc:PostgreSql://10.88.36.230:3309/test</t>
-  </si>
-  <si>
-    <t>6_使用以数字开头创建PostgreSql数据源，创建失败</t>
-  </si>
-  <si>
-    <t>jdbc:PostgreSql://10.88.36.230:3310/test</t>
-  </si>
-  <si>
-    <t>创建Db2数据源</t>
-  </si>
-  <si>
-    <t>1_使用正确的命名创建Db2数据源，创建成功</t>
-  </si>
-  <si>
-    <t>Db2_</t>
-  </si>
-  <si>
-    <t>jdbc:db2://10.88.36.133:50000/testdb</t>
-  </si>
-  <si>
-    <t>DB2INST1</t>
-  </si>
-  <si>
-    <t>2_使用非字母开头创建Db2数据源，创建失败</t>
-  </si>
-  <si>
-    <t>jdbc:Db2://10.88.36.230:3307/test</t>
-  </si>
-  <si>
-    <t>3_使用非字母开头创建Db2数据源，创建失败</t>
-  </si>
-  <si>
-    <t>4_使用已有的名字创建Db2数据源，创建失败</t>
-  </si>
-  <si>
-    <t>Db2</t>
-  </si>
-  <si>
-    <t>jdbc:Db2://10.88.36.230:3308/test</t>
-  </si>
-  <si>
-    <t>5_使用名字长度超过20创建Db2数据源，创建失败</t>
-  </si>
-  <si>
-    <t>jdbc:Db2://10.88.36.230:3309/test</t>
-  </si>
-  <si>
-    <t>6_使用以数字开头创建Db2数据源，创建失败</t>
-  </si>
-  <si>
-    <t>jdbc:Db2://10.88.36.230:3310/test</t>
-  </si>
-  <si>
-    <t>创建Oracle数据源</t>
-  </si>
-  <si>
-    <t>1_使用正确的命名创建Oracle数据源，创建成功</t>
-  </si>
-  <si>
-    <t>Oracle_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jdbc:oracle:thin:@10.88.36.133:1521:xe </t>
-  </si>
-  <si>
-    <t>2_使用非字母开头创建Oracle数据源，创建失败</t>
-  </si>
-  <si>
-    <t>jdbc:Oracle://10.88.36.230:3307/test</t>
-  </si>
-  <si>
-    <t>3_使用非字母开头创建Oracle数据源，创建失败</t>
-  </si>
-  <si>
-    <t>4_使用已有的名字创建Oracle数据源，创建失败</t>
-  </si>
-  <si>
-    <t>Oracle</t>
-  </si>
-  <si>
-    <t>jdbc:Oracle://10.88.36.230:3308/test</t>
-  </si>
-  <si>
-    <t>5_使用名字长度超过20创建Oracle数据源，创建失败</t>
-  </si>
-  <si>
-    <t>jdbc:Oracle://10.88.36.230:3309/test</t>
-  </si>
-  <si>
-    <t>6_使用以数字开头创建Oracle数据源，创建失败</t>
-  </si>
-  <si>
-    <t>jdbc:Oracle://10.88.36.230:3310/test</t>
-  </si>
-  <si>
-    <t>http://hufu.test.xuelangyun.com/tml/index#/integrate/dataSource/dataSourceAdd</t>
-  </si>
-  <si>
-    <t>3_使用已有的名字创建mysql数据源，创建失败</t>
   </si>
   <si>
     <t>4_使用名字长度超过20创建mysql数据源，创建失败</t>
@@ -1533,7 +1584,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1689,13 +1740,13 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -1715,16 +1766,16 @@
         <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -1744,19 +1795,19 @@
         <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
         <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -1835,28 +1886,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>52</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>53</v>
-      </c>
-      <c r="H2" t="s">
-        <v>54</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1867,10 +1918,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1882,7 +1933,7 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -1899,10 +1950,10 @@
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1914,7 +1965,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -1931,22 +1982,22 @@
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>59</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -1963,19 +2014,19 @@
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
         <v>60</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>61</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -1992,22 +2043,22 @@
     </row>
     <row r="7" customFormat="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -2086,28 +2137,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>67</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>68</v>
-      </c>
-      <c r="H2" t="s">
-        <v>69</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2118,10 +2169,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2133,7 +2184,7 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2150,10 +2201,10 @@
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2165,7 +2216,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -2182,22 +2233,22 @@
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>73</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -2214,19 +2265,19 @@
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
         <v>75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -2243,22 +2294,22 @@
     </row>
     <row r="7" customFormat="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>78</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -2286,7 +2337,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2337,25 +2388,25 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>82</v>
-      </c>
-      <c r="G2" t="s">
-        <v>83</v>
       </c>
       <c r="H2" s="3">
         <v>123456</v>
@@ -2369,10 +2420,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2384,7 +2435,7 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2401,10 +2452,10 @@
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2416,7 +2467,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -2433,22 +2484,22 @@
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>87</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>89</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -2465,19 +2516,19 @@
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -2494,22 +2545,22 @@
     </row>
     <row r="7" customFormat="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -2536,8 +2587,8 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2588,28 +2639,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>97</v>
-      </c>
       <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2620,10 +2671,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2635,13 +2686,13 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
-        <v>33</v>
+      <c r="H3" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -2652,10 +2703,10 @@
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2667,13 +2718,13 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
-        <v>33</v>
+      <c r="H4" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2684,7 +2735,7 @@
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>101</v>
@@ -2693,19 +2744,19 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>102</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>103</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" t="s">
-        <v>33</v>
+      <c r="H5" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2716,13 +2767,13 @@
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -2733,8 +2784,8 @@
       <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" t="s">
-        <v>33</v>
+      <c r="H6" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2745,28 +2796,28 @@
     </row>
     <row r="7" customFormat="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" t="s">
-        <v>33</v>
+      <c r="H7" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2787,8 +2838,8 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2839,28 +2890,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2871,10 +2922,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2886,7 +2937,7 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2903,10 +2954,10 @@
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2918,7 +2969,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -2935,22 +2986,22 @@
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -2967,19 +3018,19 @@
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -2996,22 +3047,22 @@
     </row>
     <row r="7" customFormat="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -3076,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:10">
@@ -3084,19 +3135,19 @@
         <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -3108,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
@@ -3116,16 +3167,16 @@
         <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
         <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -3137,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
@@ -3145,19 +3196,19 @@
         <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
         <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -3169,33 +3220,33 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -3203,28 +3254,28 @@
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
         <v>67</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>68</v>
-      </c>
-      <c r="H6" t="s">
-        <v>69</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3272,28 +3323,28 @@
     </row>
     <row r="15" customFormat="1" spans="1:10">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
         <v>53</v>
-      </c>
-      <c r="H15" t="s">
-        <v>54</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3304,28 +3355,28 @@
     </row>
     <row r="16" customFormat="1" spans="1:10">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
       </c>
       <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
         <v>67</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>68</v>
-      </c>
-      <c r="H16" t="s">
-        <v>69</v>
       </c>
       <c r="I16">
         <v>0</v>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12270" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,16 @@
     <sheet name="Db2Add" sheetId="7" r:id="rId5"/>
     <sheet name="OracleAdd" sheetId="8" r:id="rId6"/>
     <sheet name="hiveAdd" sheetId="9" r:id="rId7"/>
-    <sheet name="1" sheetId="3" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId9"/>
+    <sheet name="maxcomputeAdd" sheetId="10" r:id="rId8"/>
+    <sheet name="1" sheetId="3" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="148">
   <si>
     <t>module</t>
   </si>
@@ -392,67 +393,109 @@
     <t>hive_</t>
   </si>
   <si>
-    <t xml:space="preserve">jdbc:hive:thin:@10.88.36.133:1521:xe </t>
+    <t>jdbc:hive2://10.88.36.232:10000/8de0be79478a86f2_default</t>
+  </si>
+  <si>
+    <t>5760f8f587711c2db711</t>
   </si>
   <si>
     <t>2_使用非字母开头创建hive数据源，创建失败</t>
   </si>
   <si>
-    <t>jdbc:hive://10.88.36.230:3307/test</t>
+    <t xml:space="preserve">jdbc:hive2://10.88.36.232:10000/4b7bb3cf40c9a73a_default </t>
   </si>
   <si>
     <t>3_使用非字母开头创建hive数据源，创建失败</t>
   </si>
   <si>
+    <t xml:space="preserve">jdbc:hive2://10.88.36.232:10000/4b7bb3cf40c9a74a_default </t>
+  </si>
+  <si>
     <t>4_使用已有的名字创建hive数据源，创建失败</t>
   </si>
   <si>
-    <t>hive</t>
-  </si>
-  <si>
-    <t>jdbc:hive://10.88.36.230:3308/test</t>
+    <t xml:space="preserve">jdbc:hive2://10.88.36.232:10000/4b7bb3cf40c9a75a_default </t>
   </si>
   <si>
     <t>5_使用名字长度超过20创建hive数据源，创建失败</t>
   </si>
   <si>
-    <t>jdbc:hive://10.88.36.230:3309/test</t>
+    <t xml:space="preserve">jdbc:hive2://10.88.36.232:10000/4b7bb3cf40c9a76a_default </t>
   </si>
   <si>
     <t>6_使用以数字开头创建hive数据源，创建失败</t>
   </si>
   <si>
-    <t>jdbc:hive://10.88.36.230:3310/test</t>
-  </si>
-  <si>
-    <t>http://hufu.test.xuelangyun.com/tml/index#/integrate/dataSource/dataSourceAdd</t>
-  </si>
-  <si>
-    <t>3_使用已有的名字创建mysql数据源，创建失败</t>
-  </si>
-  <si>
-    <t>mysql_edit</t>
-  </si>
-  <si>
-    <t>4_使用名字长度超过20创建mysql数据源，创建失败</t>
-  </si>
-  <si>
-    <t>5_使用以数字开头创建mysql数据源，创建失败</t>
-  </si>
-  <si>
-    <t>6_使用正确的命名创建sqlServer数据源，创建成功</t>
-  </si>
-  <si>
-    <t>jdbc::postgresql://10.88.36.133:5432;DatabaseName=test</t>
-  </si>
-  <si>
-    <t>创建postgreSql数据源</t>
-  </si>
-  <si>
-    <t>7_使用正确的命名创建postgreSql数据源，创建成功</t>
-  </si>
-  <si>
-    <t>postgreSql_</t>
+    <t xml:space="preserve">jdbc:hive2://10.88.36.232:10000/4b7bb3cf40c9a77a_default </t>
+  </si>
+  <si>
+    <t>AccessKeyId</t>
+  </si>
+  <si>
+    <t>AccessKeySecret</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>ODPSEndpoint</t>
+  </si>
+  <si>
+    <t>TunnelEndPoint</t>
+  </si>
+  <si>
+    <t>创建maxcompute数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名创建maxcompute数据源，创建成功</t>
+  </si>
+  <si>
+    <t>maxcompute</t>
+  </si>
+  <si>
+    <t>LTAIulAD5XhPFgkJ</t>
+  </si>
+  <si>
+    <t>A5KQEQGhlLg9AD7oYl12b3JMkHpedu</t>
+  </si>
+  <si>
+    <t>test_wmc2</t>
+  </si>
+  <si>
+    <t>http://service.cn-shanghai.maxcompute.aliyun.com/api</t>
+  </si>
+  <si>
+    <t>http://dt.cn-shanghai.maxcompute.aliyun.com</t>
+  </si>
+  <si>
+    <t>2_使用非字母开头创建maxcompute数据源，创建失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jdbc:maxcompute2://10.88.36.232:10000/4b7bb3cf40c9a73a_default </t>
+  </si>
+  <si>
+    <t>3_使用非字母开头创建maxcompute数据源，创建失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jdbc:maxcompute2://10.88.36.232:10000/4b7bb3cf40c9a74a_default </t>
+  </si>
+  <si>
+    <t>4_使用已有的名字创建maxcompute数据源，创建失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jdbc:maxcompute2://10.88.36.232:10000/4b7bb3cf40c9a75a_default </t>
+  </si>
+  <si>
+    <t>5_使用名字长度超过20创建maxcompute数据源，创建失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jdbc:maxcompute2://10.88.36.232:10000/4b7bb3cf40c9a76a_default </t>
+  </si>
+  <si>
+    <t>6_使用以数字开头创建maxcompute数据源，创建失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jdbc:maxcompute2://10.88.36.232:10000/4b7bb3cf40c9a77a_default </t>
   </si>
 </sst>
 </file>
@@ -471,14 +514,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -559,6 +594,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -934,10 +977,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -946,19 +989,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -970,19 +1013,19 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -991,28 +1034,28 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1024,66 +1067,63 @@
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1092,7 +1132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1502,17 +1542,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
@@ -1522,58 +1562,74 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:6">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:4">
-      <c r="A5" s="4" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="1:19">
-      <c r="A6" s="4" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:19">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S6" s="5"/>
+      <c r="S6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1655,7 +1711,7 @@
       <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I2">
@@ -2408,7 +2464,7 @@
       <c r="G2" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>123456</v>
       </c>
       <c r="I2">
@@ -2587,7 +2643,7 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -2659,7 +2715,7 @@
       <c r="G2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>68</v>
       </c>
       <c r="I2">
@@ -2691,7 +2747,7 @@
       <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I3">
@@ -2723,7 +2779,7 @@
       <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>100</v>
       </c>
       <c r="I4">
@@ -2755,7 +2811,7 @@
       <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>103</v>
       </c>
       <c r="I5">
@@ -2784,7 +2840,7 @@
       <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>106</v>
       </c>
       <c r="I6">
@@ -2816,7 +2872,7 @@
       <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>109</v>
       </c>
       <c r="I7">
@@ -2838,8 +2894,8 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2849,8 +2905,8 @@
     <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="5.875" customWidth="1"/>
-    <col min="6" max="6" width="39.75" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="59.875" customWidth="1"/>
+    <col min="7" max="7" width="33.5" customWidth="1"/>
     <col min="8" max="8" width="20.625" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
     <col min="10" max="10" width="86.375" customWidth="1"/>
@@ -2908,9 +2964,9 @@
         <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>68</v>
       </c>
       <c r="I2">
@@ -2925,7 +2981,7 @@
         <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2937,13 +2993,13 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
-        <v>33</v>
+      <c r="H3" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -2957,7 +3013,7 @@
         <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2969,13 +3025,13 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
-        <v>33</v>
+      <c r="H4" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2989,25 +3045,25 @@
         <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" t="s">
-        <v>33</v>
+      <c r="H5" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -3021,7 +3077,7 @@
         <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
         <v>43</v>
@@ -3030,13 +3086,13 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" t="s">
-        <v>33</v>
+      <c r="H6" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -3050,7 +3106,7 @@
         <v>110</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
@@ -3062,13 +3118,13 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" t="s">
-        <v>33</v>
+      <c r="H7" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -3087,308 +3143,105 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
+    <col min="6" max="6" width="59.875" customWidth="1"/>
+    <col min="7" max="7" width="33.5" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="35.75" customWidth="1"/>
+    <col min="10" max="10" width="20.625" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="86.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="I1" t="s">
+        <v>128</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:10">
+        <v>129</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
+        <v>134</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" t="s">
+        <v>136</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:9">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5">
+        <v>137</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:9">
-      <c r="A6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:10">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:10">
-      <c r="A16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="L2" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" display="1234@Qwer"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -3398,15 +3251,234 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="15" customFormat="1" spans="3:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" customFormat="1" spans="3:3">
+      <c r="C16" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12270" activeTab="7"/>
+    <workbookView windowWidth="28125" windowHeight="12270" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -15,15 +15,16 @@
     <sheet name="OracleAdd" sheetId="8" r:id="rId6"/>
     <sheet name="hiveAdd" sheetId="9" r:id="rId7"/>
     <sheet name="maxcomputeAdd" sheetId="10" r:id="rId8"/>
-    <sheet name="1" sheetId="3" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId10"/>
+    <sheet name="mongoAdd" sheetId="11" r:id="rId9"/>
+    <sheet name="1" sheetId="3" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="156">
   <si>
     <t>module</t>
   </si>
@@ -171,16 +172,13 @@
     <t>jdbc:mysql://10.88.36.230:3307/test</t>
   </si>
   <si>
-    <t>3_使用非字母开头创建mysql数据源，创建失败</t>
-  </si>
-  <si>
-    <t>4_使用已有的名字创建mysql数据源，创建失败</t>
+    <t>3_使用已有的名字创建mysql数据源，创建失败</t>
   </si>
   <si>
     <t>jdbc:mysql://10.88.36.230:3308/test</t>
   </si>
   <si>
-    <t>5_使用名字长度超过20创建mysql数据源，创建失败</t>
+    <t>4_使用名字长度超过20创建mysql数据源，创建失败</t>
   </si>
   <si>
     <t>_wmc1212122</t>
@@ -189,7 +187,7 @@
     <t>jdbc:mysql://10.88.36.230:3309/test</t>
   </si>
   <si>
-    <t>6_使用以数字开头创建mysql数据源，创建失败</t>
+    <t>5_使用以数字开头创建mysql数据源，创建失败</t>
   </si>
   <si>
     <t>1_</t>
@@ -222,22 +220,19 @@
     <t>jdbc:sqlServer://10.88.36.230:3307/test</t>
   </si>
   <si>
-    <t>3_使用非字母开头创建sqlServer数据源，创建失败</t>
-  </si>
-  <si>
-    <t>4_使用已有的名字创建sqlServer数据源，创建失败</t>
+    <t>3_使用已有的名字创建sqlServer数据源，创建失败</t>
   </si>
   <si>
     <t>jdbc:sqlServer://10.88.36.230:3308/test</t>
   </si>
   <si>
-    <t>5_使用名字长度超过20创建sqlServer数据源，创建失败</t>
+    <t>4_使用名字长度超过20创建sqlServer数据源，创建失败</t>
   </si>
   <si>
     <t>jdbc:sqlServer://10.88.36.230:3309/test</t>
   </si>
   <si>
-    <t>6_使用以数字开头创建sqlServer数据源，创建失败</t>
+    <t>5_使用以数字开头创建sqlServer数据源，创建失败</t>
   </si>
   <si>
     <t>jdbc:sqlServer://10.88.36.230:3310/test</t>
@@ -267,22 +262,19 @@
     <t>jdbc:PostgreSql://10.88.36.230:3307/test</t>
   </si>
   <si>
-    <t>3_使用非字母开头创建PostgreSql数据源，创建失败</t>
-  </si>
-  <si>
-    <t>4_使用已有的名字创建PostgreSql数据源，创建失败</t>
+    <t>3_使用已有的名字创建PostgreSql数据源，创建失败</t>
   </si>
   <si>
     <t>jdbc:PostgreSql://10.88.36.230:3308/test</t>
   </si>
   <si>
-    <t>5_使用名字长度超过20创建PostgreSql数据源，创建失败</t>
+    <t>4_使用名字长度超过20创建PostgreSql数据源，创建失败</t>
   </si>
   <si>
     <t>jdbc:PostgreSql://10.88.36.230:3309/test</t>
   </si>
   <si>
-    <t>6_使用以数字开头创建PostgreSql数据源，创建失败</t>
+    <t>5_使用以数字开头创建PostgreSql数据源，创建失败</t>
   </si>
   <si>
     <t>jdbc:PostgreSql://10.88.36.230:3310/test</t>
@@ -309,22 +301,19 @@
     <t>jdbc:Db2://10.88.36.230:3307/test</t>
   </si>
   <si>
-    <t>3_使用非字母开头创建Db2数据源，创建失败</t>
-  </si>
-  <si>
-    <t>4_使用已有的名字创建Db2数据源，创建失败</t>
+    <t>3_使用已有的名字创建Db2数据源，创建失败</t>
   </si>
   <si>
     <t>jdbc:Db2://10.88.36.230:3308/test</t>
   </si>
   <si>
-    <t>5_使用名字长度超过20创建Db2数据源，创建失败</t>
+    <t>4_使用名字长度超过20创建Db2数据源，创建失败</t>
   </si>
   <si>
     <t>jdbc:Db2://10.88.36.230:3309/test</t>
   </si>
   <si>
-    <t>6_使用以数字开头创建Db2数据源，创建失败</t>
+    <t>5_使用以数字开头创建Db2数据源，创建失败</t>
   </si>
   <si>
     <t>jdbc:Db2://10.88.36.230:3310/test</t>
@@ -348,82 +337,73 @@
     <t>jdbc:Oracle://10.88.36.230:3307/test</t>
   </si>
   <si>
+    <t>test125</t>
+  </si>
+  <si>
+    <t>3_使用已有的名字创建Oracle数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:Oracle://10.88.36.230:3308/test</t>
+  </si>
+  <si>
+    <t>test126</t>
+  </si>
+  <si>
+    <t>4_使用名字长度超过20创建Oracle数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:Oracle://10.88.36.230:3309/test</t>
+  </si>
+  <si>
+    <t>test127</t>
+  </si>
+  <si>
+    <t>5_使用以数字开头创建Oracle数据源，创建失败</t>
+  </si>
+  <si>
+    <t>jdbc:Oracle://10.88.36.230:3310/test</t>
+  </si>
+  <si>
+    <t>test128</t>
+  </si>
+  <si>
+    <t>创建hive数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名创建hive数据源，创建成功</t>
+  </si>
+  <si>
+    <t>hive_</t>
+  </si>
+  <si>
+    <t>jdbc:hive2://10.88.36.232:10000/8de0be79478a86f2_default</t>
+  </si>
+  <si>
+    <t>5760f8f587711c2db711</t>
+  </si>
+  <si>
+    <t>2_使用非字母开头创建hive数据源，创建失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jdbc:hive2://10.88.36.232:10000/4b7bb3cf40c9a73a_default </t>
+  </si>
+  <si>
     <t>test124</t>
   </si>
   <si>
-    <t>3_使用非字母开头创建Oracle数据源，创建失败</t>
-  </si>
-  <si>
-    <t>test125</t>
-  </si>
-  <si>
-    <t>4_使用已有的名字创建Oracle数据源，创建失败</t>
-  </si>
-  <si>
-    <t>jdbc:Oracle://10.88.36.230:3308/test</t>
-  </si>
-  <si>
-    <t>test126</t>
-  </si>
-  <si>
-    <t>5_使用名字长度超过20创建Oracle数据源，创建失败</t>
-  </si>
-  <si>
-    <t>jdbc:Oracle://10.88.36.230:3309/test</t>
-  </si>
-  <si>
-    <t>test127</t>
-  </si>
-  <si>
-    <t>6_使用以数字开头创建Oracle数据源，创建失败</t>
-  </si>
-  <si>
-    <t>jdbc:Oracle://10.88.36.230:3310/test</t>
-  </si>
-  <si>
-    <t>test128</t>
-  </si>
-  <si>
-    <t>创建hive数据源</t>
-  </si>
-  <si>
-    <t>1_使用正确的命名创建hive数据源，创建成功</t>
-  </si>
-  <si>
-    <t>hive_</t>
-  </si>
-  <si>
-    <t>jdbc:hive2://10.88.36.232:10000/8de0be79478a86f2_default</t>
-  </si>
-  <si>
-    <t>5760f8f587711c2db711</t>
-  </si>
-  <si>
-    <t>2_使用非字母开头创建hive数据源，创建失败</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jdbc:hive2://10.88.36.232:10000/4b7bb3cf40c9a73a_default </t>
-  </si>
-  <si>
-    <t>3_使用非字母开头创建hive数据源，创建失败</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jdbc:hive2://10.88.36.232:10000/4b7bb3cf40c9a74a_default </t>
-  </si>
-  <si>
-    <t>4_使用已有的名字创建hive数据源，创建失败</t>
+    <t>3_使用已有的名字创建hive数据源，创建失败</t>
   </si>
   <si>
     <t xml:space="preserve">jdbc:hive2://10.88.36.232:10000/4b7bb3cf40c9a75a_default </t>
   </si>
   <si>
-    <t>5_使用名字长度超过20创建hive数据源，创建失败</t>
+    <t>4_使用名字长度超过20创建hive数据源，创建失败</t>
   </si>
   <si>
     <t xml:space="preserve">jdbc:hive2://10.88.36.232:10000/4b7bb3cf40c9a76a_default </t>
   </si>
   <si>
-    <t>6_使用以数字开头创建hive数据源，创建失败</t>
+    <t>5_使用以数字开头创建hive数据源，创建失败</t>
   </si>
   <si>
     <t xml:space="preserve">jdbc:hive2://10.88.36.232:10000/4b7bb3cf40c9a77a_default </t>
@@ -471,31 +451,76 @@
     <t>2_使用非字母开头创建maxcompute数据源，创建失败</t>
   </si>
   <si>
-    <t xml:space="preserve">jdbc:maxcompute2://10.88.36.232:10000/4b7bb3cf40c9a73a_default </t>
-  </si>
-  <si>
-    <t>3_使用非字母开头创建maxcompute数据源，创建失败</t>
-  </si>
-  <si>
     <t xml:space="preserve">jdbc:maxcompute2://10.88.36.232:10000/4b7bb3cf40c9a74a_default </t>
   </si>
   <si>
-    <t>4_使用已有的名字创建maxcompute数据源，创建失败</t>
+    <t>3_使用已有的名字创建maxcompute数据源，创建失败</t>
   </si>
   <si>
     <t xml:space="preserve">jdbc:maxcompute2://10.88.36.232:10000/4b7bb3cf40c9a75a_default </t>
   </si>
   <si>
-    <t>5_使用名字长度超过20创建maxcompute数据源，创建失败</t>
+    <t>4_使用名字长度超过20创建maxcompute数据源，创建失败</t>
   </si>
   <si>
     <t xml:space="preserve">jdbc:maxcompute2://10.88.36.232:10000/4b7bb3cf40c9a76a_default </t>
   </si>
   <si>
-    <t>6_使用以数字开头创建maxcompute数据源，创建失败</t>
+    <t>5_使用以数字开头创建maxcompute数据源，创建失败</t>
   </si>
   <si>
     <t xml:space="preserve">jdbc:maxcompute2://10.88.36.232:10000/4b7bb3cf40c9a77a_default </t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Db</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>创建mongo数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名创建mongo数据源，创建成功</t>
+  </si>
+  <si>
+    <t>mongo</t>
+  </si>
+  <si>
+    <t>10.88.36.121:27018</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>2_使用非字母开头创建mongo数据源，创建失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jdbc:mongo2://10.88.36.232:10000/4b7bb3cf40c9a73a_default </t>
+  </si>
+  <si>
+    <t>3_使用已有的名字创建mongo数据源，创建失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jdbc:mongo2://10.88.36.232:10000/4b7bb3cf40c9a75a_default </t>
+  </si>
+  <si>
+    <t>4_使用名字长度超过20创建mongo数据源，创建失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jdbc:mongo2://10.88.36.232:10000/4b7bb3cf40c9a76a_default </t>
+  </si>
+  <si>
+    <t>5_使用以数字开头创建mongo数据源，创建失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jdbc:mongo2://10.88.36.232:10000/4b7bb3cf40c9a77a_default </t>
   </si>
 </sst>
 </file>
@@ -1621,6 +1646,53 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A6:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" customFormat="1" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="15" customFormat="1" spans="3:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" customFormat="1" spans="3:3">
+      <c r="C16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1637,13 +1709,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
@@ -1763,14 +1835,14 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
+      <c r="D4" t="s">
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -1790,19 +1862,16 @@
         <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -1822,16 +1891,19 @@
         <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -1843,38 +1915,6 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1888,13 +1928,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
@@ -1942,28 +1982,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>51</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>52</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1974,10 +2014,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1989,7 +2029,7 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2006,22 +2046,22 @@
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
+      <c r="D4" t="s">
+        <v>49</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -2038,16 +2078,13 @@
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
@@ -2070,13 +2107,16 @@
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -2094,38 +2134,6 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2139,13 +2147,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
@@ -2193,28 +2201,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="s">
-        <v>68</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2225,10 +2233,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2240,7 +2248,7 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2257,16 +2265,16 @@
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
+      <c r="D4" t="s">
+        <v>63</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
@@ -2289,22 +2297,19 @@
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>72</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>73</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -2321,19 +2326,22 @@
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
         <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>75</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -2345,38 +2353,6 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2390,13 +2366,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
@@ -2444,25 +2420,25 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H2" s="2">
         <v>123456</v>
@@ -2476,10 +2452,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2491,7 +2467,7 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -2508,22 +2484,22 @@
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
+      <c r="D4" t="s">
+        <v>77</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -2540,22 +2516,19 @@
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -2572,19 +2545,22 @@
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -2596,38 +2572,6 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2641,13 +2585,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
@@ -2695,28 +2639,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2727,10 +2671,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2742,13 +2686,13 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -2759,28 +2703,28 @@
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
+      <c r="D4" t="s">
+        <v>90</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2791,28 +2735,25 @@
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2823,62 +2764,33 @@
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2892,13 +2804,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
@@ -2946,28 +2858,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2978,10 +2890,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2993,13 +2905,13 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3010,28 +2922,28 @@
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
+      <c r="D4" t="s">
+        <v>106</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -3042,28 +2954,25 @@
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -3074,62 +2983,33 @@
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3143,13 +3023,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
@@ -3182,19 +3062,19 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K1" t="s">
         <v>25</v>
@@ -3205,39 +3085,188 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3251,230 +3280,232 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="59.875" customWidth="1"/>
+    <col min="7" max="8" width="7.125" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="86.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
         <v>139</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>98</v>
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
       </c>
       <c r="I1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="J1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K1">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:12">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="B2" t="s">
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>37</v>
+      <c r="D2" t="s">
+        <v>145</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:12">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="2">
+        <v>123456</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>132</v>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:12">
+      <c r="H3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="2">
+        <v>123457</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4"/>
+        <v>150</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" t="s">
-        <v>136</v>
-      </c>
-      <c r="J4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:12">
+      <c r="H4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="2">
+        <v>123459</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I5" t="s">
-        <v>136</v>
-      </c>
-      <c r="J5" t="s">
-        <v>137</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="15" customFormat="1" spans="3:3">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" customFormat="1" spans="3:3">
-      <c r="C16" s="1"/>
+      <c r="H5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="2">
+        <v>123460</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="2">
+        <v>123461</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12270" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="28125" windowHeight="12270" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -1648,8 +1648,8 @@
   <sheetPr/>
   <dimension ref="A6:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="F26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3282,8 +3282,8 @@
   <sheetPr/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12270" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="12270" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,16 @@
     <sheet name="hiveAdd" sheetId="9" r:id="rId7"/>
     <sheet name="maxcomputeAdd" sheetId="10" r:id="rId8"/>
     <sheet name="mongoAdd" sheetId="11" r:id="rId9"/>
-    <sheet name="1" sheetId="3" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId11"/>
+    <sheet name="hdfsAdd" sheetId="12" r:id="rId10"/>
+    <sheet name="1" sheetId="3" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="163">
   <si>
     <t>module</t>
   </si>
@@ -521,6 +522,27 @@
   </si>
   <si>
     <t xml:space="preserve">jdbc:mongo2://10.88.36.232:10000/4b7bb3cf40c9a77a_default </t>
+  </si>
+  <si>
+    <t>创建hdfs数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名创建hdfs数据源，创建成功</t>
+  </si>
+  <si>
+    <t>hdfs</t>
+  </si>
+  <si>
+    <t>2_使用非字母开头创建hdfs数据源，创建失败</t>
+  </si>
+  <si>
+    <t>3_使用已有的名字创建hdfs数据源，创建失败</t>
+  </si>
+  <si>
+    <t>4_使用名字长度超过20创建hdfs数据源，创建失败</t>
+  </si>
+  <si>
+    <t>5_使用以数字开头创建hdfs数据源，创建失败</t>
   </si>
 </sst>
 </file>
@@ -1646,10 +1668,172 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A6:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="F26:G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1690,7 +1874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12270" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,18 @@
     <sheet name="maxcomputeAdd" sheetId="10" r:id="rId8"/>
     <sheet name="mongoAdd" sheetId="11" r:id="rId9"/>
     <sheet name="hdfsAdd" sheetId="12" r:id="rId10"/>
-    <sheet name="1" sheetId="3" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId12"/>
+    <sheet name="hdfs_publicNetAdd" sheetId="13" r:id="rId11"/>
+    <sheet name="opentsdbAdd" sheetId="14" r:id="rId12"/>
+    <sheet name="opentsdb_publicNetAdd" sheetId="15" r:id="rId13"/>
+    <sheet name="1" sheetId="3" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="192">
   <si>
     <t>module</t>
   </si>
@@ -543,6 +546,93 @@
   </si>
   <si>
     <t>5_使用以数字开头创建hdfs数据源，创建失败</t>
+  </si>
+  <si>
+    <t>创建公网hdfs数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名创建公网hdfs数据源，创建成功</t>
+  </si>
+  <si>
+    <t>pip_hdfs_</t>
+  </si>
+  <si>
+    <t>hdfs://10.88.36.231:8020</t>
+  </si>
+  <si>
+    <t>2_使用非字母开头创建公网hdfs数据源，创建失败</t>
+  </si>
+  <si>
+    <t>3_使用已有的名字创建公网hdfs数据源，创建失败</t>
+  </si>
+  <si>
+    <t>4_使用名字长度超过20创建公网hdfs数据源，创建失败</t>
+  </si>
+  <si>
+    <t>5_使用以数字开头创建公网hdfs数据源，创建失败</t>
+  </si>
+  <si>
+    <t>paraname1</t>
+  </si>
+  <si>
+    <t>创建opentsdb_数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名创建opentsdb_数据源，创建成功</t>
+  </si>
+  <si>
+    <t>opentsdb_</t>
+  </si>
+  <si>
+    <t>parameter1</t>
+  </si>
+  <si>
+    <t>2_使用非字母开头创建opentsdb_数据源，创建失败</t>
+  </si>
+  <si>
+    <t>parameter2</t>
+  </si>
+  <si>
+    <t>3_使用已有的名字创建opentsdb_数据源，创建失败</t>
+  </si>
+  <si>
+    <t>parameter3</t>
+  </si>
+  <si>
+    <t>4_使用名字长度超过20创建opentsdb_数据源，创建失败</t>
+  </si>
+  <si>
+    <t>parameter4</t>
+  </si>
+  <si>
+    <t>5_使用以数字开头创建opentsdb_数据源，创建失败</t>
+  </si>
+  <si>
+    <t>parameter5</t>
+  </si>
+  <si>
+    <t>创建公网opentsdb_数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名创建公网opentsdb_数据源，创建成功</t>
+  </si>
+  <si>
+    <t>pubIpOtsdb</t>
+  </si>
+  <si>
+    <t>http://10.88.36.204:4242</t>
+  </si>
+  <si>
+    <t>2_使用非字母开头创建公网opentsdb_数据源，创建失败</t>
+  </si>
+  <si>
+    <t>3_使用已有的名字创建公网opentsdb_数据源，创建失败</t>
+  </si>
+  <si>
+    <t>4_使用名字长度超过20创建公网opentsdb_数据源，创建失败</t>
+  </si>
+  <si>
+    <t>5_使用以数字开头创建公网opentsdb_数据源，创建失败</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1760,7 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1830,6 +1920,586 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="42.75" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="6" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="50.625" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A6:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1874,7 +2544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="12"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,17 @@
     <sheet name="hdfs_publicNetAdd" sheetId="13" r:id="rId11"/>
     <sheet name="opentsdbAdd" sheetId="14" r:id="rId12"/>
     <sheet name="opentsdb_publicNetAdd" sheetId="15" r:id="rId13"/>
-    <sheet name="1" sheetId="3" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId15"/>
+    <sheet name="httpmdtAdd" sheetId="16" r:id="rId14"/>
+    <sheet name="mqttAdd" sheetId="17" r:id="rId15"/>
+    <sheet name="1" sheetId="3" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="216">
   <si>
     <t>module</t>
   </si>
@@ -633,6 +635,78 @@
   </si>
   <si>
     <t>5_使用以数字开头创建公网opentsdb_数据源，创建失败</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>创建httpmdt数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名创建httpmdt数据源，创建成功</t>
+  </si>
+  <si>
+    <t>httpmdt_</t>
+  </si>
+  <si>
+    <t>topic_</t>
+  </si>
+  <si>
+    <t>2_使用非字母开头创建httpmdt数据源，创建失败</t>
+  </si>
+  <si>
+    <t>#$t_</t>
+  </si>
+  <si>
+    <t>3_使用已有的名字创建httpmdt数据源，创建失败</t>
+  </si>
+  <si>
+    <t>httpmdt</t>
+  </si>
+  <si>
+    <t>4_使用名字长度超过20创建httpmdt数据源，创建失败</t>
+  </si>
+  <si>
+    <t>httpmdt111_</t>
+  </si>
+  <si>
+    <t>5_使用以数字开头创建httpmdt数据源，创建失败</t>
+  </si>
+  <si>
+    <t>1httpmdt</t>
+  </si>
+  <si>
+    <t>创建mqtt数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名创建mqtt数据源，创建成功</t>
+  </si>
+  <si>
+    <t>mqtt_</t>
+  </si>
+  <si>
+    <t>2_使用非字母开头创建mqtt数据源，创建失败</t>
+  </si>
+  <si>
+    <t>3_使用已有的名字创建mqtt数据源，创建失败</t>
+  </si>
+  <si>
+    <t>mqtt</t>
+  </si>
+  <si>
+    <t>4_使用名字长度超过20创建mqtt数据源，创建失败</t>
+  </si>
+  <si>
+    <t>mqtt111_</t>
+  </si>
+  <si>
+    <t>5_使用以数字开头创建mqtt数据源，创建失败</t>
+  </si>
+  <si>
+    <t>1mqtt</t>
   </si>
 </sst>
 </file>
@@ -2123,7 +2197,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -2302,8 +2376,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2500,42 +2574,196 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A6:C16"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD4"/>
+      <selection activeCell="A1" sqref="$A1:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="1" max="1" width="40.875" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="86.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" customFormat="1" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="15" customFormat="1" spans="3:3">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" customFormat="1" spans="3:3">
-      <c r="C16" s="1"/>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2545,6 +2773,260 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1"/>
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1"/>
+    <row r="8" customFormat="1"/>
+    <row r="9" customFormat="1"/>
+    <row r="10" customFormat="1" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="19" customFormat="1" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" customFormat="1" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="220">
   <si>
     <t>module</t>
   </si>
@@ -679,6 +679,9 @@
     <t>1httpmdt</t>
   </si>
   <si>
+    <t>para_desc</t>
+  </si>
+  <si>
     <t>创建mqtt数据源</t>
   </si>
   <si>
@@ -688,25 +691,34 @@
     <t>mqtt_</t>
   </si>
   <si>
+    <t>parameter1_desc</t>
+  </si>
+  <si>
     <t>2_使用非字母开头创建mqtt数据源，创建失败</t>
   </si>
   <si>
     <t>3_使用已有的名字创建mqtt数据源，创建失败</t>
   </si>
   <si>
-    <t>mqtt</t>
+    <t>parameter2_desc</t>
   </si>
   <si>
     <t>4_使用名字长度超过20创建mqtt数据源，创建失败</t>
   </si>
   <si>
-    <t>mqtt111_</t>
+    <t>mqtt111111_</t>
+  </si>
+  <si>
+    <t>parameter3_desc</t>
   </si>
   <si>
     <t>5_使用以数字开头创建mqtt数据源，创建失败</t>
   </si>
   <si>
     <t>1mqtt</t>
+  </si>
+  <si>
+    <t>parameter4_desc</t>
   </si>
 </sst>
 </file>
@@ -2577,7 +2589,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2775,24 +2787,24 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="35.75" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="86.375" customWidth="1"/>
+    <col min="6" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="86.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:9">
+    <row r="1" customFormat="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2815,24 +2827,27 @@
         <v>171</v>
       </c>
       <c r="H1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:9">
+    <row r="2" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
         <v>197</v>
@@ -2843,10 +2858,141 @@
       <c r="G2" t="s">
         <v>175</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2860,139 +3006,20 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A10:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="A1" sqref="$A1:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E4" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>183</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1"/>
-    <row r="6" customFormat="1"/>
-    <row r="7" customFormat="1"/>
-    <row r="8" customFormat="1"/>
-    <row r="9" customFormat="1"/>
     <row r="10" customFormat="1" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="8" activeTab="14"/>
+    <workbookView windowWidth="28125" windowHeight="12270" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,16 @@
     <sheet name="opentsdb_publicNetAdd" sheetId="15" r:id="rId13"/>
     <sheet name="httpmdtAdd" sheetId="16" r:id="rId14"/>
     <sheet name="mqttAdd" sheetId="17" r:id="rId15"/>
-    <sheet name="1" sheetId="3" r:id="rId16"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId17"/>
+    <sheet name="relationDbEdit" sheetId="18" r:id="rId16"/>
+    <sheet name="1" sheetId="3" r:id="rId17"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId18"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="230">
   <si>
     <t>module</t>
   </si>
@@ -719,6 +720,36 @@
   </si>
   <si>
     <t>parameter4_desc</t>
+  </si>
+  <si>
+    <t>编辑mysql数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名编辑mysql数据源，编辑成功</t>
+  </si>
+  <si>
+    <t>编辑sqlServer数据源</t>
+  </si>
+  <si>
+    <t>2_使用正确的命名编辑sqlServer数据源，编辑成功</t>
+  </si>
+  <si>
+    <t>编辑postgreSql数据源</t>
+  </si>
+  <si>
+    <t>3_使用正确的命名编辑postgreSql数据源，编辑成功</t>
+  </si>
+  <si>
+    <t>编辑DB2数据源</t>
+  </si>
+  <si>
+    <t>4_使用正确的命名编辑DB2数据源，编辑成功</t>
+  </si>
+  <si>
+    <t>编辑Oracle数据源</t>
+  </si>
+  <si>
+    <t>5_使用正确的命名编辑Oracle数据源，编辑成功</t>
   </si>
 </sst>
 </file>
@@ -2789,7 +2820,7 @@
   <sheetPr/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -3004,6 +3035,152 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A10:C20"/>
@@ -3053,7 +3230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -3075,7 +3252,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3294,7 +3471,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3513,7 +3690,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3732,7 +3909,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3951,7 +4128,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12270" firstSheet="10" activeTab="15"/>
+    <workbookView windowWidth="28125" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="230">
   <si>
     <t>module</t>
   </si>
@@ -69,7 +69,7 @@
     <t>wmc_desc</t>
   </si>
   <si>
-    <t>2_使用已存在的字符创建项目，新建失败</t>
+    <t>2_使用已有的项目名创建项目，新建失败</t>
   </si>
   <si>
     <t>3_使用特殊字符创建项目，新建成功</t>
@@ -779,67 +779,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,8 +802,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,9 +847,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,22 +879,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -917,7 +894,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -932,7 +932,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,7 +962,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,25 +1034,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,61 +1070,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,43 +1088,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,18 +1116,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1126,25 +1126,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1168,23 +1159,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,6 +1182,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1214,15 +1223,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1231,10 +1231,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1243,133 +1243,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1742,8 +1742,8 @@
   <sheetPr/>
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1878,7 +1878,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1991,6 +1991,9 @@
       <c r="B5" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" t="s">
         <v>42</v>
       </c>
@@ -2040,7 +2043,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2179,6 +2182,9 @@
       <c r="B5" s="1" t="s">
         <v>169</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" t="s">
         <v>42</v>
       </c>
@@ -2240,7 +2246,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -2365,6 +2371,9 @@
       <c r="B5" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" t="s">
         <v>42</v>
       </c>
@@ -2420,7 +2429,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2559,6 +2568,9 @@
       <c r="B5" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" t="s">
         <v>42</v>
       </c>
@@ -2620,7 +2632,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2821,7 +2833,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3039,8 +3051,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -3252,7 +3264,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3404,6 +3416,9 @@
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" t="s">
         <v>42</v>
       </c>
@@ -3471,7 +3486,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3623,6 +3638,9 @@
       <c r="B5" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" t="s">
         <v>42</v>
       </c>
@@ -3690,7 +3708,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3842,6 +3860,9 @@
       <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" t="s">
         <v>42</v>
       </c>
@@ -3909,7 +3930,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -4061,6 +4082,9 @@
       <c r="B5" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" t="s">
         <v>42</v>
       </c>
@@ -4128,7 +4152,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -4280,6 +4304,9 @@
       <c r="B5" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" t="s">
         <v>42</v>
       </c>
@@ -4347,7 +4374,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -4499,6 +4526,9 @@
       <c r="B5" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" t="s">
         <v>42</v>
       </c>
@@ -4566,7 +4596,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -4744,6 +4774,9 @@
       <c r="B5" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" t="s">
         <v>42</v>
       </c>
@@ -4823,7 +4856,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -4987,6 +5020,9 @@
       <c r="B5" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" t="s">
         <v>42</v>
       </c>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12270"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,16 @@
     <sheet name="httpmdtAdd" sheetId="16" r:id="rId14"/>
     <sheet name="mqttAdd" sheetId="17" r:id="rId15"/>
     <sheet name="relationDbEdit" sheetId="18" r:id="rId16"/>
-    <sheet name="1" sheetId="3" r:id="rId17"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId18"/>
+    <sheet name="hiveEdit" sheetId="19" r:id="rId17"/>
+    <sheet name="1" sheetId="3" r:id="rId18"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="235">
   <si>
     <t>module</t>
   </si>
@@ -63,7 +64,7 @@
     <t>wmc_test</t>
   </si>
   <si>
-    <t>_wmc_edit</t>
+    <t>_自动化测试勿操作！</t>
   </si>
   <si>
     <t>wmc_desc</t>
@@ -470,6 +471,9 @@
     <t>4_使用名字长度超过20创建maxcompute数据源，创建失败</t>
   </si>
   <si>
+    <t>wmc1212122_</t>
+  </si>
+  <si>
     <t xml:space="preserve">jdbc:maxcompute2://10.88.36.232:10000/4b7bb3cf40c9a76a_default </t>
   </si>
   <si>
@@ -750,6 +754,18 @@
   </si>
   <si>
     <t>5_使用正确的命名编辑Oracle数据源，编辑成功</t>
+  </si>
+  <si>
+    <t>编辑hive数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名编辑hive数据源，编辑成功</t>
+  </si>
+  <si>
+    <t>编辑MaxCompute数据源</t>
+  </si>
+  <si>
+    <t>2_使用正确的命名编辑MaxCompute数据源，编辑成功</t>
   </si>
 </sst>
 </file>
@@ -757,10 +773,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -780,33 +796,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -818,15 +825,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,15 +848,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,17 +882,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -894,15 +897,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,7 +919,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -932,61 +948,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,7 +978,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,49 +1092,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,49 +1122,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,6 +1139,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1141,17 +1166,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,9 +1207,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,32 +1239,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1231,10 +1247,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1243,133 +1259,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1742,8 +1758,8 @@
   <sheetPr/>
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1878,14 +1894,14 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
@@ -1917,16 +1933,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
@@ -1940,10 +1956,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1963,16 +1979,16 @@
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
@@ -1986,10 +2002,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2009,10 +2025,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2043,14 +2059,14 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="42.75" customWidth="1"/>
@@ -2076,10 +2092,10 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
@@ -2090,25 +2106,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2119,10 +2135,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2134,10 +2150,10 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2148,25 +2164,25 @@
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2177,10 +2193,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2192,10 +2208,10 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2206,10 +2222,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2221,10 +2237,10 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2246,14 +2262,14 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="6" width="17.875" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
@@ -2277,7 +2293,7 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
         <v>25</v>
@@ -2288,22 +2304,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2314,10 +2330,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2329,7 +2345,7 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2340,22 +2356,22 @@
     </row>
     <row r="4" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2366,10 +2382,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2381,7 +2397,7 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2392,10 +2408,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2407,7 +2423,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2429,14 +2445,14 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="50.625" customWidth="1"/>
@@ -2462,10 +2478,10 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
@@ -2476,25 +2492,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2505,10 +2521,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2520,10 +2536,10 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2534,25 +2550,25 @@
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2563,10 +2579,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2578,10 +2594,10 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2592,10 +2608,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2607,10 +2623,10 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2639,7 +2655,7 @@
   <cols>
     <col min="1" max="1" width="40.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
     <col min="4" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="7" width="17.875" customWidth="1"/>
     <col min="8" max="8" width="17.5" customWidth="1"/>
@@ -2660,13 +2676,13 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
@@ -2677,25 +2693,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2706,25 +2722,25 @@
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" t="s">
-        <v>197</v>
-      </c>
       <c r="F3" t="s">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2735,25 +2751,25 @@
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2764,25 +2780,25 @@
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -2793,25 +2809,25 @@
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -2833,14 +2849,14 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="35.75" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="8" width="17.875" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
@@ -2861,16 +2877,16 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I1" t="s">
         <v>25</v>
@@ -2881,28 +2897,28 @@
     </row>
     <row r="2" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2913,28 +2929,28 @@
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
         <v>211</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" t="s">
-        <v>210</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -2945,28 +2961,28 @@
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -2977,28 +2993,28 @@
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -3009,28 +3025,28 @@
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -3052,14 +3068,14 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="35.75" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="86.375" customWidth="1"/>
@@ -3087,10 +3103,10 @@
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -3107,10 +3123,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -3127,10 +3143,10 @@
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -3147,10 +3163,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -3167,10 +3183,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -3195,45 +3211,61 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A10:C20"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="19.25" customWidth="1"/>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="86.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" customFormat="1" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="19" customFormat="1" spans="3:3">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" customFormat="1" spans="3:3">
-      <c r="C20" s="1"/>
+    <row r="1" customFormat="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3243,6 +3275,136 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="19" customFormat="1" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" customFormat="1" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -3264,14 +3426,14 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="35.25" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="5.875" customWidth="1"/>
     <col min="6" max="6" width="39.75" customWidth="1"/>
@@ -3493,7 +3655,7 @@
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="6" max="6" width="58.625" customWidth="1"/>
@@ -3708,14 +3870,14 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="5.875" customWidth="1"/>
     <col min="6" max="6" width="48.25" customWidth="1"/>
@@ -3930,14 +4092,14 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="28.25" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="5.875" customWidth="1"/>
     <col min="6" max="6" width="39.75" customWidth="1"/>
@@ -4152,14 +4314,14 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="5.875" customWidth="1"/>
     <col min="6" max="6" width="39.75" customWidth="1"/>
@@ -4374,14 +4536,14 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="5.875" customWidth="1"/>
     <col min="6" max="6" width="59.875" customWidth="1"/>
@@ -4596,14 +4758,14 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="5.875" customWidth="1"/>
     <col min="6" max="6" width="59.875" customWidth="1"/>
@@ -4778,13 +4940,13 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -4810,7 +4972,7 @@
         <v>123</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -4822,7 +4984,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -4856,14 +5018,14 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="30.625" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="59.875" customWidth="1"/>
@@ -4890,16 +5052,16 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J1" t="s">
         <v>25</v>
@@ -4910,28 +5072,28 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G2" t="s">
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I2" s="2">
         <v>123456</v>
@@ -4945,10 +5107,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -4960,13 +5122,13 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I3" s="2">
         <v>123457</v>
@@ -4980,28 +5142,28 @@
     </row>
     <row r="4" customFormat="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I4" s="2">
         <v>123459</v>
@@ -5015,10 +5177,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -5030,13 +5192,13 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I5" s="2">
         <v>123460</v>
@@ -5050,10 +5212,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -5065,13 +5227,13 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I6" s="2">
         <v>123461</v>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="11" activeTab="16"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="231">
   <si>
     <t>module</t>
   </si>
@@ -375,46 +375,34 @@
     <t>test128</t>
   </si>
   <si>
+    <t>defaultdataSource_name</t>
+  </si>
+  <si>
     <t>创建hive数据源</t>
   </si>
   <si>
     <t>1_使用正确的命名创建hive数据源，创建成功</t>
   </si>
   <si>
+    <t>default</t>
+  </si>
+  <si>
     <t>hive_</t>
   </si>
   <si>
-    <t>jdbc:hive2://10.88.36.232:10000/8de0be79478a86f2_default</t>
-  </si>
-  <si>
-    <t>5760f8f587711c2db711</t>
-  </si>
-  <si>
     <t>2_使用非字母开头创建hive数据源，创建失败</t>
   </si>
   <si>
-    <t xml:space="preserve">jdbc:hive2://10.88.36.232:10000/4b7bb3cf40c9a73a_default </t>
-  </si>
-  <si>
     <t>test124</t>
   </si>
   <si>
     <t>3_使用已有的名字创建hive数据源，创建失败</t>
   </si>
   <si>
-    <t xml:space="preserve">jdbc:hive2://10.88.36.232:10000/4b7bb3cf40c9a75a_default </t>
-  </si>
-  <si>
     <t>4_使用名字长度超过20创建hive数据源，创建失败</t>
   </si>
   <si>
-    <t xml:space="preserve">jdbc:hive2://10.88.36.232:10000/4b7bb3cf40c9a76a_default </t>
-  </si>
-  <si>
     <t>5_使用以数字开头创建hive数据源，创建失败</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jdbc:hive2://10.88.36.232:10000/4b7bb3cf40c9a77a_default </t>
   </si>
   <si>
     <t>AccessKeyId</t>
@@ -1933,16 +1921,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
@@ -1956,10 +1944,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1979,16 +1967,16 @@
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
@@ -2002,10 +1990,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2025,10 +2013,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2059,7 +2047,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2092,10 +2080,10 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
@@ -2106,25 +2094,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2135,10 +2123,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2150,10 +2138,10 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2164,25 +2152,25 @@
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2193,10 +2181,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2208,10 +2196,10 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2222,10 +2210,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2237,10 +2225,10 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2293,7 +2281,7 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G1" t="s">
         <v>25</v>
@@ -2304,22 +2292,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2330,10 +2318,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2345,7 +2333,7 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2356,22 +2344,22 @@
     </row>
     <row r="4" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2382,10 +2370,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2397,7 +2385,7 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2408,10 +2396,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2423,7 +2411,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2478,10 +2466,10 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
@@ -2492,25 +2480,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2521,10 +2509,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2536,10 +2524,10 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2550,25 +2538,25 @@
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2579,10 +2567,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2594,10 +2582,10 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2608,10 +2596,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2623,10 +2611,10 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2676,13 +2664,13 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
@@ -2693,25 +2681,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2722,25 +2710,25 @@
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2751,25 +2739,25 @@
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2780,25 +2768,25 @@
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -2809,25 +2797,25 @@
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -2877,16 +2865,16 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s">
         <v>25</v>
@@ -2897,28 +2885,28 @@
     </row>
     <row r="2" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2929,28 +2917,28 @@
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -2961,28 +2949,28 @@
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" t="s">
         <v>210</v>
-      </c>
-      <c r="E4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H4" t="s">
-        <v>214</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -2993,28 +2981,28 @@
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -3025,28 +3013,28 @@
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -3103,10 +3091,10 @@
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -3123,10 +3111,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -3143,10 +3131,10 @@
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -3163,10 +3151,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -3183,10 +3171,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -3213,7 +3201,7 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -3249,16 +3237,16 @@
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3293,16 +3281,16 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -3313,10 +3301,10 @@
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -3333,10 +3321,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -3353,10 +3341,10 @@
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -4533,27 +4521,25 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="31.375" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="5.875" customWidth="1"/>
-    <col min="6" max="6" width="59.875" customWidth="1"/>
-    <col min="7" max="7" width="33.5" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="86.375" customWidth="1"/>
+    <col min="3" max="4" width="31.375" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="86.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4564,62 +4550,56 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>109</v>
@@ -4628,120 +4608,108 @@
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
       <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
       <c r="F6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4794,19 +4762,19 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" t="s">
         <v>118</v>
-      </c>
-      <c r="G1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J1" t="s">
-        <v>122</v>
       </c>
       <c r="K1" t="s">
         <v>25</v>
@@ -4817,34 +4785,34 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>126</v>
-      </c>
-      <c r="G2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" t="s">
-        <v>130</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -4855,10 +4823,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -4870,7 +4838,7 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -4879,10 +4847,10 @@
         <v>94</v>
       </c>
       <c r="I3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -4893,22 +4861,22 @@
     </row>
     <row r="4" customFormat="1" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
@@ -4917,10 +4885,10 @@
         <v>97</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -4931,22 +4899,22 @@
     </row>
     <row r="5" customFormat="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
@@ -4955,10 +4923,10 @@
         <v>100</v>
       </c>
       <c r="I5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -4969,10 +4937,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -4984,7 +4952,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -4993,10 +4961,10 @@
         <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -5052,16 +5020,16 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J1" t="s">
         <v>25</v>
@@ -5072,28 +5040,28 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I2" s="2">
         <v>123456</v>
@@ -5107,10 +5075,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -5122,13 +5090,13 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I3" s="2">
         <v>123457</v>
@@ -5142,28 +5110,28 @@
     </row>
     <row r="4" customFormat="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I4" s="2">
         <v>123459</v>
@@ -5177,10 +5145,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -5192,13 +5160,13 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I5" s="2">
         <v>123460</v>
@@ -5212,10 +5180,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -5227,13 +5195,13 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I6" s="2">
         <v>123461</v>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="6" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="14" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -23,16 +23,20 @@
     <sheet name="httpmdtAdd" sheetId="16" r:id="rId14"/>
     <sheet name="mqttAdd" sheetId="17" r:id="rId15"/>
     <sheet name="relationDbEdit" sheetId="18" r:id="rId16"/>
-    <sheet name="hiveEdit" sheetId="19" r:id="rId17"/>
-    <sheet name="1" sheetId="3" r:id="rId18"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId19"/>
+    <sheet name="bigDataEdit" sheetId="19" r:id="rId17"/>
+    <sheet name="fileStoreEdit" sheetId="20" r:id="rId18"/>
+    <sheet name="Semi-structuredEdit" sheetId="21" r:id="rId19"/>
+    <sheet name="opentsdbEdit" sheetId="22" r:id="rId20"/>
+    <sheet name="messagequeueEditdeltecreate" sheetId="23" r:id="rId21"/>
+    <sheet name="1" sheetId="3" r:id="rId22"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId23"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="240">
   <si>
     <t>module</t>
   </si>
@@ -754,6 +758,33 @@
   </si>
   <si>
     <t>2_使用正确的命名编辑MaxCompute数据源，编辑成功</t>
+  </si>
+  <si>
+    <t>编辑mongodb数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名编辑mongo数据源，编辑成功</t>
+  </si>
+  <si>
+    <t>编辑hdfs数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名编辑雪浪云仓库hdfs数据源，编辑成功</t>
+  </si>
+  <si>
+    <t>2_使用正确的命名编辑公网hdfs数据源，编辑成功</t>
+  </si>
+  <si>
+    <t>编辑opentsdb数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名编辑雪浪云仓库opentsdb数据源，编辑成功</t>
+  </si>
+  <si>
+    <t>编辑httpmdt数据源</t>
+  </si>
+  <si>
+    <t>1_使用正确的命名编辑httpmdt数据源，编辑成功</t>
   </si>
 </sst>
 </file>
@@ -2636,7 +2667,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E1" sqref="E$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3199,13 +3230,13 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="35.75" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
@@ -3255,6 +3286,26 @@
         <v>34</v>
       </c>
     </row>
+    <row r="3" customFormat="1" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3265,52 +3316,54 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="19.25" customWidth="1"/>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="86.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>229</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3319,71 +3372,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="19" customFormat="1" spans="3:3">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" customFormat="1" spans="3:3">
-      <c r="C20" s="1"/>
+    <row r="3" customFormat="1" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3"/>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3395,15 +3387,79 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3626,6 +3682,283 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="19" customFormat="1" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" customFormat="1" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4523,8 +4856,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="14" activeTab="20"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="19" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,19 @@
     <sheet name="Semi-structuredEdit" sheetId="21" r:id="rId19"/>
     <sheet name="opentsdbEdit" sheetId="22" r:id="rId20"/>
     <sheet name="messagequeueEditdeltecreate" sheetId="23" r:id="rId21"/>
-    <sheet name="1" sheetId="3" r:id="rId22"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId23"/>
+    <sheet name="scriptCreteTable" sheetId="24" r:id="rId22"/>
+    <sheet name="guideCreateTable" sheetId="25" r:id="rId23"/>
+    <sheet name="userAdd" sheetId="26" r:id="rId24"/>
+    <sheet name="userEdit" sheetId="27" r:id="rId25"/>
+    <sheet name="1" sheetId="3" r:id="rId26"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId27"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="294">
   <si>
     <t>module</t>
   </si>
@@ -786,16 +790,178 @@
   <si>
     <t>1_使用正确的命名编辑httpmdt数据源，编辑成功</t>
   </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>table_name</t>
+  </si>
+  <si>
+    <t>脚本建表</t>
+  </si>
+  <si>
+    <t>1_使用正确的脚本创建数据表，创建成功</t>
+  </si>
+  <si>
+    <t>create table table_test(id int,name string)</t>
+  </si>
+  <si>
+    <t>table_test</t>
+  </si>
+  <si>
+    <t>向导建表</t>
+  </si>
+  <si>
+    <t>1_根据向导创建数据表，创建成功</t>
+  </si>
+  <si>
+    <t>create table table_wmc(id int,name string)</t>
+  </si>
+  <si>
+    <t>table_wmc</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>confirmPassword</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>partment</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>username2</t>
+  </si>
+  <si>
+    <t>添加用户</t>
+  </si>
+  <si>
+    <t>1_输入正确的用户名和密码，添加用户成功</t>
+  </si>
+  <si>
+    <t>_梦幻测试账号</t>
+  </si>
+  <si>
+    <t>Mengchen@1234</t>
+  </si>
+  <si>
+    <t>1971@163.com</t>
+  </si>
+  <si>
+    <t>王梦晨</t>
+  </si>
+  <si>
+    <t>质量流程部</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>2_输入已有的用户名和密码，添加用户失败</t>
+  </si>
+  <si>
+    <t>1972@164.com</t>
+  </si>
+  <si>
+    <t>3_输入已存在的邮箱，添加用户失败</t>
+  </si>
+  <si>
+    <t>_梦幻测试账号2</t>
+  </si>
+  <si>
+    <t>4_输入已存在的手机号，添加用户失败</t>
+  </si>
+  <si>
+    <t>_梦幻测试账号3</t>
+  </si>
+  <si>
+    <t>1972@166.com</t>
+  </si>
+  <si>
+    <t>5_输入用户名长度大于25，添加用户失败</t>
+  </si>
+  <si>
+    <t>_11111111111111111</t>
+  </si>
+  <si>
+    <t>1972@167.com</t>
+  </si>
+  <si>
+    <t>6_输入的密码为纯字母，添加用户失败</t>
+  </si>
+  <si>
+    <t>_梦幻测试账号4</t>
+  </si>
+  <si>
+    <t>aaaaaaaa</t>
+  </si>
+  <si>
+    <t>1972@163.com</t>
+  </si>
+  <si>
+    <t>7_输入的密码为纯特殊字符，添加用户失败</t>
+  </si>
+  <si>
+    <t>&amp;**…………*</t>
+  </si>
+  <si>
+    <t>8_输入的密码小于6位字符，添加用户失败</t>
+  </si>
+  <si>
+    <t>YYd1</t>
+  </si>
+  <si>
+    <t>9_输入的密码大于20位字符，添加用户失败</t>
+  </si>
+  <si>
+    <t>YYd1@1234567890888888</t>
+  </si>
+  <si>
+    <t>10_两次输入密码不一致，添加用户失败</t>
+  </si>
+  <si>
+    <t>YYd1@12345678908888</t>
+  </si>
+  <si>
+    <t>Yd1@1234567890888888</t>
+  </si>
+  <si>
+    <t>11_输入已注册的邮箱，添加用户失败</t>
+  </si>
+  <si>
+    <t>12_输入已注册的手机号，添加用户失败</t>
+  </si>
+  <si>
+    <t>查看编辑修改用户密码</t>
+  </si>
+  <si>
+    <t>1_输入正确的用户名，编辑查看修改用户密码</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -815,14 +981,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,6 +1014,28 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -852,8 +1055,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,6 +1079,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -883,25 +1109,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -914,49 +1123,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -967,7 +1133,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,7 +1151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,13 +1163,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,19 +1211,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,13 +1259,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,25 +1271,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,31 +1289,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,31 +1307,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,7 +1331,61 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,45 +1405,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1231,21 +1412,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1266,10 +1432,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1278,133 +1444,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1778,7 +1944,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3374,7 +3540,6 @@
     </row>
     <row r="3" customFormat="1" spans="1:3">
       <c r="A3" s="1"/>
-      <c r="B3"/>
       <c r="C3" s="1"/>
     </row>
   </sheetData>
@@ -3470,7 +3635,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3757,7 +3922,7 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -3840,105 +4005,68 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F20"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="19.25" customWidth="1"/>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="46.25" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="86.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="1" spans="1:6">
+    <row r="1" customFormat="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2">
+        <v>244</v>
+      </c>
+      <c r="E2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="19" customFormat="1" spans="3:3">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" customFormat="1" spans="3:3">
-      <c r="C20" s="1"/>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3948,6 +4076,692 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="46.25" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K$1:K$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="37.5" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" t="s">
+        <v>256</v>
+      </c>
+      <c r="J1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2">
+        <v>197</v>
+      </c>
+      <c r="H2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J2" t="s">
+        <v>266</v>
+      </c>
+      <c r="K2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G3">
+        <v>197</v>
+      </c>
+      <c r="H3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J3" t="s">
+        <v>266</v>
+      </c>
+      <c r="K3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4">
+        <v>197</v>
+      </c>
+      <c r="H4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I4" t="s">
+        <v>265</v>
+      </c>
+      <c r="J4" t="s">
+        <v>266</v>
+      </c>
+      <c r="K4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5">
+        <v>197</v>
+      </c>
+      <c r="H5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I5" t="s">
+        <v>265</v>
+      </c>
+      <c r="J5" t="s">
+        <v>266</v>
+      </c>
+      <c r="K5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G6">
+        <v>175</v>
+      </c>
+      <c r="H6" t="s">
+        <v>264</v>
+      </c>
+      <c r="I6" t="s">
+        <v>265</v>
+      </c>
+      <c r="J6" t="s">
+        <v>266</v>
+      </c>
+      <c r="K6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G7">
+        <v>178</v>
+      </c>
+      <c r="H7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="23" customHeight="1" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G8">
+        <v>178</v>
+      </c>
+      <c r="H8" t="s">
+        <v>264</v>
+      </c>
+      <c r="I8" t="s">
+        <v>265</v>
+      </c>
+      <c r="J8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="23" customHeight="1" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" t="s">
+        <v>280</v>
+      </c>
+      <c r="G9">
+        <v>178</v>
+      </c>
+      <c r="H9" t="s">
+        <v>264</v>
+      </c>
+      <c r="I9" t="s">
+        <v>265</v>
+      </c>
+      <c r="J9" t="s">
+        <v>266</v>
+      </c>
+      <c r="K9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="23" customHeight="1" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G10">
+        <v>178</v>
+      </c>
+      <c r="H10" t="s">
+        <v>264</v>
+      </c>
+      <c r="I10" t="s">
+        <v>265</v>
+      </c>
+      <c r="J10" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="23" customHeight="1" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F11" t="s">
+        <v>280</v>
+      </c>
+      <c r="G11">
+        <v>178</v>
+      </c>
+      <c r="H11" t="s">
+        <v>264</v>
+      </c>
+      <c r="I11" t="s">
+        <v>265</v>
+      </c>
+      <c r="J11" t="s">
+        <v>266</v>
+      </c>
+      <c r="K11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="23" customHeight="1" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" t="s">
+        <v>280</v>
+      </c>
+      <c r="G12">
+        <v>178</v>
+      </c>
+      <c r="H12" t="s">
+        <v>264</v>
+      </c>
+      <c r="I12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J12" t="s">
+        <v>266</v>
+      </c>
+      <c r="K12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="23" customHeight="1" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F13" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13">
+        <v>177</v>
+      </c>
+      <c r="H13" t="s">
+        <v>264</v>
+      </c>
+      <c r="I13" t="s">
+        <v>265</v>
+      </c>
+      <c r="J13" t="s">
+        <v>266</v>
+      </c>
+      <c r="K13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="35.75" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="37.5" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2">
+        <v>177</v>
+      </c>
+      <c r="G2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A10:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" customFormat="1" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="19" customFormat="1" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" customFormat="1" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="19" activeTab="24"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="19" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -969,6 +969,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1044,14 +1052,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1432,10 +1432,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1444,19 +1444,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1468,49 +1468,49 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1522,63 +1522,66 @@
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1587,7 +1590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1944,7 +1947,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1997,17 +2000,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="4" customFormat="1" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
@@ -2017,54 +2020,54 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:6">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="4" customFormat="1" spans="1:6">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:4">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="4" customFormat="1" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:19">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="4" customFormat="1" spans="1:19">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S6" s="4"/>
+      <c r="S6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3706,7 +3709,7 @@
       <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="I2">
@@ -4153,8 +4156,8 @@
   <sheetPr/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K$1:K$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4215,7 +4218,7 @@
       <c r="C2" t="s">
         <v>261</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>262</v>
       </c>
       <c r="E2" t="s">
@@ -4626,6 +4629,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="Mengchen@1234"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -4637,8 +4643,8 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -5298,7 +5304,7 @@
       <c r="G2" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>123456</v>
       </c>
       <c r="I2">
@@ -5520,7 +5526,7 @@
       <c r="G2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I2">
@@ -5552,7 +5558,7 @@
       <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>94</v>
       </c>
       <c r="I3">
@@ -5584,7 +5590,7 @@
       <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>97</v>
       </c>
       <c r="I4">
@@ -5616,7 +5622,7 @@
       <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>100</v>
       </c>
       <c r="I5">
@@ -5648,7 +5654,7 @@
       <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>103</v>
       </c>
       <c r="I6">
@@ -5734,7 +5740,7 @@
       <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>66</v>
       </c>
       <c r="H2">
@@ -5763,7 +5769,7 @@
       <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>110</v>
       </c>
       <c r="H3">
@@ -5792,7 +5798,7 @@
       <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>97</v>
       </c>
       <c r="H4">
@@ -5821,7 +5827,7 @@
       <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>100</v>
       </c>
       <c r="H5">
@@ -5850,7 +5856,7 @@
       <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H6">
@@ -5952,7 +5958,7 @@
       <c r="G2" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>124</v>
       </c>
       <c r="I2" t="s">
@@ -5990,7 +5996,7 @@
       <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>94</v>
       </c>
       <c r="I3" t="s">
@@ -6028,7 +6034,7 @@
       <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>97</v>
       </c>
       <c r="I4" t="s">
@@ -6066,7 +6072,7 @@
       <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>100</v>
       </c>
       <c r="I5" t="s">
@@ -6104,7 +6110,7 @@
       <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>103</v>
       </c>
       <c r="I6" t="s">
@@ -6210,7 +6216,7 @@
       <c r="H2" t="s">
         <v>144</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>123456</v>
       </c>
       <c r="J2">
@@ -6245,7 +6251,7 @@
       <c r="H3" t="s">
         <v>144</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>123457</v>
       </c>
       <c r="J3">
@@ -6280,7 +6286,7 @@
       <c r="H4" t="s">
         <v>144</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>123459</v>
       </c>
       <c r="J4">
@@ -6315,7 +6321,7 @@
       <c r="H5" t="s">
         <v>144</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>123460</v>
       </c>
       <c r="J5">
@@ -6350,7 +6356,7 @@
       <c r="H6" t="s">
         <v>144</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>123461</v>
       </c>
       <c r="J6">

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="19" activeTab="23"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="295">
   <si>
     <t>module</t>
   </si>
@@ -500,7 +500,10 @@
     <t>mongo</t>
   </si>
   <si>
-    <t>10.88.36.121:27018</t>
+    <t>10.88.36.121:27017</t>
+  </si>
+  <si>
+    <t>hufu</t>
   </si>
   <si>
     <t>admin</t>
@@ -969,14 +972,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1052,6 +1047,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1432,10 +1435,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1444,19 +1447,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1468,49 +1471,49 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1522,66 +1525,63 @@
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1590,7 +1590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1947,7 +1947,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2000,17 +2000,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:6">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
@@ -2020,54 +2020,54 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:6">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:4">
-      <c r="A5" s="4" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" spans="1:19">
-      <c r="A6" s="4" t="s">
+    <row r="6" s="3" customFormat="1" spans="1:19">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S6" s="5"/>
+      <c r="S6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2121,16 +2121,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
@@ -2144,10 +2144,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2167,16 +2167,16 @@
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2213,10 +2213,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2294,25 +2294,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2323,10 +2323,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2338,10 +2338,10 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2352,25 +2352,25 @@
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2381,10 +2381,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2396,10 +2396,10 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2425,10 +2425,10 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2481,7 +2481,7 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G1" t="s">
         <v>25</v>
@@ -2492,22 +2492,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2518,10 +2518,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2533,7 +2533,7 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2544,22 +2544,22 @@
     </row>
     <row r="4" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2570,10 +2570,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2585,7 +2585,7 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2596,10 +2596,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2611,7 +2611,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
@@ -2680,25 +2680,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2709,10 +2709,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2724,10 +2724,10 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2738,25 +2738,25 @@
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2767,10 +2767,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2782,10 +2782,10 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2796,10 +2796,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2811,10 +2811,10 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2864,13 +2864,13 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
@@ -2881,25 +2881,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2910,25 +2910,25 @@
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" t="s">
-        <v>194</v>
-      </c>
       <c r="F3" t="s">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2939,25 +2939,25 @@
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2968,25 +2968,25 @@
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -2997,25 +2997,25 @@
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -3065,16 +3065,16 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I1" t="s">
         <v>25</v>
@@ -3085,28 +3085,28 @@
     </row>
     <row r="2" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3117,28 +3117,28 @@
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" t="s">
         <v>208</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" t="s">
-        <v>207</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3149,28 +3149,28 @@
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -3181,28 +3181,28 @@
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -3213,28 +3213,28 @@
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -3291,10 +3291,10 @@
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -3311,10 +3311,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -3331,10 +3331,10 @@
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -3351,10 +3351,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -3371,10 +3371,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -3437,10 +3437,10 @@
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -3457,10 +3457,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -3523,10 +3523,10 @@
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -3593,16 +3593,16 @@
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3613,16 +3613,16 @@
     </row>
     <row r="3" customFormat="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3638,7 +3638,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3709,7 +3709,7 @@
       <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I2">
@@ -3895,16 +3895,16 @@
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
@@ -3971,25 +3971,25 @@
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -4050,19 +4050,19 @@
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4109,10 +4109,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -4123,19 +4123,19 @@
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4156,8 +4156,8 @@
   <sheetPr/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4181,457 +4181,454 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="D2" t="s">
+        <v>263</v>
+      </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G2">
         <v>197</v>
       </c>
       <c r="H2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G3">
         <v>197</v>
       </c>
       <c r="H3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G4">
         <v>197</v>
       </c>
       <c r="H4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G5">
         <v>197</v>
       </c>
       <c r="H5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G6">
         <v>175</v>
       </c>
       <c r="H6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G7">
         <v>178</v>
       </c>
       <c r="H7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F8" t="s">
         <v>281</v>
-      </c>
-      <c r="C8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E8" t="s">
-        <v>282</v>
-      </c>
-      <c r="F8" t="s">
-        <v>280</v>
       </c>
       <c r="G8">
         <v>178</v>
       </c>
       <c r="H8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G9">
         <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G10">
         <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G11">
         <v>178</v>
       </c>
       <c r="H11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G12">
         <v>178</v>
       </c>
       <c r="H12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G13">
         <v>177</v>
       </c>
       <c r="H13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="Mengchen@1234"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -4666,48 +4663,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F2">
         <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4788,8 +4785,8 @@
   <sheetPr/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -5304,7 +5301,7 @@
       <c r="G2" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>123456</v>
       </c>
       <c r="I2">
@@ -5526,7 +5523,7 @@
       <c r="G2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>66</v>
       </c>
       <c r="I2">
@@ -5558,7 +5555,7 @@
       <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I3">
@@ -5590,7 +5587,7 @@
       <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>97</v>
       </c>
       <c r="I4">
@@ -5622,7 +5619,7 @@
       <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>100</v>
       </c>
       <c r="I5">
@@ -5654,7 +5651,7 @@
       <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>103</v>
       </c>
       <c r="I6">
@@ -5740,7 +5737,7 @@
       <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H2">
@@ -5769,7 +5766,7 @@
       <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>110</v>
       </c>
       <c r="H3">
@@ -5798,7 +5795,7 @@
       <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H4">
@@ -5827,7 +5824,7 @@
       <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>100</v>
       </c>
       <c r="H5">
@@ -5856,7 +5853,7 @@
       <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>103</v>
       </c>
       <c r="H6">
@@ -5958,7 +5955,7 @@
       <c r="G2" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I2" t="s">
@@ -5996,7 +5993,7 @@
       <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I3" t="s">
@@ -6034,7 +6031,7 @@
       <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>97</v>
       </c>
       <c r="I4" t="s">
@@ -6072,7 +6069,7 @@
       <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>100</v>
       </c>
       <c r="I5" t="s">
@@ -6110,7 +6107,7 @@
       <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>103</v>
       </c>
       <c r="I6" t="s">
@@ -6139,7 +6136,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -6211,12 +6208,12 @@
         <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I2" s="3">
+        <v>145</v>
+      </c>
+      <c r="I2" s="2">
         <v>123456</v>
       </c>
       <c r="J2">
@@ -6231,7 +6228,7 @@
         <v>140</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -6243,15 +6240,15 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="3">
+        <v>145</v>
+      </c>
+      <c r="I3" s="2">
         <v>123457</v>
       </c>
       <c r="J3">
@@ -6266,7 +6263,7 @@
         <v>140</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -6278,15 +6275,15 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
-      </c>
-      <c r="I4" s="3">
+        <v>145</v>
+      </c>
+      <c r="I4" s="2">
         <v>123459</v>
       </c>
       <c r="J4">
@@ -6301,7 +6298,7 @@
         <v>140</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -6313,15 +6310,15 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" s="3">
+        <v>145</v>
+      </c>
+      <c r="I5" s="2">
         <v>123460</v>
       </c>
       <c r="J5">
@@ -6336,7 +6333,7 @@
         <v>140</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -6348,15 +6345,15 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I6" s="3">
+        <v>145</v>
+      </c>
+      <c r="I6" s="2">
         <v>123461</v>
       </c>
       <c r="J6">

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,15 @@
     <sheet name="userEdit" sheetId="27" r:id="rId25"/>
     <sheet name="1" sheetId="3" r:id="rId26"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId27"/>
+    <sheet name="Sheet2" sheetId="28" r:id="rId28"/>
+    <sheet name="Sheet3" sheetId="29" r:id="rId29"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="299">
   <si>
     <t>module</t>
   </si>
@@ -344,7 +346,7 @@
     <t>Oracle_</t>
   </si>
   <si>
-    <t xml:space="preserve">jdbc:oracle:thin:@10.88.36.133:1521:xe </t>
+    <t xml:space="preserve">jdbc:oracle:thin:10.88.36.133:1521:xe </t>
   </si>
   <si>
     <t>2_使用非字母开头创建Oracle数据源，创建失败</t>
@@ -482,7 +484,10 @@
     <t>url</t>
   </si>
   <si>
-    <t>Db</t>
+    <t>db</t>
+  </si>
+  <si>
+    <t>vertifydb</t>
   </si>
   <si>
     <t>user</t>
@@ -494,7 +499,7 @@
     <t>创建mongo数据源</t>
   </si>
   <si>
-    <t>1_使用正确的命名创建mongo数据源，创建成功</t>
+    <t>1_使用无鉴权正确的命名创建mongo数据源，创建成功</t>
   </si>
   <si>
     <t>mongo</t>
@@ -506,28 +511,37 @@
     <t>hufu</t>
   </si>
   <si>
+    <t>2、使用有鉴权正确的命名创建mogodb数据源，创建成功</t>
+  </si>
+  <si>
+    <t>mongo2</t>
+  </si>
+  <si>
+    <t>10.88.36.121:27018</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
-    <t>2_使用非字母开头创建mongo数据源，创建失败</t>
+    <t>3_使用非字母开头创建mongo数据源，创建失败</t>
   </si>
   <si>
     <t xml:space="preserve">jdbc:mongo2://10.88.36.232:10000/4b7bb3cf40c9a73a_default </t>
   </si>
   <si>
-    <t>3_使用已有的名字创建mongo数据源，创建失败</t>
+    <t>4_使用已有的名字创建mongo数据源，创建失败</t>
   </si>
   <si>
     <t xml:space="preserve">jdbc:mongo2://10.88.36.232:10000/4b7bb3cf40c9a75a_default </t>
   </si>
   <si>
-    <t>4_使用名字长度超过20创建mongo数据源，创建失败</t>
+    <t>5_使用名字长度超过20创建mongo数据源，创建失败</t>
   </si>
   <si>
     <t xml:space="preserve">jdbc:mongo2://10.88.36.232:10000/4b7bb3cf40c9a76a_default </t>
   </si>
   <si>
-    <t>5_使用以数字开头创建mongo数据源，创建失败</t>
+    <t>6_使用以数字开头创建mongo数据源，创建失败</t>
   </si>
   <si>
     <t xml:space="preserve">jdbc:mongo2://10.88.36.232:10000/4b7bb3cf40c9a77a_default </t>
@@ -990,16 +1004,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1007,6 +1013,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1020,8 +1034,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1035,8 +1078,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1073,59 +1140,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1136,13 +1150,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,49 +1264,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,31 +1282,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1250,7 +1300,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,61 +1330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,24 +1341,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1363,6 +1359,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1374,6 +1388,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1407,26 +1441,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1435,10 +1449,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1447,133 +1461,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2121,16 +2135,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
@@ -2144,10 +2158,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2167,16 +2181,16 @@
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
@@ -2190,10 +2204,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2213,10 +2227,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2283,7 +2297,7 @@
         <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
@@ -2294,25 +2308,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2323,10 +2337,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2338,10 +2352,10 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2352,25 +2366,25 @@
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2381,10 +2395,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2396,10 +2410,10 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2410,10 +2424,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2425,10 +2439,10 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2481,7 +2495,7 @@
         <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G1" t="s">
         <v>25</v>
@@ -2492,22 +2506,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2518,10 +2532,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2533,7 +2547,7 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2544,22 +2558,22 @@
     </row>
     <row r="4" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>172</v>
-      </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2570,10 +2584,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2585,7 +2599,7 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2596,10 +2610,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2611,7 +2625,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2669,7 +2683,7 @@
         <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
@@ -2680,25 +2694,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2709,10 +2723,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2724,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2738,25 +2752,25 @@
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2767,10 +2781,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -2782,10 +2796,10 @@
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -2796,10 +2810,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2811,10 +2825,10 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" t="s">
         <v>185</v>
-      </c>
-      <c r="G6" t="s">
-        <v>181</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2864,13 +2878,13 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
@@ -2881,25 +2895,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2910,25 +2924,25 @@
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2939,25 +2953,25 @@
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" t="s">
         <v>199</v>
       </c>
-      <c r="E4" t="s">
-        <v>195</v>
-      </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2968,25 +2982,25 @@
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -2997,25 +3011,25 @@
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -3065,16 +3079,16 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I1" t="s">
         <v>25</v>
@@ -3085,28 +3099,28 @@
     </row>
     <row r="2" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -3117,28 +3131,28 @@
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -3149,28 +3163,28 @@
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -3181,28 +3195,28 @@
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -3213,28 +3227,28 @@
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F6" t="s">
         <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -3291,10 +3305,10 @@
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -3311,10 +3325,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -3331,10 +3345,10 @@
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -3351,10 +3365,10 @@
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -3371,10 +3385,10 @@
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -3437,10 +3451,10 @@
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -3457,10 +3471,10 @@
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -3523,16 +3537,16 @@
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3593,16 +3607,16 @@
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3613,16 +3627,16 @@
     </row>
     <row r="3" customFormat="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3638,7 +3652,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3895,16 +3909,16 @@
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3954,13 +3968,13 @@
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
@@ -3971,25 +3985,25 @@
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4036,10 +4050,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -4050,19 +4064,19 @@
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4109,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -4123,19 +4137,19 @@
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4181,451 +4195,451 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="I1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="J1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G2">
         <v>197</v>
       </c>
       <c r="H2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K2" t="s">
         <v>266</v>
-      </c>
-      <c r="J2" t="s">
-        <v>267</v>
-      </c>
-      <c r="K2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G3">
         <v>197</v>
       </c>
       <c r="H3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I3" t="s">
+        <v>270</v>
+      </c>
+      <c r="J3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K3" t="s">
         <v>266</v>
-      </c>
-      <c r="J3" t="s">
-        <v>267</v>
-      </c>
-      <c r="K3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E4" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G4">
         <v>197</v>
       </c>
       <c r="H4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I4" t="s">
+        <v>270</v>
+      </c>
+      <c r="J4" t="s">
+        <v>271</v>
+      </c>
+      <c r="K4" t="s">
         <v>266</v>
-      </c>
-      <c r="J4" t="s">
-        <v>267</v>
-      </c>
-      <c r="K4" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G5">
         <v>197</v>
       </c>
       <c r="H5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K5" t="s">
         <v>266</v>
-      </c>
-      <c r="J5" t="s">
-        <v>267</v>
-      </c>
-      <c r="K5" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G6">
         <v>175</v>
       </c>
       <c r="H6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I6" t="s">
+        <v>270</v>
+      </c>
+      <c r="J6" t="s">
+        <v>271</v>
+      </c>
+      <c r="K6" t="s">
         <v>266</v>
-      </c>
-      <c r="J6" t="s">
-        <v>267</v>
-      </c>
-      <c r="K6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G7">
         <v>178</v>
       </c>
       <c r="H7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I7" t="s">
+        <v>270</v>
+      </c>
+      <c r="J7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K7" t="s">
         <v>266</v>
-      </c>
-      <c r="J7" t="s">
-        <v>267</v>
-      </c>
-      <c r="K7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C8" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G8">
         <v>178</v>
       </c>
       <c r="H8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J8" t="s">
+        <v>271</v>
+      </c>
+      <c r="K8" t="s">
         <v>266</v>
-      </c>
-      <c r="J8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K8" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C9" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" t="s">
         <v>285</v>
-      </c>
-      <c r="E9" t="s">
-        <v>285</v>
-      </c>
-      <c r="F9" t="s">
-        <v>281</v>
       </c>
       <c r="G9">
         <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J9" t="s">
+        <v>271</v>
+      </c>
+      <c r="K9" t="s">
         <v>266</v>
-      </c>
-      <c r="J9" t="s">
-        <v>267</v>
-      </c>
-      <c r="K9" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B10" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E10" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F10" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G10">
         <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I10" t="s">
+        <v>270</v>
+      </c>
+      <c r="J10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K10" t="s">
         <v>266</v>
-      </c>
-      <c r="J10" t="s">
-        <v>267</v>
-      </c>
-      <c r="K10" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B11" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C11" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D11" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E11" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F11" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G11">
         <v>178</v>
       </c>
       <c r="H11" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I11" t="s">
+        <v>270</v>
+      </c>
+      <c r="J11" t="s">
+        <v>271</v>
+      </c>
+      <c r="K11" t="s">
         <v>266</v>
-      </c>
-      <c r="J11" t="s">
-        <v>267</v>
-      </c>
-      <c r="K11" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C12" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D12" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F12" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G12">
         <v>178</v>
       </c>
       <c r="H12" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I12" t="s">
+        <v>270</v>
+      </c>
+      <c r="J12" t="s">
+        <v>271</v>
+      </c>
+      <c r="K12" t="s">
         <v>266</v>
-      </c>
-      <c r="J12" t="s">
-        <v>267</v>
-      </c>
-      <c r="K12" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B13" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C13" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D13" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E13" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F13" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G13">
         <v>177</v>
       </c>
       <c r="H13" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="I13" t="s">
+        <v>270</v>
+      </c>
+      <c r="J13" t="s">
+        <v>271</v>
+      </c>
+      <c r="K13" t="s">
         <v>266</v>
-      </c>
-      <c r="J13" t="s">
-        <v>267</v>
-      </c>
-      <c r="K13" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4663,48 +4677,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F2">
         <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4720,7 +4734,7 @@
   <dimension ref="A10:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD4"/>
+      <selection activeCell="A1" sqref="$A1:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4780,13 +4794,45 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -5008,7 +5054,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -5230,7 +5276,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -5452,7 +5498,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -6133,27 +6179,27 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
     <col min="3" max="3" width="30.625" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="59.875" customWidth="1"/>
-    <col min="7" max="8" width="7.125" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="86.375" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="10" width="20.875" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="86.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6182,184 +6228,222 @@
         <v>139</v>
       </c>
       <c r="J1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" t="s">
         <v>145</v>
       </c>
-      <c r="I2" s="2">
+      <c r="H3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="2">
         <v>123456</v>
       </c>
-      <c r="J2">
+      <c r="K3">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I3" s="2">
-        <v>123457</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>142</v>
-      </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4" s="2">
-        <v>123459</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:11">
+      <c r="I4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="2">
+        <v>123457</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="2">
-        <v>123460</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:11">
+      <c r="I5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="2">
+        <v>123459</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="I6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J6" s="2">
+        <v>123460</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>149</v>
+      </c>
+      <c r="J7" s="2">
         <v>123461</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
         <v>34</v>
       </c>
     </row>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="8" activeTab="8"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="17" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,8 @@
     <sheet name="mqttAdd" sheetId="17" r:id="rId15"/>
     <sheet name="relationDbEdit" sheetId="18" r:id="rId16"/>
     <sheet name="bigDataEdit" sheetId="19" r:id="rId17"/>
-    <sheet name="fileStoreEdit" sheetId="20" r:id="rId18"/>
-    <sheet name="Semi-structuredEdit" sheetId="21" r:id="rId19"/>
+    <sheet name="mongoDBEdit" sheetId="20" r:id="rId18"/>
+    <sheet name="hdfsEdit" sheetId="21" r:id="rId19"/>
     <sheet name="opentsdbEdit" sheetId="22" r:id="rId20"/>
     <sheet name="messagequeueEditdeltecreate" sheetId="23" r:id="rId21"/>
     <sheet name="scriptCreteTable" sheetId="24" r:id="rId22"/>
@@ -346,7 +346,7 @@
     <t>Oracle_</t>
   </si>
   <si>
-    <t xml:space="preserve">jdbc:oracle:thin:10.88.36.133:1521:xe </t>
+    <t xml:space="preserve">jdbc:oracle:thin:@10.88.36.133:1521:xe </t>
   </si>
   <si>
     <t>2_使用非字母开头创建Oracle数据源，创建失败</t>
@@ -868,27 +868,39 @@
     <t>添加用户</t>
   </si>
   <si>
+    <t>11_输入已注册的邮箱，添加用户失败</t>
+  </si>
+  <si>
+    <t>_梦幻测试账号4</t>
+  </si>
+  <si>
+    <t>Mengchen@1234</t>
+  </si>
+  <si>
+    <t>1972@163.com</t>
+  </si>
+  <si>
+    <t>王梦晨</t>
+  </si>
+  <si>
+    <t>质量流程部</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>_梦幻测试账号</t>
+  </si>
+  <si>
+    <t>12_输入已注册的手机号，添加用户失败</t>
+  </si>
+  <si>
     <t>1_输入正确的用户名和密码，添加用户成功</t>
   </si>
   <si>
-    <t>_梦幻测试账号</t>
-  </si>
-  <si>
-    <t>Mengchen@1234</t>
-  </si>
-  <si>
     <t>1971@163.com</t>
   </si>
   <si>
-    <t>王梦晨</t>
-  </si>
-  <si>
-    <t>质量流程部</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
     <t>2_输入已有的用户名和密码，添加用户失败</t>
   </si>
   <si>
@@ -922,15 +934,9 @@
     <t>6_输入的密码为纯字母，添加用户失败</t>
   </si>
   <si>
-    <t>_梦幻测试账号4</t>
-  </si>
-  <si>
     <t>aaaaaaaa</t>
   </si>
   <si>
-    <t>1972@163.com</t>
-  </si>
-  <si>
     <t>7_输入的密码为纯特殊字符，添加用户失败</t>
   </si>
   <si>
@@ -956,12 +962,6 @@
   </si>
   <si>
     <t>Yd1@1234567890888888</t>
-  </si>
-  <si>
-    <t>11_输入已注册的邮箱，添加用户失败</t>
-  </si>
-  <si>
-    <t>12_输入已注册的手机号，添加用户失败</t>
   </si>
   <si>
     <t>查看编辑修改用户密码</t>
@@ -1961,7 +1961,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2850,7 +2850,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:G$1048576"/>
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3270,7 +3270,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -3502,7 +3502,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -3572,7 +3572,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -3939,7 +3939,7 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4170,8 +4170,8 @@
   <sheetPr/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4242,7 +4242,7 @@
         <v>268</v>
       </c>
       <c r="G2">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
         <v>269</v>
@@ -4254,7 +4254,7 @@
         <v>271</v>
       </c>
       <c r="K2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:11">
@@ -4262,7 +4262,7 @@
         <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
         <v>266</v>
@@ -4274,10 +4274,10 @@
         <v>267</v>
       </c>
       <c r="F3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G3">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H3" t="s">
         <v>269</v>
@@ -4289,7 +4289,7 @@
         <v>271</v>
       </c>
       <c r="K3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:11">
@@ -4300,7 +4300,7 @@
         <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D4" t="s">
         <v>267</v>
@@ -4309,7 +4309,7 @@
         <v>267</v>
       </c>
       <c r="F4" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G4">
         <v>197</v>
@@ -4324,7 +4324,7 @@
         <v>271</v>
       </c>
       <c r="K4" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:11">
@@ -4335,7 +4335,7 @@
         <v>276</v>
       </c>
       <c r="C5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D5" t="s">
         <v>267</v>
@@ -4344,7 +4344,7 @@
         <v>267</v>
       </c>
       <c r="F5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G5">
         <v>197</v>
@@ -4359,7 +4359,7 @@
         <v>271</v>
       </c>
       <c r="K5" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:11">
@@ -4367,10 +4367,10 @@
         <v>264</v>
       </c>
       <c r="B6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" t="s">
         <v>279</v>
-      </c>
-      <c r="C6" t="s">
-        <v>280</v>
       </c>
       <c r="D6" t="s">
         <v>267</v>
@@ -4379,10 +4379,10 @@
         <v>267</v>
       </c>
       <c r="F6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G6">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="H6" t="s">
         <v>269</v>
@@ -4394,7 +4394,7 @@
         <v>271</v>
       </c>
       <c r="K6" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:11">
@@ -4402,22 +4402,22 @@
         <v>264</v>
       </c>
       <c r="B7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" t="s">
         <v>282</v>
       </c>
-      <c r="C7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D7" t="s">
-        <v>284</v>
-      </c>
-      <c r="E7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F7" t="s">
-        <v>285</v>
-      </c>
       <c r="G7">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="H7" t="s">
         <v>269</v>
@@ -4429,7 +4429,7 @@
         <v>271</v>
       </c>
       <c r="K7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="23" customHeight="1" spans="1:11">
@@ -4437,22 +4437,22 @@
         <v>264</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="E8" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="F8" t="s">
         <v>285</v>
       </c>
       <c r="G8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H8" t="s">
         <v>269</v>
@@ -4464,7 +4464,7 @@
         <v>271</v>
       </c>
       <c r="K8" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="23" customHeight="1" spans="1:11">
@@ -4472,19 +4472,19 @@
         <v>264</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F9" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="G9">
         <v>178</v>
@@ -4499,7 +4499,7 @@
         <v>271</v>
       </c>
       <c r="K9" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="23" customHeight="1" spans="1:11">
@@ -4507,19 +4507,19 @@
         <v>264</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C10" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F10" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="G10">
         <v>178</v>
@@ -4534,7 +4534,7 @@
         <v>271</v>
       </c>
       <c r="K10" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="23" customHeight="1" spans="1:11">
@@ -4542,19 +4542,19 @@
         <v>264</v>
       </c>
       <c r="B11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F11" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="G11">
         <v>178</v>
@@ -4569,7 +4569,7 @@
         <v>271</v>
       </c>
       <c r="K11" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="23" customHeight="1" spans="1:11">
@@ -4577,19 +4577,19 @@
         <v>264</v>
       </c>
       <c r="B12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C12" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D12" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="E12" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="F12" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="G12">
         <v>178</v>
@@ -4604,7 +4604,7 @@
         <v>271</v>
       </c>
       <c r="K12" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="23" customHeight="1" spans="1:11">
@@ -4612,22 +4612,22 @@
         <v>264</v>
       </c>
       <c r="B13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" t="s">
         <v>296</v>
       </c>
-      <c r="C13" t="s">
-        <v>283</v>
-      </c>
-      <c r="D13" t="s">
-        <v>267</v>
-      </c>
-      <c r="E13" t="s">
-        <v>267</v>
-      </c>
       <c r="F13" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="G13">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H13" t="s">
         <v>269</v>
@@ -4639,7 +4639,7 @@
         <v>271</v>
       </c>
       <c r="K13" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4709,7 +4709,7 @@
         <v>267</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F2">
         <v>177</v>
@@ -4718,7 +4718,7 @@
         <v>269</v>
       </c>
       <c r="H2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4734,7 +4734,7 @@
   <dimension ref="A10:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -5498,7 +5498,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -5720,7 +5720,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -6181,8 +6181,8 @@
   <sheetPr/>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="17" activeTab="23"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="18" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="guideCreateTable" sheetId="25" r:id="rId23"/>
     <sheet name="userAdd" sheetId="26" r:id="rId24"/>
     <sheet name="userEdit" sheetId="27" r:id="rId25"/>
-    <sheet name="1" sheetId="3" r:id="rId26"/>
+    <sheet name="qualityregularAdd" sheetId="3" r:id="rId26"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId27"/>
     <sheet name="Sheet2" sheetId="28" r:id="rId28"/>
     <sheet name="Sheet3" sheetId="29" r:id="rId29"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="305">
   <si>
     <t>module</t>
   </si>
@@ -826,16 +826,34 @@
     <t>table_test</t>
   </si>
   <si>
+    <t>define</t>
+  </si>
+  <si>
+    <t>lifecycle</t>
+  </si>
+  <si>
+    <t>para1name</t>
+  </si>
+  <si>
+    <t>para2name</t>
+  </si>
+  <si>
     <t>向导建表</t>
   </si>
   <si>
     <t>1_根据向导创建数据表，创建成功</t>
   </si>
   <si>
-    <t>create table table_wmc(id int,name string)</t>
-  </si>
-  <si>
-    <t>table_wmc</t>
+    <t>adstest</t>
+  </si>
+  <si>
+    <t>数据表描述信息</t>
+  </si>
+  <si>
+    <t>para1</t>
+  </si>
+  <si>
+    <t>para2</t>
   </si>
   <si>
     <t>username</t>
@@ -975,9 +993,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -998,6 +1016,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1005,74 +1038,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,6 +1059,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1101,11 +1082,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1125,9 +1113,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1135,7 +1122,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1150,43 +1168,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,79 +1222,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,7 +1246,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,25 +1330,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,25 +1363,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1373,6 +1382,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1394,11 +1418,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1412,32 +1434,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1449,10 +1467,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1461,7 +1479,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1470,124 +1488,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4095,24 +4113,27 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="35.75" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="46.25" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="86.375" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="46.25" customWidth="1"/>
+    <col min="9" max="10" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="86.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:8">
+    <row r="1" customFormat="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4123,38 +4144,56 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E1" t="s">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="F1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4170,7 +4209,7 @@
   <sheetPr/>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -4195,451 +4234,451 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="I1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="J1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G2">
         <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" t="s">
         <v>273</v>
       </c>
-      <c r="C3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" t="s">
-        <v>267</v>
-      </c>
       <c r="E3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G3">
         <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G4">
         <v>197</v>
       </c>
       <c r="H4" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I4" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J4" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K4" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D5" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E5" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G5">
         <v>197</v>
       </c>
       <c r="H5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J5" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K5" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E6" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F6" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G6">
         <v>197</v>
       </c>
       <c r="H6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J6" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K6" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G7">
         <v>197</v>
       </c>
       <c r="H7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D8" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E8" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F8" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G8">
         <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I8" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J8" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K8" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D9" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E9" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F9" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G9">
         <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I9" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J9" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K9" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D10" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E10" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F10" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G10">
         <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I10" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J10" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K10" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C11" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D11" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E11" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F11" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G11">
         <v>178</v>
       </c>
       <c r="H11" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I11" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J11" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K11" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D12" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F12" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G12">
         <v>178</v>
       </c>
       <c r="H12" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I12" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J12" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K12" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B13" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C13" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D13" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E13" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F13" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G13">
         <v>178</v>
       </c>
       <c r="H13" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="I13" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J13" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K13" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4655,7 +4694,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -4677,48 +4716,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F2">
         <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4731,13 +4770,13 @@
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A10:C20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="30.25" customWidth="1"/>
@@ -4745,6 +4784,32 @@
     <col min="8" max="8" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H1" t="s">
+        <v>269</v>
+      </c>
+    </row>
     <row r="10" customFormat="1" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="18" activeTab="22"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="22" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -29,20 +29,21 @@
     <sheet name="opentsdbEdit" sheetId="22" r:id="rId20"/>
     <sheet name="messagequeueEditdeltecreate" sheetId="23" r:id="rId21"/>
     <sheet name="scriptCreteTable" sheetId="24" r:id="rId22"/>
-    <sheet name="guideCreateTable" sheetId="25" r:id="rId23"/>
+    <sheet name="guideCreateTable_ads" sheetId="25" r:id="rId23"/>
     <sheet name="userAdd" sheetId="26" r:id="rId24"/>
     <sheet name="userEdit" sheetId="27" r:id="rId25"/>
     <sheet name="qualityregularAdd" sheetId="3" r:id="rId26"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId27"/>
     <sheet name="Sheet2" sheetId="28" r:id="rId28"/>
     <sheet name="Sheet3" sheetId="29" r:id="rId29"/>
+    <sheet name="Sheet4" sheetId="30" r:id="rId30"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="327">
   <si>
     <t>module</t>
   </si>
@@ -832,16 +833,40 @@
     <t>lifecycle</t>
   </si>
   <si>
+    <t>property</t>
+  </si>
+  <si>
     <t>para1name</t>
   </si>
   <si>
+    <t>para1desc</t>
+  </si>
+  <si>
     <t>para2name</t>
   </si>
   <si>
-    <t>向导建表</t>
-  </si>
-  <si>
-    <t>1_根据向导创建数据表，创建成功</t>
+    <t>para2desc</t>
+  </si>
+  <si>
+    <t>partition_par1</t>
+  </si>
+  <si>
+    <t>partition1_desc</t>
+  </si>
+  <si>
+    <t>partition_par2</t>
+  </si>
+  <si>
+    <t>partition2_desc</t>
+  </si>
+  <si>
+    <t>expect_url</t>
+  </si>
+  <si>
+    <t>向导建表_ads</t>
+  </si>
+  <si>
+    <t>1_根据向导创建ads层数据表，创建成功</t>
   </si>
   <si>
     <t>adstest</t>
@@ -850,10 +875,52 @@
     <t>数据表描述信息</t>
   </si>
   <si>
+    <t>ant-click-animating-without-extra-node</t>
+  </si>
+  <si>
     <t>para1</t>
   </si>
   <si>
     <t>para2</t>
+  </si>
+  <si>
+    <t>partition3_desc</t>
+  </si>
+  <si>
+    <t>http://hufu.test.xuelangyun.com/tml/index#/dataAssets/dataSheet/list</t>
+  </si>
+  <si>
+    <t>2_根据向导创建ads层已有的数据表，创建失败</t>
+  </si>
+  <si>
+    <t>http://hufu.test.xuelangyun.com/tml/index#/dataAssets/dataSheet/dataSheetAdd</t>
+  </si>
+  <si>
+    <t>3_根据向导创建ads层数据表的表名长度为128，创建成功</t>
+  </si>
+  <si>
+    <t>1281111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+  </si>
+  <si>
+    <t>4_根据向导创建ads层数据表的表名长度超过128，创建失败</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+  </si>
+  <si>
+    <t>5_根据向导创建ads层数据表的描述信息长度为256，创建成功</t>
+  </si>
+  <si>
+    <t>adstest256</t>
+  </si>
+  <si>
+    <t>数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息据表描述信息数据表描述信息数据表描述信息数据表描述信息描述信息描</t>
+  </si>
+  <si>
+    <t>6_根据向导创建ads层数据表的描述信息长度超过256，创建失败</t>
+  </si>
+  <si>
+    <t>数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息据表描述信息数据表描述信息数据表描述信息数据表描述信息描述信息描操</t>
   </si>
   <si>
     <t>username</t>
@@ -993,9 +1060,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1016,21 +1083,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1045,40 +1097,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1105,24 +1127,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1136,9 +1157,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1152,8 +1172,55 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1168,7 +1235,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,31 +1253,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,37 +1271,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1258,19 +1289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,13 +1307,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,49 +1361,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1363,40 +1430,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1434,17 +1477,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1459,6 +1496,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1467,10 +1534,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1479,133 +1546,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4113,27 +4180,31 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R$1:R$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="35.75" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="65.25" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="46.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="116.875" customWidth="1"/>
     <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="46.25" customWidth="1"/>
-    <col min="9" max="10" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="86.375" customWidth="1"/>
+    <col min="7" max="7" width="47.375" customWidth="1"/>
+    <col min="8" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="19.875" customWidth="1"/>
+    <col min="13" max="13" width="21.875" customWidth="1"/>
+    <col min="14" max="15" width="18.375" customWidth="1"/>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="17" max="17" width="94.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:11">
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4159,42 +4230,402 @@
         <v>254</v>
       </c>
       <c r="I1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N1" t="s">
+        <v>260</v>
+      </c>
+      <c r="O1" t="s">
+        <v>261</v>
+      </c>
+      <c r="P1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:11">
+      <c r="Q1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="H2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" t="s">
+        <v>269</v>
+      </c>
+      <c r="K2" t="s">
+        <v>257</v>
+      </c>
+      <c r="L2" t="s">
+        <v>258</v>
+      </c>
+      <c r="M2" t="s">
+        <v>261</v>
+      </c>
+      <c r="N2" t="s">
         <v>260</v>
       </c>
-      <c r="I2">
+      <c r="O2" t="s">
+        <v>270</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>34</v>
+      <c r="Q2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" t="s">
+        <v>269</v>
+      </c>
+      <c r="K3" t="s">
+        <v>257</v>
+      </c>
+      <c r="L3" t="s">
+        <v>258</v>
+      </c>
+      <c r="M3" t="s">
+        <v>261</v>
+      </c>
+      <c r="N3" t="s">
+        <v>260</v>
+      </c>
+      <c r="O3" t="s">
+        <v>270</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="A4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I4" t="s">
+        <v>255</v>
+      </c>
+      <c r="J4" t="s">
+        <v>269</v>
+      </c>
+      <c r="K4" t="s">
+        <v>257</v>
+      </c>
+      <c r="L4" t="s">
+        <v>258</v>
+      </c>
+      <c r="M4" t="s">
+        <v>261</v>
+      </c>
+      <c r="N4" t="s">
+        <v>260</v>
+      </c>
+      <c r="O4" t="s">
+        <v>270</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I5" t="s">
+        <v>255</v>
+      </c>
+      <c r="J5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K5" t="s">
+        <v>257</v>
+      </c>
+      <c r="L5" t="s">
+        <v>258</v>
+      </c>
+      <c r="M5" t="s">
+        <v>261</v>
+      </c>
+      <c r="N5" t="s">
+        <v>260</v>
+      </c>
+      <c r="O5" t="s">
+        <v>270</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H6" t="s">
+        <v>268</v>
+      </c>
+      <c r="I6" t="s">
+        <v>255</v>
+      </c>
+      <c r="J6" t="s">
+        <v>269</v>
+      </c>
+      <c r="K6" t="s">
+        <v>257</v>
+      </c>
+      <c r="L6" t="s">
+        <v>258</v>
+      </c>
+      <c r="M6" t="s">
+        <v>261</v>
+      </c>
+      <c r="N6" t="s">
+        <v>260</v>
+      </c>
+      <c r="O6" t="s">
+        <v>270</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H7" t="s">
+        <v>268</v>
+      </c>
+      <c r="I7" t="s">
+        <v>255</v>
+      </c>
+      <c r="J7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M7" t="s">
+        <v>261</v>
+      </c>
+      <c r="N7" t="s">
+        <v>260</v>
+      </c>
+      <c r="O7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H8" t="s">
+        <v>268</v>
+      </c>
+      <c r="I8" t="s">
+        <v>255</v>
+      </c>
+      <c r="J8" t="s">
+        <v>269</v>
+      </c>
+      <c r="K8" t="s">
+        <v>257</v>
+      </c>
+      <c r="L8" t="s">
+        <v>258</v>
+      </c>
+      <c r="M8" t="s">
+        <v>261</v>
+      </c>
+      <c r="N8" t="s">
+        <v>260</v>
+      </c>
+      <c r="O8" t="s">
+        <v>270</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4234,451 +4665,451 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="D1" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="E1" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="F1" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="G1" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="H1" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="I1" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="J1" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="K1" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="F2" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="G2">
         <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="I2" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="J2" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="K2" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="E3" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="F3" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="G3">
         <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="I3" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="J3" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="K3" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="C4" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="E4" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="F4" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="G4">
         <v>197</v>
       </c>
       <c r="H4" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="I4" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="J4" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="K4" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="E5" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="F5" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="G5">
         <v>197</v>
       </c>
       <c r="H5" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="I5" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="J5" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="K5" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="C6" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="E6" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="F6" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="G6">
         <v>197</v>
       </c>
       <c r="H6" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="I6" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="J6" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="K6" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="F7" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="G7">
         <v>197</v>
       </c>
       <c r="H7" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="I7" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="J7" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="K7" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B8" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="C8" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="E8" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="F8" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="G8">
         <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="I8" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="J8" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="K8" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="C9" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="D9" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="F9" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="G9">
         <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="I9" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="J9" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="K9" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B10" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" t="s">
         <v>294</v>
       </c>
-      <c r="C10" t="s">
-        <v>272</v>
-      </c>
       <c r="D10" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="E10" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="F10" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="G10">
         <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="I10" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="J10" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="K10" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F11" t="s">
         <v>296</v>
-      </c>
-      <c r="C11" t="s">
-        <v>272</v>
-      </c>
-      <c r="D11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E11" t="s">
-        <v>297</v>
-      </c>
-      <c r="F11" t="s">
-        <v>274</v>
       </c>
       <c r="G11">
         <v>178</v>
       </c>
       <c r="H11" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="I11" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="J11" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="K11" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="C12" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="D12" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="E12" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="F12" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="G12">
         <v>178</v>
       </c>
       <c r="H12" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="I12" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="J12" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="K12" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B13" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="C13" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="D13" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="E13" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="F13" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="G13">
         <v>178</v>
       </c>
       <c r="H13" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="I13" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="J13" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="K13" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4716,48 +5147,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="E1" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="F1" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="G1" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="H1" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" t="s">
         <v>303</v>
-      </c>
-      <c r="B2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E2" t="s">
-        <v>281</v>
       </c>
       <c r="F2">
         <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="H2" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -4792,22 +5223,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="E1" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="F1" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="G1" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="H1" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:3">
@@ -4849,7 +5280,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5113,6 +5544,345 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="57.75" customWidth="1"/>
+    <col min="5" max="5" width="63.5" customWidth="1"/>
+    <col min="16" max="16" width="69.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="23" customHeight="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M1" t="s">
+        <v>260</v>
+      </c>
+      <c r="N1" t="s">
+        <v>270</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K2" t="s">
+        <v>258</v>
+      </c>
+      <c r="L2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M2" t="s">
+        <v>260</v>
+      </c>
+      <c r="N2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I3" t="s">
+        <v>269</v>
+      </c>
+      <c r="J3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K3" t="s">
+        <v>258</v>
+      </c>
+      <c r="L3" t="s">
+        <v>261</v>
+      </c>
+      <c r="M3" t="s">
+        <v>260</v>
+      </c>
+      <c r="N3" t="s">
+        <v>270</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="A4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I4" t="s">
+        <v>269</v>
+      </c>
+      <c r="J4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K4" t="s">
+        <v>258</v>
+      </c>
+      <c r="L4" t="s">
+        <v>261</v>
+      </c>
+      <c r="M4" t="s">
+        <v>260</v>
+      </c>
+      <c r="N4" t="s">
+        <v>270</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J5" t="s">
+        <v>257</v>
+      </c>
+      <c r="K5" t="s">
+        <v>258</v>
+      </c>
+      <c r="L5" t="s">
+        <v>261</v>
+      </c>
+      <c r="M5" t="s">
+        <v>260</v>
+      </c>
+      <c r="N5" t="s">
+        <v>270</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H6" t="s">
+        <v>255</v>
+      </c>
+      <c r="I6" t="s">
+        <v>269</v>
+      </c>
+      <c r="J6" t="s">
+        <v>257</v>
+      </c>
+      <c r="K6" t="s">
+        <v>258</v>
+      </c>
+      <c r="L6" t="s">
+        <v>261</v>
+      </c>
+      <c r="M6" t="s">
+        <v>260</v>
+      </c>
+      <c r="N6" t="s">
+        <v>270</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="326">
   <si>
     <t>module</t>
   </si>
@@ -873,9 +873,6 @@
   </si>
   <si>
     <t>数据表描述信息</t>
-  </si>
-  <si>
-    <t>ant-click-animating-without-extra-node</t>
   </si>
   <si>
     <t>para1</t>
@@ -4180,13 +4177,13 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R$1:R$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="65.25" customWidth="1"/>
@@ -4194,13 +4191,14 @@
     <col min="4" max="4" width="18.625" customWidth="1"/>
     <col min="5" max="5" width="116.875" customWidth="1"/>
     <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="47.375" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="9" width="16.5" customWidth="1"/>
-    <col min="10" max="11" width="13" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
     <col min="12" max="12" width="19.875" customWidth="1"/>
     <col min="13" max="13" width="21.875" customWidth="1"/>
     <col min="14" max="15" width="18.375" customWidth="1"/>
-    <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="16" max="16" width="23.5" customWidth="1"/>
     <col min="17" max="17" width="94.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4257,7 +4255,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>263</v>
       </c>
@@ -4280,34 +4278,31 @@
         <v>267</v>
       </c>
       <c r="H2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" t="s">
         <v>268</v>
       </c>
-      <c r="I2" t="s">
-        <v>255</v>
-      </c>
       <c r="J2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K2" t="s">
+        <v>258</v>
+      </c>
+      <c r="L2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M2" t="s">
+        <v>260</v>
+      </c>
+      <c r="N2" t="s">
         <v>269</v>
       </c>
-      <c r="K2" t="s">
-        <v>257</v>
-      </c>
-      <c r="L2" t="s">
-        <v>258</v>
-      </c>
-      <c r="M2" t="s">
-        <v>261</v>
-      </c>
-      <c r="N2" t="s">
-        <v>260</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>270</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:17">
@@ -4315,7 +4310,7 @@
         <v>263</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -4333,34 +4328,34 @@
         <v>267</v>
       </c>
       <c r="H3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I3" t="s">
         <v>268</v>
       </c>
-      <c r="I3" t="s">
-        <v>255</v>
-      </c>
       <c r="J3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K3" t="s">
+        <v>258</v>
+      </c>
+      <c r="L3" t="s">
+        <v>261</v>
+      </c>
+      <c r="M3" t="s">
+        <v>260</v>
+      </c>
+      <c r="N3" t="s">
         <v>269</v>
       </c>
-      <c r="K3" t="s">
-        <v>257</v>
-      </c>
-      <c r="L3" t="s">
-        <v>258</v>
-      </c>
-      <c r="M3" t="s">
-        <v>261</v>
-      </c>
-      <c r="N3" t="s">
-        <v>260</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q3" t="s">
         <v>270</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:17">
@@ -4368,13 +4363,13 @@
         <v>263</v>
       </c>
       <c r="B4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>274</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>275</v>
       </c>
       <c r="E4" t="s">
         <v>266</v>
@@ -4386,34 +4381,34 @@
         <v>267</v>
       </c>
       <c r="H4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I4" t="s">
         <v>268</v>
       </c>
-      <c r="I4" t="s">
-        <v>255</v>
-      </c>
       <c r="J4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K4" t="s">
+        <v>258</v>
+      </c>
+      <c r="L4" t="s">
+        <v>261</v>
+      </c>
+      <c r="M4" t="s">
+        <v>260</v>
+      </c>
+      <c r="N4" t="s">
         <v>269</v>
       </c>
-      <c r="K4" t="s">
-        <v>257</v>
-      </c>
-      <c r="L4" t="s">
-        <v>258</v>
-      </c>
-      <c r="M4" t="s">
-        <v>261</v>
-      </c>
-      <c r="N4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q4" t="s">
         <v>270</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:17">
@@ -4421,13 +4416,13 @@
         <v>263</v>
       </c>
       <c r="B5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>276</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>277</v>
       </c>
       <c r="E5" t="s">
         <v>266</v>
@@ -4439,34 +4434,34 @@
         <v>267</v>
       </c>
       <c r="H5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I5" t="s">
         <v>268</v>
       </c>
-      <c r="I5" t="s">
-        <v>255</v>
-      </c>
       <c r="J5" t="s">
+        <v>257</v>
+      </c>
+      <c r="K5" t="s">
+        <v>258</v>
+      </c>
+      <c r="L5" t="s">
+        <v>261</v>
+      </c>
+      <c r="M5" t="s">
+        <v>260</v>
+      </c>
+      <c r="N5" t="s">
         <v>269</v>
       </c>
-      <c r="K5" t="s">
-        <v>257</v>
-      </c>
-      <c r="L5" t="s">
-        <v>258</v>
-      </c>
-      <c r="M5" t="s">
-        <v>261</v>
-      </c>
-      <c r="N5" t="s">
-        <v>260</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q5" t="s">
         <v>270</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:17">
@@ -4474,16 +4469,16 @@
         <v>263</v>
       </c>
       <c r="B6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>279</v>
-      </c>
-      <c r="E6" t="s">
-        <v>280</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -4492,34 +4487,34 @@
         <v>267</v>
       </c>
       <c r="H6" t="s">
+        <v>255</v>
+      </c>
+      <c r="I6" t="s">
         <v>268</v>
       </c>
-      <c r="I6" t="s">
-        <v>255</v>
-      </c>
       <c r="J6" t="s">
+        <v>257</v>
+      </c>
+      <c r="K6" t="s">
+        <v>258</v>
+      </c>
+      <c r="L6" t="s">
+        <v>261</v>
+      </c>
+      <c r="M6" t="s">
+        <v>260</v>
+      </c>
+      <c r="N6" t="s">
         <v>269</v>
       </c>
-      <c r="K6" t="s">
-        <v>257</v>
-      </c>
-      <c r="L6" t="s">
-        <v>258</v>
-      </c>
-      <c r="M6" t="s">
-        <v>261</v>
-      </c>
-      <c r="N6" t="s">
-        <v>260</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q6" t="s">
         <v>270</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:17">
@@ -4527,16 +4522,16 @@
         <v>263</v>
       </c>
       <c r="B7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" t="s">
         <v>281</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E7" t="s">
-        <v>282</v>
       </c>
       <c r="F7">
         <v>12</v>
@@ -4545,87 +4540,34 @@
         <v>267</v>
       </c>
       <c r="H7" t="s">
+        <v>255</v>
+      </c>
+      <c r="I7" t="s">
         <v>268</v>
       </c>
-      <c r="I7" t="s">
-        <v>255</v>
-      </c>
       <c r="J7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M7" t="s">
+        <v>260</v>
+      </c>
+      <c r="N7" t="s">
         <v>269</v>
       </c>
-      <c r="K7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M7" t="s">
-        <v>261</v>
-      </c>
-      <c r="N7" t="s">
-        <v>260</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q7" t="s">
         <v>270</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="23" customHeight="1" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E8" t="s">
-        <v>282</v>
-      </c>
-      <c r="F8">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H8" t="s">
-        <v>268</v>
-      </c>
-      <c r="I8" t="s">
-        <v>255</v>
-      </c>
-      <c r="J8" t="s">
-        <v>269</v>
-      </c>
-      <c r="K8" t="s">
-        <v>257</v>
-      </c>
-      <c r="L8" t="s">
-        <v>258</v>
-      </c>
-      <c r="M8" t="s">
-        <v>261</v>
-      </c>
-      <c r="N8" t="s">
-        <v>260</v>
-      </c>
-      <c r="O8" t="s">
-        <v>270</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4665,451 +4607,451 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" t="s">
         <v>283</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>284</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>285</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>286</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>287</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>288</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>289</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>290</v>
-      </c>
-      <c r="K1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" t="s">
         <v>292</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>293</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>294</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" t="s">
         <v>295</v>
-      </c>
-      <c r="E2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F2" t="s">
-        <v>296</v>
       </c>
       <c r="G2">
         <v>178</v>
       </c>
       <c r="H2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I2" t="s">
         <v>297</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>298</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>299</v>
-      </c>
-      <c r="K2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" t="s">
         <v>294</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F3" t="s">
         <v>295</v>
-      </c>
-      <c r="E3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F3" t="s">
-        <v>296</v>
       </c>
       <c r="G3">
         <v>177</v>
       </c>
       <c r="H3" t="s">
+        <v>296</v>
+      </c>
+      <c r="I3" t="s">
         <v>297</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>298</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>299</v>
-      </c>
-      <c r="K3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4" t="s">
         <v>302</v>
-      </c>
-      <c r="C4" t="s">
-        <v>300</v>
-      </c>
-      <c r="D4" t="s">
-        <v>295</v>
-      </c>
-      <c r="E4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F4" t="s">
-        <v>303</v>
       </c>
       <c r="G4">
         <v>197</v>
       </c>
       <c r="H4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I4" t="s">
         <v>297</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>298</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>299</v>
-      </c>
-      <c r="K4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F5" t="s">
         <v>304</v>
-      </c>
-      <c r="C5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F5" t="s">
-        <v>305</v>
       </c>
       <c r="G5">
         <v>197</v>
       </c>
       <c r="H5" t="s">
+        <v>296</v>
+      </c>
+      <c r="I5" t="s">
         <v>297</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>298</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>299</v>
-      </c>
-      <c r="K5" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" t="s">
         <v>306</v>
       </c>
-      <c r="C6" t="s">
-        <v>307</v>
-      </c>
       <c r="D6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G6">
         <v>197</v>
       </c>
       <c r="H6" t="s">
+        <v>296</v>
+      </c>
+      <c r="I6" t="s">
         <v>297</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>298</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>299</v>
-      </c>
-      <c r="K6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" t="s">
         <v>308</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F7" t="s">
         <v>309</v>
-      </c>
-      <c r="D7" t="s">
-        <v>295</v>
-      </c>
-      <c r="E7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F7" t="s">
-        <v>310</v>
       </c>
       <c r="G7">
         <v>197</v>
       </c>
       <c r="H7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I7" t="s">
         <v>297</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>298</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>299</v>
-      </c>
-      <c r="K7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" t="s">
         <v>311</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E8" t="s">
+        <v>294</v>
+      </c>
+      <c r="F8" t="s">
         <v>312</v>
-      </c>
-      <c r="D8" t="s">
-        <v>295</v>
-      </c>
-      <c r="E8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F8" t="s">
-        <v>313</v>
       </c>
       <c r="G8">
         <v>175</v>
       </c>
       <c r="H8" t="s">
+        <v>296</v>
+      </c>
+      <c r="I8" t="s">
         <v>297</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>298</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>299</v>
-      </c>
-      <c r="K8" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" t="s">
         <v>314</v>
       </c>
-      <c r="C9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D9" t="s">
-        <v>315</v>
-      </c>
       <c r="E9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G9">
         <v>178</v>
       </c>
       <c r="H9" t="s">
+        <v>296</v>
+      </c>
+      <c r="I9" t="s">
         <v>297</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>298</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>299</v>
-      </c>
-      <c r="K9" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D10" t="s">
         <v>316</v>
       </c>
-      <c r="C10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D10" t="s">
-        <v>317</v>
-      </c>
       <c r="E10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G10">
         <v>178</v>
       </c>
       <c r="H10" t="s">
+        <v>296</v>
+      </c>
+      <c r="I10" t="s">
         <v>297</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>298</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>299</v>
-      </c>
-      <c r="K10" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11" t="s">
         <v>318</v>
       </c>
-      <c r="C11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D11" t="s">
-        <v>319</v>
-      </c>
       <c r="E11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G11">
         <v>178</v>
       </c>
       <c r="H11" t="s">
+        <v>296</v>
+      </c>
+      <c r="I11" t="s">
         <v>297</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>298</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>299</v>
-      </c>
-      <c r="K11" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12" t="s">
         <v>320</v>
       </c>
-      <c r="C12" t="s">
-        <v>294</v>
-      </c>
-      <c r="D12" t="s">
-        <v>321</v>
-      </c>
       <c r="E12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G12">
         <v>178</v>
       </c>
       <c r="H12" t="s">
+        <v>296</v>
+      </c>
+      <c r="I12" t="s">
         <v>297</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>298</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>299</v>
-      </c>
-      <c r="K12" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" t="s">
         <v>322</v>
       </c>
-      <c r="C13" t="s">
-        <v>294</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>323</v>
       </c>
-      <c r="E13" t="s">
-        <v>324</v>
-      </c>
       <c r="F13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G13">
         <v>178</v>
       </c>
       <c r="H13" t="s">
+        <v>296</v>
+      </c>
+      <c r="I13" t="s">
         <v>297</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>298</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>299</v>
-      </c>
-      <c r="K13" t="s">
-        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5147,48 +5089,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" t="s">
         <v>284</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>285</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>286</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>287</v>
       </c>
-      <c r="G1" t="s">
-        <v>288</v>
-      </c>
       <c r="H1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" t="s">
         <v>325</v>
       </c>
-      <c r="B2" t="s">
-        <v>326</v>
-      </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2">
         <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -5223,22 +5165,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" t="s">
         <v>284</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>285</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>286</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>287</v>
       </c>
-      <c r="G1" t="s">
-        <v>288</v>
-      </c>
       <c r="H1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:3">
@@ -5582,13 +5524,13 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H1" t="s">
         <v>255</v>
       </c>
       <c r="I1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s">
         <v>257</v>
@@ -5603,13 +5545,13 @@
         <v>260</v>
       </c>
       <c r="N1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O1">
         <v>0</v>
       </c>
       <c r="P1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
@@ -5617,7 +5559,7 @@
         <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
@@ -5632,13 +5574,13 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H2" t="s">
         <v>255</v>
       </c>
       <c r="I2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J2" t="s">
         <v>257</v>
@@ -5653,16 +5595,16 @@
         <v>260</v>
       </c>
       <c r="N2" t="s">
+        <v>269</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q2" t="s">
         <v>270</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:17">
@@ -5670,13 +5612,13 @@
         <v>263</v>
       </c>
       <c r="B3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>274</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>275</v>
       </c>
       <c r="E3" t="s">
         <v>266</v>
@@ -5685,13 +5627,13 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H3" t="s">
         <v>255</v>
       </c>
       <c r="I3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J3" t="s">
         <v>257</v>
@@ -5706,16 +5648,16 @@
         <v>260</v>
       </c>
       <c r="N3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:17">
@@ -5723,13 +5665,13 @@
         <v>263</v>
       </c>
       <c r="B4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>276</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>277</v>
       </c>
       <c r="E4" t="s">
         <v>266</v>
@@ -5738,13 +5680,13 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H4" t="s">
         <v>255</v>
       </c>
       <c r="I4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J4" t="s">
         <v>257</v>
@@ -5759,16 +5701,16 @@
         <v>260</v>
       </c>
       <c r="N4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q4" t="s">
         <v>270</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:17">
@@ -5776,28 +5718,28 @@
         <v>263</v>
       </c>
       <c r="B5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>279</v>
       </c>
-      <c r="E5" t="s">
-        <v>280</v>
-      </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H5" t="s">
         <v>255</v>
       </c>
       <c r="I5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J5" t="s">
         <v>257</v>
@@ -5812,16 +5754,16 @@
         <v>260</v>
       </c>
       <c r="N5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:17">
@@ -5829,28 +5771,28 @@
         <v>263</v>
       </c>
       <c r="B6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" t="s">
         <v>281</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>279</v>
-      </c>
-      <c r="E6" t="s">
-        <v>282</v>
       </c>
       <c r="F6">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H6" t="s">
         <v>255</v>
       </c>
       <c r="I6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J6" t="s">
         <v>257</v>
@@ -5865,16 +5807,16 @@
         <v>260</v>
       </c>
       <c r="N6" t="s">
+        <v>269</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q6" t="s">
         <v>270</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="22" activeTab="22"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="22" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -29,21 +29,22 @@
     <sheet name="opentsdbEdit" sheetId="22" r:id="rId20"/>
     <sheet name="messagequeueEditdeltecreate" sheetId="23" r:id="rId21"/>
     <sheet name="scriptCreteTable" sheetId="24" r:id="rId22"/>
-    <sheet name="guideCreateTable_ads" sheetId="25" r:id="rId23"/>
-    <sheet name="userAdd" sheetId="26" r:id="rId24"/>
-    <sheet name="userEdit" sheetId="27" r:id="rId25"/>
-    <sheet name="qualityregularAdd" sheetId="3" r:id="rId26"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId27"/>
-    <sheet name="Sheet2" sheetId="28" r:id="rId28"/>
-    <sheet name="Sheet3" sheetId="29" r:id="rId29"/>
-    <sheet name="Sheet4" sheetId="30" r:id="rId30"/>
+    <sheet name="guideCreateTable_ods" sheetId="31" r:id="rId23"/>
+    <sheet name="guideCreateTable_ads" sheetId="25" r:id="rId24"/>
+    <sheet name="userAdd" sheetId="26" r:id="rId25"/>
+    <sheet name="userEdit" sheetId="27" r:id="rId26"/>
+    <sheet name="qualityregularAdd" sheetId="3" r:id="rId27"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId28"/>
+    <sheet name="Sheet2" sheetId="28" r:id="rId29"/>
+    <sheet name="Sheet3" sheetId="29" r:id="rId30"/>
+    <sheet name="Sheet4" sheetId="30" r:id="rId31"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="326">
   <si>
     <t>module</t>
   </si>
@@ -881,9 +882,6 @@
     <t>para2</t>
   </si>
   <si>
-    <t>partition3_desc</t>
-  </si>
-  <si>
     <t>http://hufu.test.xuelangyun.com/tml/index#/dataAssets/dataSheet/list</t>
   </si>
   <si>
@@ -918,6 +916,9 @@
   </si>
   <si>
     <t>数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息据表描述信息数据表描述信息数据表描述信息数据表描述信息描述信息描操</t>
+  </si>
+  <si>
+    <t>class</t>
   </si>
   <si>
     <t>username</t>
@@ -4177,10 +4178,10 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L1" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -4191,7 +4192,413 @@
     <col min="4" max="4" width="18.625" customWidth="1"/>
     <col min="5" max="5" width="116.875" customWidth="1"/>
     <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="7" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="19.875" customWidth="1"/>
+    <col min="14" max="14" width="21.875" customWidth="1"/>
+    <col min="15" max="16" width="18.375" customWidth="1"/>
+    <col min="17" max="17" width="23.5" customWidth="1"/>
+    <col min="18" max="18" width="94.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N1" t="s">
+        <v>260</v>
+      </c>
+      <c r="O1" t="s">
+        <v>261</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K2" t="s">
+        <v>257</v>
+      </c>
+      <c r="L2" t="s">
+        <v>258</v>
+      </c>
+      <c r="M2" t="s">
+        <v>259</v>
+      </c>
+      <c r="N2" t="s">
+        <v>260</v>
+      </c>
+      <c r="O2" t="s">
+        <v>261</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" t="s">
+        <v>268</v>
+      </c>
+      <c r="K3" t="s">
+        <v>257</v>
+      </c>
+      <c r="L3" t="s">
+        <v>258</v>
+      </c>
+      <c r="M3" t="s">
+        <v>259</v>
+      </c>
+      <c r="N3" t="s">
+        <v>260</v>
+      </c>
+      <c r="O3" t="s">
+        <v>261</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>271</v>
+      </c>
+      <c r="R3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I4" t="s">
+        <v>255</v>
+      </c>
+      <c r="J4" t="s">
+        <v>268</v>
+      </c>
+      <c r="K4" t="s">
+        <v>257</v>
+      </c>
+      <c r="L4" t="s">
+        <v>258</v>
+      </c>
+      <c r="M4" t="s">
+        <v>259</v>
+      </c>
+      <c r="N4" t="s">
+        <v>260</v>
+      </c>
+      <c r="O4" t="s">
+        <v>261</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>271</v>
+      </c>
+      <c r="R4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" t="s">
+        <v>255</v>
+      </c>
+      <c r="J5" t="s">
+        <v>268</v>
+      </c>
+      <c r="K5" t="s">
+        <v>257</v>
+      </c>
+      <c r="L5" t="s">
+        <v>258</v>
+      </c>
+      <c r="M5" t="s">
+        <v>259</v>
+      </c>
+      <c r="N5" t="s">
+        <v>260</v>
+      </c>
+      <c r="O5" t="s">
+        <v>261</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>271</v>
+      </c>
+      <c r="R5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>267</v>
+      </c>
+      <c r="I6" t="s">
+        <v>255</v>
+      </c>
+      <c r="J6" t="s">
+        <v>268</v>
+      </c>
+      <c r="K6" t="s">
+        <v>257</v>
+      </c>
+      <c r="L6" t="s">
+        <v>258</v>
+      </c>
+      <c r="M6" t="s">
+        <v>259</v>
+      </c>
+      <c r="N6" t="s">
+        <v>260</v>
+      </c>
+      <c r="O6" t="s">
+        <v>261</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>271</v>
+      </c>
+      <c r="R6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I7" t="s">
+        <v>255</v>
+      </c>
+      <c r="J7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L7" t="s">
+        <v>258</v>
+      </c>
+      <c r="M7" t="s">
+        <v>259</v>
+      </c>
+      <c r="N7" t="s">
+        <v>260</v>
+      </c>
+      <c r="O7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>271</v>
+      </c>
+      <c r="R7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="65.25" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="116.875" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
     <col min="8" max="9" width="16.5" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
@@ -4255,7 +4662,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:16">
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>263</v>
       </c>
@@ -4275,42 +4682,45 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" t="s">
         <v>255</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>268</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>257</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>258</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>259</v>
+      </c>
+      <c r="N2" t="s">
+        <v>260</v>
+      </c>
+      <c r="O2" t="s">
         <v>261</v>
       </c>
-      <c r="M2" t="s">
-        <v>260</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
         <v>269</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:17">
+    </row>
+    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -4325,51 +4735,54 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3" t="s">
         <v>255</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>268</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>257</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>258</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>259</v>
+      </c>
+      <c r="N3" t="s">
+        <v>260</v>
+      </c>
+      <c r="O3" t="s">
         <v>261</v>
       </c>
-      <c r="M3" t="s">
-        <v>260</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>271</v>
+      </c>
+      <c r="R3" t="s">
         <v>269</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:17">
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>273</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>274</v>
       </c>
       <c r="E4" t="s">
         <v>266</v>
@@ -4378,51 +4791,54 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I4" t="s">
         <v>255</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>268</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>257</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>258</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
+        <v>259</v>
+      </c>
+      <c r="N4" t="s">
+        <v>260</v>
+      </c>
+      <c r="O4" t="s">
         <v>261</v>
       </c>
-      <c r="M4" t="s">
-        <v>260</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>271</v>
+      </c>
+      <c r="R4" t="s">
         <v>269</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:17">
+    </row>
+    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>275</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>276</v>
       </c>
       <c r="E5" t="s">
         <v>266</v>
@@ -4431,143 +4847,152 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I5" t="s">
         <v>255</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>268</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>257</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>258</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
+        <v>259</v>
+      </c>
+      <c r="N5" t="s">
+        <v>260</v>
+      </c>
+      <c r="O5" t="s">
         <v>261</v>
       </c>
-      <c r="M5" t="s">
-        <v>260</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>271</v>
+      </c>
+      <c r="R5" t="s">
         <v>269</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:17">
+    </row>
+    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>278</v>
       </c>
-      <c r="E6" t="s">
-        <v>279</v>
-      </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H6" t="s">
+        <v>254</v>
+      </c>
+      <c r="I6" t="s">
         <v>255</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>268</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>257</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>258</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
+        <v>259</v>
+      </c>
+      <c r="N6" t="s">
+        <v>260</v>
+      </c>
+      <c r="O6" t="s">
         <v>261</v>
       </c>
-      <c r="M6" t="s">
-        <v>260</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>271</v>
+      </c>
+      <c r="R6" t="s">
         <v>269</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:17">
+    </row>
+    <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" t="s">
         <v>280</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>278</v>
-      </c>
-      <c r="E7" t="s">
-        <v>281</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I7" t="s">
         <v>255</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>268</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>257</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>258</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
+        <v>259</v>
+      </c>
+      <c r="N7" t="s">
+        <v>260</v>
+      </c>
+      <c r="O7" t="s">
         <v>261</v>
       </c>
-      <c r="M7" t="s">
-        <v>260</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>271</v>
+      </c>
+      <c r="R7" t="s">
         <v>269</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4577,7 +5002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K13"/>
@@ -5061,7 +5486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H2"/>
@@ -5140,7 +5565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H20"/>
@@ -5216,7 +5641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -5228,22 +5653,6 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -5489,337 +5898,34 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="46.375" customWidth="1"/>
-    <col min="3" max="3" width="27.25" customWidth="1"/>
-    <col min="4" max="4" width="57.75" customWidth="1"/>
-    <col min="5" max="5" width="63.5" customWidth="1"/>
-    <col min="16" max="16" width="69.5" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" customFormat="1" ht="23" customHeight="1" spans="1:16">
-      <c r="A1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F1">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H1" t="s">
-        <v>255</v>
-      </c>
-      <c r="I1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J1" t="s">
-        <v>257</v>
-      </c>
-      <c r="K1" t="s">
-        <v>258</v>
-      </c>
-      <c r="L1" t="s">
-        <v>261</v>
-      </c>
-      <c r="M1" t="s">
-        <v>260</v>
-      </c>
-      <c r="N1" t="s">
-        <v>269</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
-      <c r="A2" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I2" t="s">
-        <v>268</v>
-      </c>
-      <c r="J2" t="s">
-        <v>257</v>
-      </c>
-      <c r="K2" t="s">
-        <v>258</v>
-      </c>
-      <c r="L2" t="s">
-        <v>261</v>
-      </c>
-      <c r="M2" t="s">
-        <v>260</v>
-      </c>
-      <c r="N2" t="s">
-        <v>269</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:17">
-      <c r="A3" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>267</v>
-      </c>
-      <c r="H3" t="s">
-        <v>255</v>
-      </c>
-      <c r="I3" t="s">
-        <v>268</v>
-      </c>
-      <c r="J3" t="s">
-        <v>257</v>
-      </c>
-      <c r="K3" t="s">
-        <v>258</v>
-      </c>
-      <c r="L3" t="s">
-        <v>261</v>
-      </c>
-      <c r="M3" t="s">
-        <v>260</v>
-      </c>
-      <c r="N3" t="s">
-        <v>269</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:17">
-      <c r="A4" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H4" t="s">
-        <v>255</v>
-      </c>
-      <c r="I4" t="s">
-        <v>268</v>
-      </c>
-      <c r="J4" t="s">
-        <v>257</v>
-      </c>
-      <c r="K4" t="s">
-        <v>258</v>
-      </c>
-      <c r="L4" t="s">
-        <v>261</v>
-      </c>
-      <c r="M4" t="s">
-        <v>260</v>
-      </c>
-      <c r="N4" t="s">
-        <v>269</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:17">
-      <c r="A5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>267</v>
-      </c>
-      <c r="H5" t="s">
-        <v>255</v>
-      </c>
-      <c r="I5" t="s">
-        <v>268</v>
-      </c>
-      <c r="J5" t="s">
-        <v>257</v>
-      </c>
-      <c r="K5" t="s">
-        <v>258</v>
-      </c>
-      <c r="L5" t="s">
-        <v>261</v>
-      </c>
-      <c r="M5" t="s">
-        <v>260</v>
-      </c>
-      <c r="N5" t="s">
-        <v>269</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E6" t="s">
-        <v>281</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>267</v>
-      </c>
-      <c r="H6" t="s">
-        <v>255</v>
-      </c>
-      <c r="I6" t="s">
-        <v>268</v>
-      </c>
-      <c r="J6" t="s">
-        <v>257</v>
-      </c>
-      <c r="K6" t="s">
-        <v>258</v>
-      </c>
-      <c r="L6" t="s">
-        <v>261</v>
-      </c>
-      <c r="M6" t="s">
-        <v>260</v>
-      </c>
-      <c r="N6" t="s">
-        <v>269</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="22" activeTab="23"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="22" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="334">
   <si>
     <t>module</t>
   </si>
@@ -864,6 +864,60 @@
     <t>expect_url</t>
   </si>
   <si>
+    <t>向导建表_ods</t>
+  </si>
+  <si>
+    <t>1_根据向导创建ods层数据表，创建成功</t>
+  </si>
+  <si>
+    <t>odstest</t>
+  </si>
+  <si>
+    <t>数据表描述信息</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>para2</t>
+  </si>
+  <si>
+    <t>http://hufu.test.xuelangyun.com/tml/index#/dataAssets/dataSheet/list</t>
+  </si>
+  <si>
+    <t>2_根据向导创建ods层已有的数据表，创建失败</t>
+  </si>
+  <si>
+    <t>http://hufu.test.xuelangyun.com/tml/index#/dataAssets/dataSheet/dataSheetAdd</t>
+  </si>
+  <si>
+    <t>3_根据向导创建ods层数据表的表名长度为128，创建成功</t>
+  </si>
+  <si>
+    <t>1281111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+  </si>
+  <si>
+    <t>4_根据向导创建ods层数据表的表名长度超过128，创建失败</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+  </si>
+  <si>
+    <t>5_根据向导创建ods层数据表的描述信息长度为256，创建成功</t>
+  </si>
+  <si>
+    <t>odstest256</t>
+  </si>
+  <si>
+    <t>数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息据表描述信息数据表描述信息数据表描述信息数据表描述信息描述信息描</t>
+  </si>
+  <si>
+    <t>6_根据向导创建ods层数据表的描述信息长度超过256，创建失败</t>
+  </si>
+  <si>
+    <t>数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息据表描述信息数据表描述信息数据表描述信息数据表描述信息描述信息描操</t>
+  </si>
+  <si>
     <t>向导建表_ads</t>
   </si>
   <si>
@@ -873,52 +927,22 @@
     <t>adstest</t>
   </si>
   <si>
-    <t>数据表描述信息</t>
-  </si>
-  <si>
-    <t>para1</t>
-  </si>
-  <si>
-    <t>para2</t>
-  </si>
-  <si>
-    <t>http://hufu.test.xuelangyun.com/tml/index#/dataAssets/dataSheet/list</t>
-  </si>
-  <si>
     <t>2_根据向导创建ads层已有的数据表，创建失败</t>
   </si>
   <si>
-    <t>http://hufu.test.xuelangyun.com/tml/index#/dataAssets/dataSheet/dataSheetAdd</t>
-  </si>
-  <si>
     <t>3_根据向导创建ads层数据表的表名长度为128，创建成功</t>
   </si>
   <si>
-    <t>1281111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
-  </si>
-  <si>
     <t>4_根据向导创建ads层数据表的表名长度超过128，创建失败</t>
   </si>
   <si>
-    <t>11111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
-  </si>
-  <si>
     <t>5_根据向导创建ads层数据表的描述信息长度为256，创建成功</t>
   </si>
   <si>
     <t>adstest256</t>
   </si>
   <si>
-    <t>数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息据表描述信息数据表描述信息数据表描述信息数据表描述信息描述信息描</t>
-  </si>
-  <si>
     <t>6_根据向导创建ads层数据表的描述信息长度超过256，创建失败</t>
-  </si>
-  <si>
-    <t>数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息据表描述信息数据表描述信息数据表描述信息数据表描述信息描述信息描操</t>
-  </si>
-  <si>
-    <t>class</t>
   </si>
   <si>
     <t>username</t>
@@ -4180,8 +4204,8 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L1" sqref="$A1:$XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -4331,6 +4355,9 @@
       <c r="G3" t="s">
         <v>267</v>
       </c>
+      <c r="H3" t="s">
+        <v>254</v>
+      </c>
       <c r="I3" t="s">
         <v>255</v>
       </c>
@@ -4384,6 +4411,9 @@
       <c r="G4" t="s">
         <v>267</v>
       </c>
+      <c r="H4" t="s">
+        <v>254</v>
+      </c>
       <c r="I4" t="s">
         <v>255</v>
       </c>
@@ -4437,6 +4467,9 @@
       <c r="G5" t="s">
         <v>267</v>
       </c>
+      <c r="H5" t="s">
+        <v>254</v>
+      </c>
       <c r="I5" t="s">
         <v>255</v>
       </c>
@@ -4490,6 +4523,9 @@
       <c r="G6" t="s">
         <v>267</v>
       </c>
+      <c r="H6" t="s">
+        <v>254</v>
+      </c>
       <c r="I6" t="s">
         <v>255</v>
       </c>
@@ -4542,6 +4578,9 @@
       </c>
       <c r="G7" t="s">
         <v>267</v>
+      </c>
+      <c r="H7" t="s">
+        <v>254</v>
       </c>
       <c r="I7" t="s">
         <v>255</v>
@@ -4586,7 +4625,7 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -4664,16 +4703,16 @@
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="E2" t="s">
         <v>266</v>
@@ -4682,7 +4721,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H2" t="s">
         <v>254</v>
@@ -4717,16 +4756,16 @@
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="E3" t="s">
         <v>266</v>
@@ -4735,7 +4774,7 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H3" t="s">
         <v>254</v>
@@ -4773,10 +4812,10 @@
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -4791,7 +4830,7 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H4" t="s">
         <v>254</v>
@@ -4829,10 +4868,10 @@
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -4847,7 +4886,7 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H5" t="s">
         <v>254</v>
@@ -4885,16 +4924,16 @@
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E6" t="s">
         <v>278</v>
@@ -4903,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H6" t="s">
         <v>254</v>
@@ -4941,16 +4980,16 @@
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E7" t="s">
         <v>280</v>
@@ -4959,7 +4998,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H7" t="s">
         <v>254</v>
@@ -5032,451 +5071,451 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="E1" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F1" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="G1" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H1" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="I1" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="J1" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="K1" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F2" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="G2">
         <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I2" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="J2" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D3" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E3" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F3" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="G3">
         <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I3" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="J3" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K3" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="C4" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E4" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="G4">
         <v>197</v>
       </c>
       <c r="H4" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="J4" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K4" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E5" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="G5">
         <v>197</v>
       </c>
       <c r="H5" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I5" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="J5" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K5" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D6" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E6" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F6" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="G6">
         <v>197</v>
       </c>
       <c r="H6" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I6" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="J6" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K6" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="G7">
         <v>197</v>
       </c>
       <c r="H7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="J7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C8" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="D8" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E8" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F8" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="G8">
         <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I8" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="J8" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K8" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C9" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D9" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E9" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F9" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="G9">
         <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I9" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="J9" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K9" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C10" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D10" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="E10" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F10" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="G10">
         <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I10" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="J10" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K10" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B11" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D11" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="E11" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="F11" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="G11">
         <v>178</v>
       </c>
       <c r="H11" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I11" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="J11" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K11" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B12" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D12" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="E12" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F12" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="G12">
         <v>178</v>
       </c>
       <c r="H12" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I12" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="J12" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K12" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B13" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C13" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D13" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="E13" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="F13" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="G13">
         <v>178</v>
       </c>
       <c r="H13" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="I13" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="J13" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K13" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -5514,48 +5553,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D1" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E1" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="F1" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="G1" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="H1" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F2">
         <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="H2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -5590,22 +5629,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D1" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E1" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="F1" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="G1" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="H1" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:3">

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,47 +4,51 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="22" activeTab="22"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="project" sheetId="1" r:id="rId1"/>
-    <sheet name="mysqlAdd" sheetId="2" r:id="rId2"/>
-    <sheet name="sqlServerAdd" sheetId="5" r:id="rId3"/>
-    <sheet name="PostgreSQLAdd" sheetId="6" r:id="rId4"/>
-    <sheet name="Db2Add" sheetId="7" r:id="rId5"/>
-    <sheet name="OracleAdd" sheetId="8" r:id="rId6"/>
-    <sheet name="hiveAdd" sheetId="9" r:id="rId7"/>
-    <sheet name="maxcomputeAdd" sheetId="10" r:id="rId8"/>
-    <sheet name="mongoAdd" sheetId="11" r:id="rId9"/>
-    <sheet name="hdfsAdd" sheetId="12" r:id="rId10"/>
-    <sheet name="hdfs_publicNetAdd" sheetId="13" r:id="rId11"/>
-    <sheet name="opentsdbAdd" sheetId="14" r:id="rId12"/>
-    <sheet name="opentsdb_publicNetAdd" sheetId="15" r:id="rId13"/>
-    <sheet name="httpmdtAdd" sheetId="16" r:id="rId14"/>
-    <sheet name="mqttAdd" sheetId="17" r:id="rId15"/>
-    <sheet name="relationDbEdit" sheetId="18" r:id="rId16"/>
-    <sheet name="bigDataEdit" sheetId="19" r:id="rId17"/>
-    <sheet name="mongoDBEdit" sheetId="20" r:id="rId18"/>
-    <sheet name="hdfsEdit" sheetId="21" r:id="rId19"/>
-    <sheet name="opentsdbEdit" sheetId="22" r:id="rId20"/>
-    <sheet name="messagequeueEditdeltecreate" sheetId="23" r:id="rId21"/>
-    <sheet name="scriptCreteTable" sheetId="24" r:id="rId22"/>
-    <sheet name="guideCreateTable_ods" sheetId="31" r:id="rId23"/>
-    <sheet name="guideCreateTable_ads" sheetId="25" r:id="rId24"/>
-    <sheet name="userAdd" sheetId="26" r:id="rId25"/>
-    <sheet name="userEdit" sheetId="27" r:id="rId26"/>
-    <sheet name="qualityregularAdd" sheetId="3" r:id="rId27"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId28"/>
-    <sheet name="Sheet2" sheetId="28" r:id="rId29"/>
-    <sheet name="Sheet3" sheetId="29" r:id="rId30"/>
-    <sheet name="Sheet4" sheetId="30" r:id="rId31"/>
+    <sheet name="guideCreateTable_tmp" sheetId="35" r:id="rId1"/>
+    <sheet name="guideCreateTable_dim" sheetId="34" r:id="rId2"/>
+    <sheet name="guideCreateTable_dws" sheetId="33" r:id="rId3"/>
+    <sheet name="guideCreateTable_dwd" sheetId="32" r:id="rId4"/>
+    <sheet name="project" sheetId="1" r:id="rId5"/>
+    <sheet name="mysqlAdd" sheetId="2" r:id="rId6"/>
+    <sheet name="sqlServerAdd" sheetId="5" r:id="rId7"/>
+    <sheet name="PostgreSQLAdd" sheetId="6" r:id="rId8"/>
+    <sheet name="Db2Add" sheetId="7" r:id="rId9"/>
+    <sheet name="OracleAdd" sheetId="8" r:id="rId10"/>
+    <sheet name="hiveAdd" sheetId="9" r:id="rId11"/>
+    <sheet name="maxcomputeAdd" sheetId="10" r:id="rId12"/>
+    <sheet name="mongoAdd" sheetId="11" r:id="rId13"/>
+    <sheet name="hdfsAdd" sheetId="12" r:id="rId14"/>
+    <sheet name="hdfs_publicNetAdd" sheetId="13" r:id="rId15"/>
+    <sheet name="opentsdbAdd" sheetId="14" r:id="rId16"/>
+    <sheet name="opentsdb_publicNetAdd" sheetId="15" r:id="rId17"/>
+    <sheet name="httpmdtAdd" sheetId="16" r:id="rId18"/>
+    <sheet name="mqttAdd" sheetId="17" r:id="rId19"/>
+    <sheet name="relationDbEdit" sheetId="18" r:id="rId20"/>
+    <sheet name="bigDataEdit" sheetId="19" r:id="rId21"/>
+    <sheet name="mongoDBEdit" sheetId="20" r:id="rId22"/>
+    <sheet name="hdfsEdit" sheetId="21" r:id="rId23"/>
+    <sheet name="opentsdbEdit" sheetId="22" r:id="rId24"/>
+    <sheet name="messagequeueEditdeltecreate" sheetId="23" r:id="rId25"/>
+    <sheet name="scriptCreteTable" sheetId="24" r:id="rId26"/>
+    <sheet name="guideCreateTable_ods" sheetId="31" r:id="rId27"/>
+    <sheet name="guideCreateTable_ads" sheetId="25" r:id="rId28"/>
+    <sheet name="userAdd" sheetId="26" r:id="rId29"/>
+    <sheet name="userEdit" sheetId="27" r:id="rId30"/>
+    <sheet name="qualityregularAdd" sheetId="3" r:id="rId31"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId32"/>
+    <sheet name="Sheet2" sheetId="28" r:id="rId33"/>
+    <sheet name="Sheet3" sheetId="29" r:id="rId34"/>
+    <sheet name="Sheet4" sheetId="30" r:id="rId35"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="373">
   <si>
     <t>module</t>
   </si>
@@ -55,6 +59,189 @@
     <t>project_name</t>
   </si>
   <si>
+    <t>define</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>lifecycle</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>para1name</t>
+  </si>
+  <si>
+    <t>para1desc</t>
+  </si>
+  <si>
+    <t>para2name</t>
+  </si>
+  <si>
+    <t>para2desc</t>
+  </si>
+  <si>
+    <t>partition_par1</t>
+  </si>
+  <si>
+    <t>partition1_desc</t>
+  </si>
+  <si>
+    <t>partition_par2</t>
+  </si>
+  <si>
+    <t>partition2_desc</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>expect_url</t>
+  </si>
+  <si>
+    <t>向导建表_tmp</t>
+  </si>
+  <si>
+    <t>1_根据向导创建tmp层数据表，创建成功</t>
+  </si>
+  <si>
+    <t>_自动化测试勿操作！</t>
+  </si>
+  <si>
+    <t>tmptest</t>
+  </si>
+  <si>
+    <t>数据表描述信息</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>para2</t>
+  </si>
+  <si>
+    <t>http://hufu.test.xuelangyun.com/tml/index#/dataAssets/dataSheet/list</t>
+  </si>
+  <si>
+    <t>2_根据向导创建tmp层已有的数据表，创建失败</t>
+  </si>
+  <si>
+    <t>http://hufu.test.xuelangyun.com/tml/index#/dataAssets/dataSheet/dataSheetAdd</t>
+  </si>
+  <si>
+    <t>3_根据向导创建tmp层数据表的表名长度为128，创建成功</t>
+  </si>
+  <si>
+    <t>1281111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+  </si>
+  <si>
+    <t>4_根据向导创建tmp层数据表的表名长度超过128，创建失败</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+  </si>
+  <si>
+    <t>5_根据向导创建tmp层数据表的描述信息长度为256，创建成功</t>
+  </si>
+  <si>
+    <t>tmptest256</t>
+  </si>
+  <si>
+    <t>数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息据表描述信息数据表描述信息数据表描述信息数据表描述信息描述信息描</t>
+  </si>
+  <si>
+    <t>6_根据向导创建tmp层数据表的描述信息长度超过256，创建失败</t>
+  </si>
+  <si>
+    <t>数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息据表描述信息数据表描述信息数据表描述信息数据表描述信息描述信息描操</t>
+  </si>
+  <si>
+    <t>向导建表_dim</t>
+  </si>
+  <si>
+    <t>1_根据向导创建dim层数据表，创建成功</t>
+  </si>
+  <si>
+    <t>dimtest</t>
+  </si>
+  <si>
+    <t>2_根据向导创建dim层已有的数据表，创建失败</t>
+  </si>
+  <si>
+    <t>3_根据向导创建dim层数据表的表名长度为128，创建成功</t>
+  </si>
+  <si>
+    <t>1281111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+  </si>
+  <si>
+    <t>4_根据向导创建dim层数据表的表名长度超过128，创建失败</t>
+  </si>
+  <si>
+    <t>5_根据向导创建dim层数据表的描述信息长度为256，创建成功</t>
+  </si>
+  <si>
+    <t>dimtest256</t>
+  </si>
+  <si>
+    <t>6_根据向导创建dim层数据表的描述信息长度超过256，创建失败</t>
+  </si>
+  <si>
+    <t>向导建表_dws</t>
+  </si>
+  <si>
+    <t>1_根据向导创建dws层数据表，创建成功</t>
+  </si>
+  <si>
+    <t>dwstest</t>
+  </si>
+  <si>
+    <t>2_根据向导创建dws层已有的数据表，创建失败</t>
+  </si>
+  <si>
+    <t>3_根据向导创建dws层数据表的表名长度为128，创建成功</t>
+  </si>
+  <si>
+    <t>4_根据向导创建dws层数据表的表名长度超过128，创建失败</t>
+  </si>
+  <si>
+    <t>5_根据向导创建dws层数据表的描述信息长度为256，创建成功</t>
+  </si>
+  <si>
+    <t>dwstest256</t>
+  </si>
+  <si>
+    <t>6_根据向导创建dws层数据表的描述信息长度超过256，创建失败</t>
+  </si>
+  <si>
+    <t>向导建表_dwd</t>
+  </si>
+  <si>
+    <t>1_根据向导创建dwd层数据表，创建成功</t>
+  </si>
+  <si>
+    <t>dwdtest</t>
+  </si>
+  <si>
+    <t>2_根据向导创建dwd层已有的数据表，创建失败</t>
+  </si>
+  <si>
+    <t>3_根据向导创建dwd层数据表的表名长度为128，创建成功</t>
+  </si>
+  <si>
+    <t>4_根据向导创建dwd层数据表的表名长度超过128，创建失败</t>
+  </si>
+  <si>
+    <t>5_根据向导创建dwd层数据表的描述信息长度为256，创建成功</t>
+  </si>
+  <si>
+    <t>dwdtest256</t>
+  </si>
+  <si>
+    <t>6_根据向导创建dwd层数据表的描述信息长度超过256，创建失败</t>
+  </si>
+  <si>
     <t>project_desc</t>
   </si>
   <si>
@@ -76,9 +263,6 @@
     <t>wmc_test</t>
   </si>
   <si>
-    <t>_自动化测试勿操作！</t>
-  </si>
-  <si>
     <t>wmc_desc</t>
   </si>
   <si>
@@ -119,9 +303,6 @@
   </si>
   <si>
     <t>dataSource_pwd</t>
-  </si>
-  <si>
-    <t>result</t>
   </si>
   <si>
     <t>expect_url1</t>
@@ -660,9 +841,6 @@
     <t>topic</t>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
     <t>创建httpmdt数据源</t>
   </si>
   <si>
@@ -828,42 +1006,6 @@
     <t>table_test</t>
   </si>
   <si>
-    <t>define</t>
-  </si>
-  <si>
-    <t>lifecycle</t>
-  </si>
-  <si>
-    <t>property</t>
-  </si>
-  <si>
-    <t>para1name</t>
-  </si>
-  <si>
-    <t>para1desc</t>
-  </si>
-  <si>
-    <t>para2name</t>
-  </si>
-  <si>
-    <t>para2desc</t>
-  </si>
-  <si>
-    <t>partition_par1</t>
-  </si>
-  <si>
-    <t>partition1_desc</t>
-  </si>
-  <si>
-    <t>partition_par2</t>
-  </si>
-  <si>
-    <t>partition2_desc</t>
-  </si>
-  <si>
-    <t>expect_url</t>
-  </si>
-  <si>
     <t>向导建表_ods</t>
   </si>
   <si>
@@ -873,64 +1015,43 @@
     <t>odstest</t>
   </si>
   <si>
-    <t>数据表描述信息</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>para2</t>
-  </si>
-  <si>
-    <t>http://hufu.test.xuelangyun.com/tml/index#/dataAssets/dataSheet/list</t>
-  </si>
-  <si>
     <t>2_根据向导创建ods层已有的数据表，创建失败</t>
   </si>
   <si>
-    <t>http://hufu.test.xuelangyun.com/tml/index#/dataAssets/dataSheet/dataSheetAdd</t>
-  </si>
-  <si>
     <t>3_根据向导创建ods层数据表的表名长度为128，创建成功</t>
   </si>
   <si>
+    <t>128111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+  </si>
+  <si>
+    <t>4_根据向导创建ods层数据表的表名长度超过128，创建失败</t>
+  </si>
+  <si>
+    <t>5_根据向导创建ods层数据表的描述信息长度为256，创建成功</t>
+  </si>
+  <si>
+    <t>odstest256</t>
+  </si>
+  <si>
+    <t>6_根据向导创建ods层数据表的描述信息长度超过256，创建失败</t>
+  </si>
+  <si>
+    <t>向导建表_ads</t>
+  </si>
+  <si>
+    <t>1_根据向导创建ads层数据表，创建成功</t>
+  </si>
+  <si>
+    <t>adstest</t>
+  </si>
+  <si>
+    <t>2_根据向导创建ads层已有的数据表，创建失败</t>
+  </si>
+  <si>
+    <t>3_根据向导创建ads层数据表的表名长度为128，创建成功</t>
+  </si>
+  <si>
     <t>1281111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
-  </si>
-  <si>
-    <t>4_根据向导创建ods层数据表的表名长度超过128，创建失败</t>
-  </si>
-  <si>
-    <t>11111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
-  </si>
-  <si>
-    <t>5_根据向导创建ods层数据表的描述信息长度为256，创建成功</t>
-  </si>
-  <si>
-    <t>odstest256</t>
-  </si>
-  <si>
-    <t>数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息据表描述信息数据表描述信息数据表描述信息数据表描述信息描述信息描</t>
-  </si>
-  <si>
-    <t>6_根据向导创建ods层数据表的描述信息长度超过256，创建失败</t>
-  </si>
-  <si>
-    <t>数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息据表描述信息数据表描述信息数据表描述信息数据表描述信息描述信息描操</t>
-  </si>
-  <si>
-    <t>向导建表_ads</t>
-  </si>
-  <si>
-    <t>1_根据向导创建ads层数据表，创建成功</t>
-  </si>
-  <si>
-    <t>adstest</t>
-  </si>
-  <si>
-    <t>2_根据向导创建ads层已有的数据表，创建失败</t>
-  </si>
-  <si>
-    <t>3_根据向导创建ads层数据表的表名长度为128，创建成功</t>
   </si>
   <si>
     <t>4_根据向导创建ads层数据表的表名长度超过128，创建失败</t>
@@ -2065,23 +2186,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="A3" sqref="$A3:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="51.375" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30.125" customWidth="1"/>
-    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="65.25" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="51.375" customWidth="1"/>
+    <col min="5" max="5" width="116.875" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="19.875" customWidth="1"/>
+    <col min="14" max="14" width="21.875" customWidth="1"/>
+    <col min="15" max="16" width="18.375" customWidth="1"/>
+    <col min="17" max="17" width="23.5" customWidth="1"/>
+    <col min="18" max="18" width="94.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2100,95 +2230,372 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="L4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="O4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:19">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S6" s="4"/>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2198,6 +2605,968 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
+    <col min="6" max="6" width="39.75" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="4" width="31.375" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
+    <col min="6" max="6" width="59.875" customWidth="1"/>
+    <col min="7" max="7" width="33.5" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="35.75" customWidth="1"/>
+    <col min="10" max="10" width="20.625" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J6" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="8" max="10" width="20.875" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J3" s="2">
+        <v>123456</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J4" s="2">
+        <v>123457</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" s="2">
+        <v>123459</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" s="2">
+        <v>123460</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" t="s">
+        <v>208</v>
+      </c>
+      <c r="J7" s="2">
+        <v>123461</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G6"/>
@@ -2228,131 +3597,131 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>221</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2362,7 +3731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I6"/>
@@ -2395,167 +3764,167 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="G1" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="G5" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2565,7 +3934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H6"/>
@@ -2596,149 +3965,149 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2748,7 +4117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I6"/>
@@ -2781,167 +4150,167 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="G1" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="G2" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="G6" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2951,7 +4320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I6"/>
@@ -2982,167 +4351,167 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3152,7 +4521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J6"/>
@@ -3183,185 +4552,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="H1" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="H2" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="H3" t="s">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>269</v>
       </c>
       <c r="E4" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
       <c r="H4" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="H5" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="H6" t="s">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3371,7 +4740,428 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="65.25" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="51.375" customWidth="1"/>
+    <col min="5" max="5" width="116.875" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="19.875" customWidth="1"/>
+    <col min="14" max="14" width="21.875" customWidth="1"/>
+    <col min="15" max="16" width="18.375" customWidth="1"/>
+    <col min="17" max="17" width="23.5" customWidth="1"/>
+    <col min="18" max="18" width="94.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F6"/>
@@ -3401,113 +5191,113 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>287</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3517,7 +5307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -3547,53 +5337,53 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3603,7 +5393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -3633,33 +5423,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
@@ -3673,7 +5463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F3"/>
@@ -3703,47 +5493,47 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>297</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>298</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3753,229 +5543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
-  <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="35.25" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="5.875" customWidth="1"/>
-    <col min="6" max="6" width="39.75" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="86.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
@@ -4005,33 +5573,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4041,7 +5609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J2"/>
@@ -4072,51 +5640,51 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>302</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4126,7 +5694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H2"/>
@@ -4157,39 +5725,39 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>245</v>
+        <v>303</v>
       </c>
       <c r="E1" t="s">
-        <v>246</v>
+        <v>304</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>306</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4199,13 +5767,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -4213,7 +5781,7 @@
     <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="65.25" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="51.375" customWidth="1"/>
     <col min="5" max="5" width="116.875" customWidth="1"/>
     <col min="6" max="6" width="15.75" customWidth="1"/>
     <col min="7" max="8" width="14.375" customWidth="1"/>
@@ -4238,379 +5806,379 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>252</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>253</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>254</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>256</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>260</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>262</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>254</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>260</v>
+        <v>13</v>
       </c>
       <c r="O2" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>269</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>254</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="N3" t="s">
-        <v>260</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="R3" t="s">
-        <v>269</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>273</v>
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="E4" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>254</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="N4" t="s">
-        <v>260</v>
+        <v>13</v>
       </c>
       <c r="O4" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="R4" t="s">
-        <v>269</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>254</v>
+        <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="N5" t="s">
-        <v>260</v>
+        <v>13</v>
       </c>
       <c r="O5" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="R5" t="s">
-        <v>269</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>267</v>
-      </c>
-      <c r="H6" t="s">
-        <v>254</v>
-      </c>
-      <c r="I6" t="s">
-        <v>255</v>
-      </c>
-      <c r="J6" t="s">
-        <v>268</v>
-      </c>
-      <c r="K6" t="s">
-        <v>257</v>
-      </c>
       <c r="L6" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="M6" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="N6" t="s">
-        <v>260</v>
+        <v>13</v>
       </c>
       <c r="O6" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="R6" t="s">
-        <v>269</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
+        <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="M7" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="N7" t="s">
-        <v>260</v>
+        <v>13</v>
       </c>
       <c r="O7" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="R7" t="s">
-        <v>269</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4620,7 +6188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R7"/>
@@ -4659,379 +6227,379 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>251</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>252</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>253</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>254</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>256</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>260</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>262</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>254</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="N2" t="s">
-        <v>260</v>
+        <v>13</v>
       </c>
       <c r="O2" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>269</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>254</v>
+        <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="N3" t="s">
-        <v>260</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="R3" t="s">
-        <v>269</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="E4" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>254</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="N4" t="s">
-        <v>260</v>
+        <v>13</v>
       </c>
       <c r="O4" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="R4" t="s">
-        <v>269</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>254</v>
+        <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="N5" t="s">
-        <v>260</v>
+        <v>13</v>
       </c>
       <c r="O5" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="R5" t="s">
-        <v>269</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>288</v>
-      </c>
-      <c r="E6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>267</v>
-      </c>
-      <c r="H6" t="s">
-        <v>254</v>
-      </c>
-      <c r="I6" t="s">
-        <v>255</v>
-      </c>
-      <c r="J6" t="s">
-        <v>268</v>
-      </c>
-      <c r="K6" t="s">
-        <v>257</v>
-      </c>
       <c r="L6" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="M6" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="N6" t="s">
-        <v>260</v>
+        <v>13</v>
       </c>
       <c r="O6" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="R6" t="s">
-        <v>269</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
+        <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>255</v>
+        <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>268</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="L7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="M7" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="N7" t="s">
-        <v>260</v>
+        <v>13</v>
       </c>
       <c r="O7" t="s">
-        <v>261</v>
+        <v>14</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="R7" t="s">
-        <v>269</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -5041,7 +6609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K13"/>
@@ -5071,451 +6639,451 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="D1" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="E1" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="F1" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="G1" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="H1" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="I1" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="J1" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="K1" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="D2" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="E2" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="F2" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="G2">
         <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="I2" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="J2" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K2" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="C3" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="E3" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="F3" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="G3">
         <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="I3" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="J3" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K3" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="C4" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="D4" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="E4" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="F4" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="G4">
         <v>197</v>
       </c>
       <c r="H4" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="I4" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="J4" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K4" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="C5" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="D5" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="E5" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="F5" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="G5">
         <v>197</v>
       </c>
       <c r="H5" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="I5" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="J5" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K5" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="B6" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="C6" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="E6" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="F6" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="G6">
         <v>197</v>
       </c>
       <c r="H6" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="I6" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="J6" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K6" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="C7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="D7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="E7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="F7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="G7">
         <v>197</v>
       </c>
       <c r="H7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="I7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="J7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="C8" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="D8" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="E8" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="F8" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="G8">
         <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="I8" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="J8" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K8" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="C9" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="D9" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="E9" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="F9" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="G9">
         <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="I9" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="J9" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K9" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="C10" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="D10" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="E10" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="F10" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="G10">
         <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="I10" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="J10" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K10" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="B11" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="C11" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="D11" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="E11" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="F11" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="G11">
         <v>178</v>
       </c>
       <c r="H11" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="I11" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="J11" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K11" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="C12" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="D12" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="E12" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="F12" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="G12">
         <v>178</v>
       </c>
       <c r="H12" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="I12" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="J12" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K12" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="B13" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="D13" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="E13" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="F13" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="G13">
         <v>178</v>
       </c>
       <c r="H13" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="I13" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="J13" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K13" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -5525,7 +7093,428 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="65.25" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="51.375" customWidth="1"/>
+    <col min="5" max="5" width="116.875" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="19.875" customWidth="1"/>
+    <col min="14" max="14" width="21.875" customWidth="1"/>
+    <col min="15" max="16" width="18.375" customWidth="1"/>
+    <col min="17" max="17" width="23.5" customWidth="1"/>
+    <col min="18" max="18" width="94.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H2"/>
@@ -5553,48 +7542,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="D1" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="E1" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="F1" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="G1" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="H1" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="B2" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="C2" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="D2" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="E2" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="F2">
         <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="H2" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -5604,7 +7593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H20"/>
@@ -5629,22 +7618,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="D1" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="E1" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="F1" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="G1" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="H1" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:3">
@@ -5680,7 +7669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -5696,7 +7685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -5712,7 +7701,821 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="65.25" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="51.375" customWidth="1"/>
+    <col min="5" max="5" width="116.875" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="19.875" customWidth="1"/>
+    <col min="14" max="14" width="21.875" customWidth="1"/>
+    <col min="15" max="16" width="18.375" customWidth="1"/>
+    <col min="17" max="17" width="23.5" customWidth="1"/>
+    <col min="18" max="18" width="94.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="51.375" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="30.125" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:19">
+      <c r="A6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="45.375" customWidth="1"/>
+    <col min="3" max="3" width="35.25" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
+    <col min="6" max="6" width="39.75" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="86.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J6"/>
@@ -5746,185 +8549,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -5934,43 +8737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J6"/>
@@ -6004,185 +8771,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -6192,7 +8959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J6"/>
@@ -6226,48 +8993,48 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="H2" s="2">
         <v>123456</v>
@@ -6276,1097 +9043,135 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
-  <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="5.875" customWidth="1"/>
-    <col min="6" max="6" width="39.75" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="86.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
         <v>93</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
-  <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="4" width="31.375" customWidth="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="86.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
-  <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="5.875" customWidth="1"/>
-    <col min="6" max="6" width="59.875" customWidth="1"/>
-    <col min="7" max="7" width="33.5" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="35.75" customWidth="1"/>
-    <col min="10" max="10" width="20.625" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="86.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" t="s">
-        <v>125</v>
-      </c>
-      <c r="J2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J3" t="s">
-        <v>126</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" t="s">
-        <v>125</v>
-      </c>
-      <c r="J5" t="s">
-        <v>126</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L7"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
-  <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="30.625" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="22.625" customWidth="1"/>
-    <col min="7" max="7" width="7.125" customWidth="1"/>
-    <col min="8" max="10" width="20.875" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="86.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J3" s="2">
-        <v>123456</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J4" s="2">
-        <v>123457</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J5" s="2">
-        <v>123459</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J6" s="2">
-        <v>123460</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>149</v>
-      </c>
-      <c r="J7" s="2">
-        <v>123461</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="guideCreateTable_tmp" sheetId="35" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="374">
   <si>
     <t>module</t>
   </si>
@@ -140,43 +140,46 @@
     <t>4_根据向导创建tmp层数据表的表名长度超过128，创建失败</t>
   </si>
   <si>
+    <t>12811111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+  </si>
+  <si>
+    <t>5_根据向导创建tmp层数据表的描述信息长度为256，创建成功</t>
+  </si>
+  <si>
+    <t>tmptest256</t>
+  </si>
+  <si>
+    <t>数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息据表描述信息数据表描述信息数据表描述信息数据表描述信息描述信息描</t>
+  </si>
+  <si>
+    <t>6_根据向导创建tmp层数据表的描述信息长度超过256，创建失败</t>
+  </si>
+  <si>
+    <t>数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息据表描述信息数据表描述信息数据表描述信息数据表描述信息描述信息描操</t>
+  </si>
+  <si>
+    <t>向导建表_dim</t>
+  </si>
+  <si>
+    <t>1_根据向导创建dim层数据表，创建成功</t>
+  </si>
+  <si>
+    <t>dimtest</t>
+  </si>
+  <si>
+    <t>2_根据向导创建dim层已有的数据表，创建失败</t>
+  </si>
+  <si>
+    <t>3_根据向导创建dim层数据表的表名长度为128，创建成功</t>
+  </si>
+  <si>
+    <t>1281111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+  </si>
+  <si>
+    <t>4_根据向导创建dim层数据表的表名长度超过128，创建失败</t>
+  </si>
+  <si>
     <t>11111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
-  </si>
-  <si>
-    <t>5_根据向导创建tmp层数据表的描述信息长度为256，创建成功</t>
-  </si>
-  <si>
-    <t>tmptest256</t>
-  </si>
-  <si>
-    <t>数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息据表描述信息数据表描述信息数据表描述信息数据表描述信息描述信息描</t>
-  </si>
-  <si>
-    <t>6_根据向导创建tmp层数据表的描述信息长度超过256，创建失败</t>
-  </si>
-  <si>
-    <t>数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息数据表描述信息据表描述信息数据表描述信息数据表描述信息数据表描述信息描述信息描操</t>
-  </si>
-  <si>
-    <t>向导建表_dim</t>
-  </si>
-  <si>
-    <t>1_根据向导创建dim层数据表，创建成功</t>
-  </si>
-  <si>
-    <t>dimtest</t>
-  </si>
-  <si>
-    <t>2_根据向导创建dim层已有的数据表，创建失败</t>
-  </si>
-  <si>
-    <t>3_根据向导创建dim层数据表的表名长度为128，创建成功</t>
-  </si>
-  <si>
-    <t>1281111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
-  </si>
-  <si>
-    <t>4_根据向导创建dim层数据表的表名长度超过128，创建失败</t>
   </si>
   <si>
     <t>5_根据向导创建dim层数据表的描述信息长度为256，创建成功</t>
@@ -2188,8 +2191,8 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2439,7 +2442,7 @@
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E5" t="s">
@@ -2638,185 +2641,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2858,167 +2861,167 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3064,221 +3067,221 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K1" t="s">
         <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I3" t="s">
-        <v>184</v>
-      </c>
-      <c r="J3" t="s">
-        <v>185</v>
-      </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3322,54 +3325,54 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K1" t="s">
         <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -3378,36 +3381,36 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G3" t="s">
-        <v>204</v>
-      </c>
       <c r="H3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J3" s="2">
         <v>123456</v>
@@ -3416,33 +3419,33 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
         <v>209</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" t="s">
-        <v>208</v>
       </c>
       <c r="J4" s="2">
         <v>123457</v>
@@ -3451,33 +3454,33 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J5" s="2">
         <v>123459</v>
@@ -3486,33 +3489,33 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J6" s="2">
         <v>123460</v>
@@ -3521,33 +3524,33 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J7" s="2">
         <v>123461</v>
@@ -3556,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3597,131 +3600,131 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3764,167 +3767,167 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" t="s">
-        <v>227</v>
-      </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3965,149 +3968,149 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4150,167 +4153,167 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" t="s">
-        <v>248</v>
-      </c>
       <c r="G3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" t="s">
         <v>245</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" t="s">
-        <v>248</v>
-      </c>
-      <c r="G6" t="s">
-        <v>244</v>
-      </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4351,167 +4354,167 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E3" t="s">
-        <v>257</v>
-      </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4552,185 +4555,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H3" t="s">
-        <v>270</v>
-      </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4745,7 +4748,7 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="$A3:$XFD7"/>
     </sheetView>
   </sheetViews>
@@ -4997,7 +5000,7 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -5047,13 +5050,13 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -5103,13 +5106,13 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
@@ -5191,113 +5194,113 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5337,53 +5340,53 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5423,33 +5426,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
@@ -5493,47 +5496,47 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5573,33 +5576,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5640,51 +5643,51 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5725,39 +5728,39 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5850,16 +5853,16 @@
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -5903,16 +5906,16 @@
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>312</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>311</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -5959,16 +5962,16 @@
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -6015,16 +6018,16 @@
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -6071,16 +6074,16 @@
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -6127,16 +6130,16 @@
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>318</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>317</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
@@ -6271,16 +6274,16 @@
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -6324,16 +6327,16 @@
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>322</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>321</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -6380,16 +6383,16 @@
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -6436,16 +6439,16 @@
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -6492,16 +6495,16 @@
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -6548,16 +6551,16 @@
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>328</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>327</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
@@ -6639,451 +6642,451 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G2">
         <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G3">
         <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G4">
         <v>197</v>
       </c>
       <c r="H4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G5">
         <v>197</v>
       </c>
       <c r="H5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G6">
         <v>197</v>
       </c>
       <c r="H6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G7">
         <v>197</v>
       </c>
       <c r="H7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G8">
         <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G9">
         <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G10">
         <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G11">
         <v>178</v>
       </c>
       <c r="H11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C12" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G12">
         <v>178</v>
       </c>
       <c r="H12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G13">
         <v>178</v>
       </c>
       <c r="H13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -7176,16 +7179,16 @@
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -7229,16 +7232,16 @@
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -7285,10 +7288,10 @@
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
@@ -7341,16 +7344,16 @@
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -7397,16 +7400,16 @@
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -7453,16 +7456,16 @@
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>54</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
@@ -7542,48 +7545,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F2">
         <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -7618,22 +7621,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:3">
@@ -7820,16 +7823,16 @@
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -7873,16 +7876,16 @@
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -7929,10 +7932,10 @@
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
@@ -7985,16 +7988,16 @@
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -8041,16 +8044,16 @@
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -8097,16 +8100,16 @@
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>63</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
@@ -8188,101 +8191,101 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:19">
       <c r="A6" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S6" s="4"/>
     </row>
@@ -8327,185 +8330,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>94</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>94</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>94</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>94</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -8549,185 +8552,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -8771,185 +8774,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -8993,48 +8996,48 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H2" s="2">
         <v>123456</v>
@@ -9043,135 +9046,135 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="377">
   <si>
     <t>module</t>
   </si>
@@ -98,7 +98,10 @@
     <t>result</t>
   </si>
   <si>
-    <t>expect_url</t>
+    <t>property2</t>
+  </si>
+  <si>
+    <t>expect_result</t>
   </si>
   <si>
     <t>向导建表_tmp</t>
@@ -122,13 +125,13 @@
     <t>para2</t>
   </si>
   <si>
-    <t>http://hufu.test.xuelangyun.com/tml/index#/dataAssets/dataSheet/list</t>
+    <t>ant-click-animating-without-extra-node</t>
+  </si>
+  <si>
+    <t>ture</t>
   </si>
   <si>
     <t>2_根据向导创建tmp层已有的数据表，创建失败</t>
-  </si>
-  <si>
-    <t>http://hufu.test.xuelangyun.com/tml/index#/dataAssets/dataSheet/dataSheetAdd</t>
   </si>
   <si>
     <t>3_根据向导创建tmp层数据表的表名长度为128，创建成功</t>
@@ -1199,6 +1202,12 @@
   </si>
   <si>
     <t>1_输入正确的用户名，编辑查看修改用户密码</t>
+  </si>
+  <si>
+    <t>http://hufu.test.xuelangyun.com/tml/index#/dataAssets/dataSheet/list</t>
+  </si>
+  <si>
+    <t>http://hufu.test.xuelangyun.com/tml/index#/dataAssets/dataSheet/dataSheetAdd</t>
   </si>
 </sst>
 </file>
@@ -2191,8 +2200,8 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -2210,11 +2219,11 @@
     <col min="13" max="13" width="19.875" customWidth="1"/>
     <col min="14" max="14" width="21.875" customWidth="1"/>
     <col min="15" max="16" width="18.375" customWidth="1"/>
-    <col min="17" max="17" width="23.5" customWidth="1"/>
+    <col min="17" max="17" width="41.625" customWidth="1"/>
     <col min="18" max="18" width="94.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:17">
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2266,28 +2275,31 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -2296,7 +2308,7 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -2317,30 +2329,33 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -2349,7 +2364,7 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -2370,33 +2385,34 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R7" si="0">LOWER(FALSE)</f>
+        <v>false</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -2405,7 +2421,7 @@
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -2426,33 +2442,33 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
         <v>26</v>
-      </c>
-      <c r="R4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -2461,7 +2477,7 @@
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
@@ -2482,33 +2498,34 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="0"/>
+        <v>false</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -2517,7 +2534,7 @@
         <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -2538,33 +2555,33 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s">
         <v>26</v>
-      </c>
-      <c r="R6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
@@ -2573,7 +2590,7 @@
         <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -2594,10 +2611,11 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="0"/>
+        <v>false</v>
       </c>
     </row>
   </sheetData>
@@ -2641,185 +2659,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2861,167 +2879,167 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3067,221 +3085,221 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K1" t="s">
         <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J3" t="s">
-        <v>186</v>
-      </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3325,54 +3343,54 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K1" t="s">
         <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -3381,36 +3399,36 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G3" t="s">
-        <v>205</v>
-      </c>
       <c r="H3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J3" s="2">
         <v>123456</v>
@@ -3419,33 +3437,33 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" t="s">
         <v>210</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" t="s">
-        <v>211</v>
-      </c>
-      <c r="G4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" t="s">
-        <v>209</v>
       </c>
       <c r="J4" s="2">
         <v>123457</v>
@@ -3454,33 +3472,33 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J5" s="2">
         <v>123459</v>
@@ -3489,33 +3507,33 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J6" s="2">
         <v>123460</v>
@@ -3524,33 +3542,33 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J7" s="2">
         <v>123461</v>
@@ -3559,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3600,131 +3618,131 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3767,167 +3785,167 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" t="s">
-        <v>228</v>
-      </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3968,149 +3986,149 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4153,167 +4171,167 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
         <v>250</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" t="s">
-        <v>249</v>
-      </c>
       <c r="G3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G6" t="s">
-        <v>245</v>
-      </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4354,167 +4372,167 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E3" t="s">
-        <v>258</v>
-      </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4555,185 +4573,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" t="s">
         <v>272</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H3" t="s">
-        <v>271</v>
-      </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4748,8 +4766,8 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD7"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -4767,11 +4785,10 @@
     <col min="13" max="13" width="19.875" customWidth="1"/>
     <col min="14" max="14" width="21.875" customWidth="1"/>
     <col min="15" max="16" width="18.375" customWidth="1"/>
-    <col min="17" max="17" width="23.5" customWidth="1"/>
-    <col min="18" max="18" width="94.5" customWidth="1"/>
+    <col min="17" max="17" width="42.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:17">
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4823,28 +4840,31 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -4853,7 +4873,7 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -4874,30 +4894,33 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -4906,7 +4929,7 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -4927,33 +4950,34 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R7" si="0">LOWER(FALSE)</f>
+        <v>false</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -4962,7 +4986,7 @@
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -4983,33 +5007,33 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
         <v>26</v>
-      </c>
-      <c r="R4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -5018,7 +5042,7 @@
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
@@ -5039,33 +5063,34 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="0"/>
+        <v>false</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -5074,7 +5099,7 @@
         <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -5095,33 +5120,33 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s">
         <v>26</v>
-      </c>
-      <c r="R6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
         <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
@@ -5130,7 +5155,7 @@
         <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -5151,10 +5176,11 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="0"/>
+        <v>false</v>
       </c>
     </row>
   </sheetData>
@@ -5194,113 +5220,113 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5340,53 +5366,53 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5426,33 +5452,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
@@ -5496,47 +5522,47 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5576,33 +5602,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5643,51 +5669,51 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5728,39 +5754,39 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5775,8 +5801,8 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -5793,12 +5819,13 @@
     <col min="12" max="12" width="23" customWidth="1"/>
     <col min="13" max="13" width="19.875" customWidth="1"/>
     <col min="14" max="14" width="21.875" customWidth="1"/>
-    <col min="15" max="16" width="18.375" customWidth="1"/>
-    <col min="17" max="17" width="23.5" customWidth="1"/>
-    <col min="18" max="18" width="94.5" customWidth="1"/>
+    <col min="15" max="15" width="18.375" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="17" max="17" width="42.375" customWidth="1"/>
+    <col min="18" max="18" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:17">
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5850,28 +5877,31 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -5880,7 +5910,7 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -5901,30 +5931,33 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>313</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>312</v>
-      </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -5933,7 +5966,7 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -5954,33 +5987,34 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R7" si="0">LOWER(FALSE)</f>
+        <v>false</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -5989,7 +6023,7 @@
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -6010,33 +6044,33 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
         <v>26</v>
-      </c>
-      <c r="R4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -6045,7 +6079,7 @@
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
@@ -6066,33 +6100,34 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="0"/>
+        <v>false</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -6101,7 +6136,7 @@
         <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -6122,33 +6157,33 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s">
         <v>26</v>
-      </c>
-      <c r="R6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>319</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>318</v>
-      </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
@@ -6157,7 +6192,7 @@
         <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -6178,10 +6213,11 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="0"/>
+        <v>false</v>
       </c>
     </row>
   </sheetData>
@@ -6196,17 +6232,17 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="65.25" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="116.875" customWidth="1"/>
+    <col min="2" max="2" width="56.75" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
     <col min="6" max="6" width="14.375" customWidth="1"/>
     <col min="7" max="7" width="15.75" customWidth="1"/>
     <col min="8" max="9" width="16.5" customWidth="1"/>
@@ -6216,10 +6252,11 @@
     <col min="13" max="13" width="21.875" customWidth="1"/>
     <col min="14" max="15" width="18.375" customWidth="1"/>
     <col min="16" max="16" width="23.5" customWidth="1"/>
-    <col min="17" max="17" width="94.5" customWidth="1"/>
+    <col min="17" max="17" width="48.875" customWidth="1"/>
+    <col min="18" max="18" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:17">
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6271,28 +6308,31 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -6301,7 +6341,7 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -6322,30 +6362,33 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>323</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>322</v>
-      </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -6354,7 +6397,7 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -6375,33 +6418,34 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
+        <v>25</v>
+      </c>
+      <c r="R3" t="str">
+        <f>LOWER(FALSE)</f>
+        <v>false</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -6410,7 +6454,7 @@
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -6431,33 +6475,33 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
         <v>26</v>
-      </c>
-      <c r="R4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -6466,7 +6510,7 @@
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
@@ -6487,33 +6531,34 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R5" t="str">
+        <f>LOWER(FALSE)</f>
+        <v>false</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -6522,7 +6567,7 @@
         <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -6543,33 +6588,33 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s">
         <v>26</v>
-      </c>
-      <c r="R6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>329</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>328</v>
-      </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
@@ -6578,7 +6623,7 @@
         <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -6599,10 +6644,11 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R7" t="str">
+        <f>LOWER(FALSE)</f>
+        <v>false</v>
       </c>
     </row>
   </sheetData>
@@ -6642,451 +6688,451 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G2">
         <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G3">
         <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G4">
         <v>197</v>
       </c>
       <c r="H4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G5">
         <v>197</v>
       </c>
       <c r="H5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G6">
         <v>197</v>
       </c>
       <c r="H6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G7">
         <v>197</v>
       </c>
       <c r="H7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G8">
         <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G9">
         <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G10">
         <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G11">
         <v>178</v>
       </c>
       <c r="H11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G12">
         <v>178</v>
       </c>
       <c r="H12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G13">
         <v>178</v>
       </c>
       <c r="H13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -7101,8 +7147,8 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -7119,12 +7165,12 @@
     <col min="12" max="12" width="23" customWidth="1"/>
     <col min="13" max="13" width="19.875" customWidth="1"/>
     <col min="14" max="14" width="21.875" customWidth="1"/>
-    <col min="15" max="16" width="18.375" customWidth="1"/>
-    <col min="17" max="17" width="23.5" customWidth="1"/>
-    <col min="18" max="18" width="94.5" customWidth="1"/>
+    <col min="15" max="15" width="18.375" customWidth="1"/>
+    <col min="16" max="16" width="10.5" customWidth="1"/>
+    <col min="17" max="17" width="42.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:17">
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7176,28 +7222,31 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -7206,7 +7255,7 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -7227,30 +7276,33 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -7259,7 +7311,7 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -7280,33 +7332,34 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R7" si="0">LOWER(FALSE)</f>
+        <v>false</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -7315,7 +7368,7 @@
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -7336,33 +7389,33 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
         <v>26</v>
-      </c>
-      <c r="R4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -7371,7 +7424,7 @@
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
@@ -7392,33 +7445,34 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="0"/>
+        <v>false</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -7427,7 +7481,7 @@
         <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -7448,33 +7502,33 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s">
         <v>26</v>
-      </c>
-      <c r="R6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
@@ -7483,7 +7537,7 @@
         <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -7504,10 +7558,11 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="0"/>
+        <v>false</v>
       </c>
     </row>
   </sheetData>
@@ -7545,48 +7600,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F2">
         <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -7621,22 +7676,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:3">
@@ -7723,18 +7778,184 @@
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD5"/>
+      <selection activeCell="A1" sqref="A1:P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A2" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>376</v>
+      </c>
+      <c r="R2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>376</v>
+      </c>
+      <c r="R3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -7745,8 +7966,8 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -7763,12 +7984,13 @@
     <col min="12" max="12" width="23" customWidth="1"/>
     <col min="13" max="13" width="19.875" customWidth="1"/>
     <col min="14" max="14" width="21.875" customWidth="1"/>
-    <col min="15" max="16" width="18.375" customWidth="1"/>
-    <col min="17" max="17" width="23.5" customWidth="1"/>
+    <col min="15" max="15" width="18.375" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="17" max="17" width="47" customWidth="1"/>
     <col min="18" max="18" width="94.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:17">
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7820,28 +8042,31 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -7850,7 +8075,7 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -7871,30 +8096,33 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -7903,7 +8131,7 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -7924,33 +8152,34 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R7" si="0">LOWER(FALSE)</f>
+        <v>false</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
         <v>7</v>
@@ -7959,7 +8188,7 @@
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -7980,33 +8209,33 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
         <v>26</v>
-      </c>
-      <c r="R4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
         <v>7</v>
@@ -8015,7 +8244,7 @@
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
         <v>10</v>
@@ -8036,33 +8265,34 @@
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="0"/>
+        <v>false</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
@@ -8071,7 +8301,7 @@
         <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -8092,33 +8322,33 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s">
         <v>26</v>
-      </c>
-      <c r="R6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
-      </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
@@ -8127,7 +8357,7 @@
         <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
         <v>10</v>
@@ -8148,10 +8378,11 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="0"/>
+        <v>false</v>
       </c>
     </row>
   </sheetData>
@@ -8191,101 +8422,101 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>73</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:19">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S6" s="4"/>
     </row>
@@ -8330,185 +8561,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>95</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>95</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>95</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>95</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -8552,185 +8783,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -8774,185 +9005,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -8996,48 +9227,48 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H2" s="2">
         <v>123456</v>
@@ -9046,135 +9277,135 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="25" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="guideCreateTable_tmp" sheetId="35" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <sheet name="userAdd" sheetId="26" r:id="rId29"/>
     <sheet name="userEdit" sheetId="27" r:id="rId30"/>
     <sheet name="qualityregularAdd" sheetId="3" r:id="rId31"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId32"/>
+    <sheet name="guide_edit" sheetId="4" r:id="rId32"/>
     <sheet name="Sheet2" sheetId="28" r:id="rId33"/>
     <sheet name="Sheet3" sheetId="29" r:id="rId34"/>
     <sheet name="Sheet4" sheetId="30" r:id="rId35"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="393">
   <si>
     <t>module</t>
   </si>
@@ -176,64 +176,67 @@
     <t>3_根据向导创建dim层数据表的表名长度为128，创建成功</t>
   </si>
   <si>
+    <t>12811111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+  </si>
+  <si>
+    <t>4_根据向导创建dim层数据表的表名长度超过128，创建失败</t>
+  </si>
+  <si>
+    <t>11111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
+  </si>
+  <si>
+    <t>5_根据向导创建dim层数据表的描述信息长度为256，创建成功</t>
+  </si>
+  <si>
+    <t>dimtest256</t>
+  </si>
+  <si>
+    <t>6_根据向导创建dim层数据表的描述信息长度超过256，创建失败</t>
+  </si>
+  <si>
+    <t>向导建表_dws</t>
+  </si>
+  <si>
+    <t>1_根据向导创建dws层数据表，创建成功</t>
+  </si>
+  <si>
+    <t>dwstest</t>
+  </si>
+  <si>
+    <t>2_根据向导创建dws层已有的数据表，创建失败</t>
+  </si>
+  <si>
+    <t>3_根据向导创建dws层数据表的表名长度为128，创建成功</t>
+  </si>
+  <si>
+    <t>4_根据向导创建dws层数据表的表名长度超过128，创建失败</t>
+  </si>
+  <si>
+    <t>5_根据向导创建dws层数据表的描述信息长度为256，创建成功</t>
+  </si>
+  <si>
+    <t>dwstest256</t>
+  </si>
+  <si>
+    <t>6_根据向导创建dws层数据表的描述信息长度超过256，创建失败</t>
+  </si>
+  <si>
+    <t>向导建表_dwd</t>
+  </si>
+  <si>
+    <t>1_根据向导创建dwd层数据表，创建成功</t>
+  </si>
+  <si>
+    <t>dwdtest</t>
+  </si>
+  <si>
+    <t>2_根据向导创建dwd层已有的数据表，创建失败</t>
+  </si>
+  <si>
+    <t>3_根据向导创建dwd层数据表的表名长度为128，创建成功</t>
+  </si>
+  <si>
     <t>1281111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
-  </si>
-  <si>
-    <t>4_根据向导创建dim层数据表的表名长度超过128，创建失败</t>
-  </si>
-  <si>
-    <t>11111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
-  </si>
-  <si>
-    <t>5_根据向导创建dim层数据表的描述信息长度为256，创建成功</t>
-  </si>
-  <si>
-    <t>dimtest256</t>
-  </si>
-  <si>
-    <t>6_根据向导创建dim层数据表的描述信息长度超过256，创建失败</t>
-  </si>
-  <si>
-    <t>向导建表_dws</t>
-  </si>
-  <si>
-    <t>1_根据向导创建dws层数据表，创建成功</t>
-  </si>
-  <si>
-    <t>dwstest</t>
-  </si>
-  <si>
-    <t>2_根据向导创建dws层已有的数据表，创建失败</t>
-  </si>
-  <si>
-    <t>3_根据向导创建dws层数据表的表名长度为128，创建成功</t>
-  </si>
-  <si>
-    <t>4_根据向导创建dws层数据表的表名长度超过128，创建失败</t>
-  </si>
-  <si>
-    <t>5_根据向导创建dws层数据表的描述信息长度为256，创建成功</t>
-  </si>
-  <si>
-    <t>dwstest256</t>
-  </si>
-  <si>
-    <t>6_根据向导创建dws层数据表的描述信息长度超过256，创建失败</t>
-  </si>
-  <si>
-    <t>向导建表_dwd</t>
-  </si>
-  <si>
-    <t>1_根据向导创建dwd层数据表，创建成功</t>
-  </si>
-  <si>
-    <t>dwdtest</t>
-  </si>
-  <si>
-    <t>2_根据向导创建dwd层已有的数据表，创建失败</t>
-  </si>
-  <si>
-    <t>3_根据向导创建dwd层数据表的表名长度为128，创建成功</t>
   </si>
   <si>
     <t>4_根据向导创建dwd层数据表的表名长度超过128，创建失败</t>
@@ -1202,6 +1205,51 @@
   </si>
   <si>
     <t>1_输入正确的用户名，编辑查看修改用户密码</t>
+  </si>
+  <si>
+    <t>编辑向导建表_ads层数据表</t>
+  </si>
+  <si>
+    <t>1_编辑ads，创建成功</t>
+  </si>
+  <si>
+    <t>ads_ai_adstest</t>
+  </si>
+  <si>
+    <t>编辑向导建表_ods层数据表</t>
+  </si>
+  <si>
+    <t>2_编辑ods，创建成功</t>
+  </si>
+  <si>
+    <t>编辑向导建表_dwd层数据表</t>
+  </si>
+  <si>
+    <t>3_编辑dwd，创建成功</t>
+  </si>
+  <si>
+    <t>dwd_</t>
+  </si>
+  <si>
+    <t>编辑向导建表_dws层数据表</t>
+  </si>
+  <si>
+    <t>4_编辑dws，创建成功</t>
+  </si>
+  <si>
+    <t>编辑向导建表_dim层数据表</t>
+  </si>
+  <si>
+    <t>5_编辑dim，创建成功</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>编辑向导建表_tmp层数据表</t>
+  </si>
+  <si>
+    <t>6_编辑tmp，创建成功</t>
   </si>
   <si>
     <t>http://hufu.test.xuelangyun.com/tml/index#/dataAssets/dataSheet/list</t>
@@ -2200,7 +2248,7 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
@@ -2659,185 +2707,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2852,8 +2900,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2879,167 +2927,167 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3085,221 +3133,221 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K1" t="s">
         <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" t="s">
-        <v>186</v>
-      </c>
-      <c r="J3" t="s">
-        <v>187</v>
-      </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3343,54 +3391,54 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K1" t="s">
         <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -3399,36 +3447,36 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G3" t="s">
         <v>207</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G3" t="s">
-        <v>206</v>
-      </c>
       <c r="H3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J3" s="2">
         <v>123456</v>
@@ -3437,33 +3485,33 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" t="s">
         <v>211</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" t="s">
-        <v>210</v>
       </c>
       <c r="J4" s="2">
         <v>123457</v>
@@ -3472,33 +3520,33 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J5" s="2">
         <v>123459</v>
@@ -3507,33 +3555,33 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J6" s="2">
         <v>123460</v>
@@ -3542,33 +3590,33 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J7" s="2">
         <v>123461</v>
@@ -3577,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3618,131 +3666,131 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3785,167 +3833,167 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" t="s">
-        <v>229</v>
-      </c>
       <c r="G3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3986,149 +4034,149 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G1" t="s">
         <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4171,167 +4219,167 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" t="s">
-        <v>250</v>
-      </c>
       <c r="G3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" t="s">
         <v>247</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" t="s">
-        <v>250</v>
-      </c>
-      <c r="G6" t="s">
-        <v>246</v>
-      </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4372,167 +4420,167 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" t="s">
-        <v>259</v>
-      </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4573,185 +4621,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H3" t="s">
-        <v>272</v>
-      </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4766,8 +4814,8 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:R7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -4967,7 +5015,7 @@
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E4" t="s">
@@ -5220,113 +5268,113 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5366,53 +5414,53 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5452,33 +5500,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
@@ -5522,47 +5570,47 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5602,33 +5650,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5669,51 +5717,51 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5754,39 +5802,39 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -5801,8 +5849,8 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:R7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -5883,16 +5931,16 @@
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -5939,16 +5987,16 @@
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>314</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>313</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -5996,16 +6044,16 @@
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -6052,10 +6100,10 @@
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -6109,16 +6157,16 @@
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
@@ -6165,16 +6213,16 @@
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>320</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>319</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -6232,7 +6280,7 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
@@ -6314,16 +6362,16 @@
     </row>
     <row r="2" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -6370,16 +6418,16 @@
     </row>
     <row r="3" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>324</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>323</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -6427,16 +6475,16 @@
     </row>
     <row r="4" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -6483,10 +6531,10 @@
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -6540,16 +6588,16 @@
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
@@ -6596,16 +6644,16 @@
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>330</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>329</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -6688,451 +6736,451 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G2">
         <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G3">
         <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G4">
         <v>197</v>
       </c>
       <c r="H4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G5">
         <v>197</v>
       </c>
       <c r="H5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E6" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G6">
         <v>197</v>
       </c>
       <c r="H6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G7">
         <v>197</v>
       </c>
       <c r="H7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G8">
         <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G9">
         <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K9" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G10">
         <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G11">
         <v>178</v>
       </c>
       <c r="H11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G12">
         <v>178</v>
       </c>
       <c r="H12" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G13">
         <v>178</v>
       </c>
       <c r="H13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -7147,8 +7195,8 @@
   <sheetPr/>
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -7349,7 +7397,7 @@
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E4" t="s">
@@ -7405,7 +7453,7 @@
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E5" t="s">
@@ -7600,48 +7648,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F2">
         <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -7676,22 +7724,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:3">
@@ -7730,14 +7778,141 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="25.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="str">
+        <f>LOWER(FALSE)</f>
+        <v>false</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -7749,7 +7924,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7792,16 +7967,16 @@
   <sheetData>
     <row r="1" customFormat="1" ht="23" customHeight="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
@@ -7840,21 +8015,21 @@
         <v>0</v>
       </c>
       <c r="Q1" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>324</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>323</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -7893,24 +8068,24 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="R2" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -7949,10 +8124,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="R3" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -8170,7 +8345,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -8220,7 +8395,7 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -8277,13 +8452,13 @@
         <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
@@ -8333,13 +8508,13 @@
         <v>57</v>
       </c>
       <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>65</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -8422,101 +8597,101 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>74</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" spans="1:19">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S6" s="4"/>
     </row>
@@ -8561,185 +8736,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>96</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>96</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>96</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>96</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -8783,185 +8958,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -9005,185 +9180,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -9227,48 +9402,48 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H2" s="2">
         <v>123456</v>
@@ -9277,135 +9452,135 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="26" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="httpmdtEditdeltecreate" sheetId="36" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="399">
   <si>
     <t>module</t>
   </si>
@@ -1208,13 +1208,22 @@
     <t>1_输入正确的用户名，编辑查看修改用户密码</t>
   </si>
   <si>
+    <t>para3name</t>
+  </si>
+  <si>
+    <t>lifestyle</t>
+  </si>
+  <si>
     <t>编辑向导建表_ads层数据表</t>
   </si>
   <si>
     <t>1_编辑ads，创建成功</t>
   </si>
   <si>
-    <t>ads_ai_adstest</t>
+    <t>ads_ai_adstest256</t>
+  </si>
+  <si>
+    <t>http://hufu.test.xuelangyun.com/tml/index#/dataModel/modelDesign</t>
   </si>
   <si>
     <t>编辑向导建表_ods层数据表</t>
@@ -1223,7 +1232,7 @@
     <t>2_编辑ods，创建成功</t>
   </si>
   <si>
-    <t>ods_erp_f_odstest_min</t>
+    <t>ods_erp_f_odstest256_min</t>
   </si>
   <si>
     <t>编辑向导建表_dwd层数据表</t>
@@ -1232,7 +1241,7 @@
     <t>3_编辑dwd，创建成功</t>
   </si>
   <si>
-    <t>dwd_prd_ap_f_dwdtest_r</t>
+    <t>dwd_prd_ap_f_dwdtest256_r</t>
   </si>
   <si>
     <t>编辑向导建表_dws层数据表</t>
@@ -1241,7 +1250,7 @@
     <t>4_编辑dws，创建成功</t>
   </si>
   <si>
-    <t>dws_prd_ap_f_dwstest_r</t>
+    <t>dws_prd_ap_f_dwstest256_r</t>
   </si>
   <si>
     <t>编辑向导建表_dim层数据表</t>
@@ -1250,10 +1259,7 @@
     <t>5_编辑dim，创建成功</t>
   </si>
   <si>
-    <t>dim_prd_ap_f_dimtest_r</t>
-  </si>
-  <si>
-    <t>w</t>
+    <t>dim_prd_ap_f_dimtest256_r</t>
   </si>
   <si>
     <t>编辑向导建表_tmp层数据表</t>
@@ -1262,7 +1268,7 @@
     <t>6_编辑tmp，创建成功</t>
   </si>
   <si>
-    <t>tmp_tmptest</t>
+    <t>tmp_1281111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
   </si>
   <si>
     <t>http://hufu.test.xuelangyun.com/tml/index#/dataAssets/dataSheet/list</t>
@@ -2261,7 +2267,7 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -7668,22 +7674,22 @@
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="6" max="6" width="27.875" customWidth="1"/>
+    <col min="4" max="6" width="25.375" customWidth="1"/>
+    <col min="8" max="8" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7697,119 +7703,172 @@
         <v>307</v>
       </c>
       <c r="E1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:7">
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2" t="s">
         <v>376</v>
       </c>
-      <c r="B2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E2">
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:7">
+      <c r="H2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>381</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="str">
-        <f>LOWER(FALSE)</f>
-        <v>false</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>387</v>
+      </c>
+      <c r="E4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B5" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>390</v>
+      </c>
+      <c r="E5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>390</v>
-      </c>
-      <c r="J6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>393</v>
+      </c>
+      <c r="E6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>394</v>
+        <v>396</v>
+      </c>
+      <c r="E7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -7821,14 +7880,121 @@
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD4"/>
+      <selection activeCell="A1" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="47.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="23" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1">
+        <v>14</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F5">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -7915,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="Q1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:18">
@@ -7968,10 +8134,10 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="R2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
@@ -8024,10 +8190,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="R3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="configurationcenter_add" sheetId="37" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="422">
   <si>
     <t>module</t>
   </si>
@@ -64,7 +64,10 @@
     <t>configuration_name</t>
   </si>
   <si>
-    <t>查看及查看数据表的操作记录向导建表_ads层数据表</t>
+    <t>expect_result</t>
+  </si>
+  <si>
+    <t>添加配置</t>
   </si>
   <si>
     <t>1_输入正确的信息心添加配置，添加成功</t>
@@ -76,28 +79,7 @@
     <t>conf_test</t>
   </si>
   <si>
-    <t>查看及查看数据表的操作记录向导建表_ods层数据表</t>
-  </si>
-  <si>
-    <t>2_输入已有的配置名字，添加失败</t>
-  </si>
-  <si>
-    <t>查看及查看数据表的操作记录向导建表_dwd层数据表</t>
-  </si>
-  <si>
-    <t>3_输入10个字符的配置名字，添加成功</t>
-  </si>
-  <si>
-    <t>conf_test1</t>
-  </si>
-  <si>
-    <t>查看及查看数据表的操作记录向导建表_dws层数据表</t>
-  </si>
-  <si>
-    <t>4_输入特殊字符的配置名字，添加失败</t>
-  </si>
-  <si>
-    <t>%&amp;*￥@=</t>
+    <t>添加成功</t>
   </si>
   <si>
     <t>dataSource_name</t>
@@ -170,9 +152,6 @@
   </si>
   <si>
     <t>partition2_desc</t>
-  </si>
-  <si>
-    <t>expect_result</t>
   </si>
   <si>
     <t>向导建表_tmp</t>
@@ -1308,15 +1287,27 @@
     <t>tmp_1281111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
   </si>
   <si>
+    <t>查看及查看数据表的操作记录向导建表_ads层数据表</t>
+  </si>
+  <si>
     <t>1_查看及查看数据表的操作记录ads</t>
   </si>
   <si>
+    <t>查看及查看数据表的操作记录向导建表_ods层数据表</t>
+  </si>
+  <si>
     <t>1_查看及查看数据表的操作记录ods</t>
   </si>
   <si>
+    <t>查看及查看数据表的操作记录向导建表_dwd层数据表</t>
+  </si>
+  <si>
     <t>3_查看及查看数据表的操作记录dwd</t>
   </si>
   <si>
+    <t>查看及查看数据表的操作记录向导建表_dws层数据表</t>
+  </si>
+  <si>
     <t>4_查看及查看数据表的操作记录dws</t>
   </si>
   <si>
@@ -1330,6 +1321,25 @@
   </si>
   <si>
     <t>6_查看及查看数据表的操作记录tmp</t>
+  </si>
+  <si>
+    <t>2_输入已有的配置名字，添加失败</t>
+  </si>
+  <si>
+    <t>该名称已存在
+新增配置项</t>
+  </si>
+  <si>
+    <t>3_输入10个字符的配置名字，添加成功</t>
+  </si>
+  <si>
+    <t>conf_test1</t>
+  </si>
+  <si>
+    <t>4_输入特殊字符的配置名字，添加失败</t>
+  </si>
+  <si>
+    <t>%&amp;*￥@=</t>
   </si>
   <si>
     <t>http://hufu.test.xuelangyun.com/tml/index#/dataAssets/dataSheet/list</t>
@@ -1959,12 +1969,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2326,21 +2339,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.5" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="50.5" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="50.5" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="16384" width="50.5" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="45.75" customWidth="1"/>
+    <col min="6" max="16384" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:4">
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2353,61 +2368,25 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:4">
-      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2450,185 +2429,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>149</v>
-      </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>144</v>
       </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>151</v>
-      </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2672,185 +2651,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="2">
+        <v>153</v>
+      </c>
+      <c r="H2" s="3">
         <v>123456</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2894,185 +2873,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>175</v>
+        <v>107</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>181</v>
+        <v>107</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>184</v>
+        <v>107</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3114,167 +3093,167 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>147</v>
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>191</v>
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>178</v>
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>181</v>
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>184</v>
+        <v>20</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3320,221 +3299,221 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="J1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2" t="s">
         <v>200</v>
-      </c>
-      <c r="B2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J2" t="s">
-        <v>207</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J3" t="s">
         <v>200</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I3" t="s">
-        <v>206</v>
-      </c>
-      <c r="J3" t="s">
-        <v>207</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:12">
       <c r="A4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J4" t="s">
         <v>200</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>211</v>
-      </c>
-      <c r="G4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I4" t="s">
-        <v>206</v>
-      </c>
-      <c r="J4" t="s">
-        <v>207</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:12">
       <c r="A5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" t="s">
         <v>200</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I5" t="s">
-        <v>206</v>
-      </c>
-      <c r="J5" t="s">
-        <v>207</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:12">
       <c r="A6" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J6" t="s">
         <v>200</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>216</v>
-      </c>
-      <c r="G6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I6" t="s">
-        <v>206</v>
-      </c>
-      <c r="J6" t="s">
-        <v>207</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3578,241 +3557,241 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G2" t="s">
-        <v>226</v>
-      </c>
-      <c r="J2" s="2">
+        <v>219</v>
+      </c>
+      <c r="J2" s="3">
         <v>1</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>222</v>
       </c>
-      <c r="B3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>229</v>
-      </c>
       <c r="G3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I3" t="s">
-        <v>230</v>
-      </c>
-      <c r="J3" s="2">
+        <v>223</v>
+      </c>
+      <c r="J3" s="3">
         <v>123456</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="I4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J4" s="2">
+        <v>223</v>
+      </c>
+      <c r="J4" s="3">
         <v>123457</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="I5" t="s">
-        <v>230</v>
-      </c>
-      <c r="J5" s="2">
+        <v>223</v>
+      </c>
+      <c r="J5" s="3">
         <v>123459</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>230</v>
-      </c>
-      <c r="J6" s="2">
+        <v>223</v>
+      </c>
+      <c r="J6" s="3">
         <v>123460</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>230</v>
-      </c>
-      <c r="J7" s="2">
+        <v>223</v>
+      </c>
+      <c r="J7" s="3">
         <v>123461</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3853,131 +3832,131 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4020,167 +3999,167 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G6" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4221,149 +4200,149 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4406,167 +4385,167 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G6" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4607,51 +4586,51 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4692,167 +4671,167 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>273</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>280</v>
-      </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4893,185 +4872,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H6" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5111,113 +5090,113 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5257,53 +5236,53 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5343,33 +5322,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
@@ -5413,47 +5392,47 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -5493,33 +5472,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5560,51 +5539,51 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5645,39 +5624,39 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5725,343 +5704,343 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" t="s">
-        <v>39</v>
-      </c>
       <c r="P1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B4" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>329</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
+      <c r="O4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A6" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" t="s">
         <v>324</v>
       </c>
-      <c r="B6" t="s">
-        <v>331</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" t="s">
-        <v>39</v>
-      </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" t="s">
-        <v>39</v>
-      </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -6109,343 +6088,343 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" t="s">
-        <v>39</v>
-      </c>
       <c r="P1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
+      <c r="O4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>53</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" t="s">
-        <v>39</v>
-      </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" t="s">
-        <v>39</v>
-      </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -6493,343 +6472,343 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" t="s">
-        <v>39</v>
-      </c>
       <c r="P1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="15" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="15" customHeight="1" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="15" customHeight="1" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
+      <c r="O4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>67</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" t="s">
         <v>334</v>
       </c>
-      <c r="B6" t="s">
-        <v>341</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" t="s">
-        <v>39</v>
-      </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" t="s">
-        <v>39</v>
-      </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -6869,451 +6848,451 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1" t="s">
         <v>344</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>345</v>
-      </c>
-      <c r="E1" t="s">
-        <v>346</v>
-      </c>
-      <c r="F1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I1" t="s">
-        <v>350</v>
-      </c>
-      <c r="J1" t="s">
-        <v>351</v>
-      </c>
-      <c r="K1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G2">
         <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="J2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C3" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G3">
         <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I3" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="J3" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D4" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E4" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F4" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G4">
         <v>197</v>
       </c>
       <c r="H4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="J4" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B5" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F5" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G5">
         <v>197</v>
       </c>
       <c r="H5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="J5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D6" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E6" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F6" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="G6">
         <v>197</v>
       </c>
       <c r="H6" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I6" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="J6" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K6" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G7">
         <v>197</v>
       </c>
       <c r="H7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="J7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C8" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D8" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E8" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F8" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G8">
         <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I8" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="J8" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K8" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D9" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E9" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F9" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G9">
         <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I9" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="J9" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C10" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D10" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E10" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F10" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G10">
         <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I10" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="J10" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K10" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C11" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D11" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E11" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F11" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G11">
         <v>178</v>
       </c>
       <c r="H11" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I11" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="J11" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K11" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B12" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C12" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D12" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E12" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F12" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G12">
         <v>178</v>
       </c>
       <c r="H12" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I12" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="J12" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K12" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B13" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C13" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D13" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E13" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F13" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G13">
         <v>178</v>
       </c>
       <c r="H13" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I13" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="J13" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K13" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -7351,48 +7330,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" t="s">
         <v>345</v>
-      </c>
-      <c r="D1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F2">
         <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -7427,22 +7406,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" t="s">
         <v>345</v>
-      </c>
-      <c r="D1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:3">
@@ -7508,36 +7487,36 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F2">
         <v>13</v>
@@ -7546,24 +7525,24 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F3">
         <v>14</v>
@@ -7572,24 +7551,24 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E4" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -7598,24 +7577,24 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B5" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E5" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F5">
         <v>16</v>
@@ -7624,24 +7603,24 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E6" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F6">
         <v>17</v>
@@ -7650,24 +7629,24 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F7">
         <v>18</v>
@@ -7676,7 +7655,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -7710,91 +7689,91 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>402</v>
       </c>
       <c r="B2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>408</v>
       </c>
       <c r="B5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -7806,543 +7785,99 @@
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" customFormat="1" ht="23" customHeight="1" spans="1:17">
+    <row r="1" customFormat="1" ht="23" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>327</v>
+        <v>414</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>326</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1">
-        <v>1</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:17">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>324</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>416</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>329</v>
+        <v>417</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>324</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
+        <v>418</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>419</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:17">
-      <c r="A4" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>332</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:17">
-      <c r="A5" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B5" t="s">
-        <v>333</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>332</v>
-      </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" ht="23" customHeight="1" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>326</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" ht="23" customHeight="1" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B11" t="s">
-        <v>328</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>329</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="23" customHeight="1" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B12" t="s">
-        <v>330</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="23" customHeight="1" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>332</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" t="s">
-        <v>37</v>
-      </c>
-      <c r="N13" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="23" customHeight="1" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B14" t="s">
-        <v>333</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>332</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14" t="s">
-        <v>38</v>
-      </c>
-      <c r="O14" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>47</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="10" customFormat="1" ht="23" customHeight="1" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" customFormat="1" ht="23" customHeight="1" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" customFormat="1" ht="23" customHeight="1" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" customFormat="1" ht="23" customHeight="1" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" customFormat="1" ht="23" customHeight="1" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14"/>
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8367,167 +7902,167 @@
   <sheetData>
     <row r="1" customFormat="1" ht="23" customHeight="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F1">
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" t="s">
-        <v>39</v>
       </c>
       <c r="P1">
         <v>0</v>
       </c>
       <c r="Q1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
         <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="R2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="R3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -8574,343 +8109,343 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" t="s">
-        <v>39</v>
-      </c>
       <c r="P1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
+      <c r="O4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>60</v>
       </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
-      </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" t="s">
-        <v>39</v>
-      </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" t="s">
-        <v>39</v>
-      </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -8958,343 +8493,343 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" t="s">
-        <v>39</v>
-      </c>
       <c r="P1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
+      <c r="O4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>67</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>71</v>
       </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" t="s">
-        <v>39</v>
-      </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
         <v>71</v>
       </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>78</v>
-      </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" t="s">
-        <v>39</v>
-      </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -9309,7 +8844,7 @@
   <sheetPr/>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
@@ -9342,343 +8877,343 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" t="s">
-        <v>39</v>
-      </c>
       <c r="P1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
+      <c r="O4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
         <v>32</v>
       </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>33</v>
       </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
         <v>80</v>
       </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
         <v>32</v>
       </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" t="s">
-        <v>39</v>
-      </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" t="s">
-        <v>39</v>
-      </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -9718,103 +9253,103 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" spans="1:19">
+      <c r="A6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C6" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:19">
-      <c r="A6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="S6" s="4"/>
+      <c r="S6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9857,185 +9392,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>123</v>
-      </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -10079,185 +9614,185 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>135</v>
-      </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>130</v>
       </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>137</v>
-      </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/database/虎符测试用例.xlsx
+++ b/database/虎符测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="configurationcenter_add" sheetId="37" r:id="rId1"/>
@@ -39,18 +39,19 @@
     <sheet name="guideCreateTable_ads" sheetId="25" r:id="rId30"/>
     <sheet name="userAdd" sheetId="26" r:id="rId31"/>
     <sheet name="userEdit" sheetId="27" r:id="rId32"/>
-    <sheet name="qualityregularAdd" sheetId="3" r:id="rId33"/>
+    <sheet name="qualityregular_builtin" sheetId="3" r:id="rId33"/>
     <sheet name="guide_edit" sheetId="4" r:id="rId34"/>
     <sheet name="guidetable_LookandOperation" sheetId="28" r:id="rId35"/>
     <sheet name="Sheet3" sheetId="29" r:id="rId36"/>
     <sheet name="Sheet4" sheetId="30" r:id="rId37"/>
+    <sheet name="Sheet1" sheetId="38" r:id="rId38"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="441">
   <si>
     <t>module</t>
   </si>
@@ -142,6 +143,12 @@
     <t>para2desc</t>
   </si>
   <si>
+    <t>para3name</t>
+  </si>
+  <si>
+    <t>para3desc</t>
+  </si>
+  <si>
     <t>partition_par1</t>
   </si>
   <si>
@@ -172,6 +179,12 @@
     <t>para2</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>时间戳</t>
+  </si>
+  <si>
     <t>创建成功</t>
   </si>
   <si>
@@ -284,9 +297,6 @@
   </si>
   <si>
     <t>3_根据向导创建dwd层数据表的表名长度为128，创建成功</t>
-  </si>
-  <si>
-    <t>1281111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111111</t>
   </si>
   <si>
     <t>4_根据向导创建dwd层数据表的表名长度超过128，创建失败</t>
@@ -1224,7 +1234,55 @@
     <t>1_输入正确的用户名，编辑查看修改用户密码</t>
   </si>
   <si>
-    <t>para3name</t>
+    <t>数据表配置质量规则</t>
+  </si>
+  <si>
+    <t>1_创建内置规则模板_及时性约束天级别</t>
+  </si>
+  <si>
+    <t>2_创建内置规则模板_及时性约束小时级别</t>
+  </si>
+  <si>
+    <t>3_创建内置规则模板_取值范围约束</t>
+  </si>
+  <si>
+    <t>4_创建内置规则模板_完整性约束</t>
+  </si>
+  <si>
+    <t>5_创建内置规则模板_平均值约束</t>
+  </si>
+  <si>
+    <t>6_创建内置规则模板_总值约束</t>
+  </si>
+  <si>
+    <t>7_创建内置规则模板_极大值约束</t>
+  </si>
+  <si>
+    <t>8_创建内置规则模板_极小值约束</t>
+  </si>
+  <si>
+    <t>9_创建内置规则模板_正则表达式约束-电话号码验证</t>
+  </si>
+  <si>
+    <t>10_创建内置规则模板_正则表达式约束-身份证号验证</t>
+  </si>
+  <si>
+    <t>11_创建内置规则模板_特殊字符约束</t>
+  </si>
+  <si>
+    <t>12_创建内置规则模板_空值或空字符串约束</t>
+  </si>
+  <si>
+    <t>13_创建内置规则模板_空值约束</t>
+  </si>
+  <si>
+    <t>14_创建内置规则模板_空字符串约束</t>
+  </si>
+  <si>
+    <t>15_创建内置规则模板_重复值约束</t>
+  </si>
+  <si>
+    <t>16_创建内置规则模板_长度约束</t>
   </si>
   <si>
     <t>lifestyle</t>
@@ -2341,7 +2399,7 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -2432,16 +2490,16 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
@@ -2452,28 +2510,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2484,28 +2542,28 @@
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -2516,28 +2574,28 @@
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2548,28 +2606,28 @@
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2580,28 +2638,28 @@
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2654,16 +2712,16 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
@@ -2674,25 +2732,25 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H2" s="3">
         <v>123456</v>
@@ -2706,28 +2764,28 @@
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -2738,28 +2796,28 @@
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2770,28 +2828,28 @@
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2802,28 +2860,28 @@
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2876,16 +2934,16 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
@@ -2896,28 +2954,28 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2928,28 +2986,28 @@
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -2960,28 +3018,28 @@
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2992,28 +3050,28 @@
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -3024,28 +3082,28 @@
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -3093,16 +3151,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
@@ -3113,25 +3171,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3142,25 +3200,25 @@
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -3171,25 +3229,25 @@
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" t="s">
         <v>185</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" t="s">
-        <v>182</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -3200,25 +3258,25 @@
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -3229,25 +3287,25 @@
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -3302,22 +3360,22 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="J1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -3328,34 +3386,34 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -3366,34 +3424,34 @@
     </row>
     <row r="3" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" t="s">
         <v>202</v>
       </c>
-      <c r="G3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I3" t="s">
-        <v>199</v>
-      </c>
       <c r="J3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -3404,34 +3462,34 @@
     </row>
     <row r="4" customFormat="1" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -3442,34 +3500,34 @@
     </row>
     <row r="5" customFormat="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3480,34 +3538,34 @@
     </row>
     <row r="6" customFormat="1" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3560,22 +3618,22 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="J1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -3586,25 +3644,25 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -3618,31 +3676,31 @@
     </row>
     <row r="3" customFormat="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" t="s">
         <v>222</v>
       </c>
-      <c r="G3" t="s">
-        <v>219</v>
-      </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J3" s="3">
         <v>123456</v>
@@ -3656,28 +3714,28 @@
     </row>
     <row r="4" customFormat="1" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J4" s="3">
         <v>123457</v>
@@ -3691,28 +3749,28 @@
     </row>
     <row r="5" customFormat="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J5" s="3">
         <v>123459</v>
@@ -3726,28 +3784,28 @@
     </row>
     <row r="6" customFormat="1" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J6" s="3">
         <v>123460</v>
@@ -3761,28 +3819,28 @@
     </row>
     <row r="7" customFormat="1" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J7" s="3">
         <v>123461</v>
@@ -3835,7 +3893,7 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
@@ -3846,16 +3904,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -3869,16 +3927,16 @@
     </row>
     <row r="3" customFormat="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -3892,16 +3950,16 @@
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -3915,16 +3973,16 @@
     </row>
     <row r="5" customFormat="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -3938,16 +3996,16 @@
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -4002,13 +4060,13 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
@@ -4019,25 +4077,25 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -4048,25 +4106,25 @@
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -4077,25 +4135,25 @@
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>244</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>241</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -4106,25 +4164,25 @@
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -4135,25 +4193,25 @@
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -4203,7 +4261,7 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -4217,16 +4275,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -4243,22 +4301,22 @@
     </row>
     <row r="3" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -4269,22 +4327,22 @@
     </row>
     <row r="4" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>252</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>249</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -4295,22 +4353,22 @@
     </row>
     <row r="5" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -4321,22 +4379,22 @@
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -4388,10 +4446,10 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
@@ -4405,22 +4463,22 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4434,25 +4492,25 @@
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -4463,25 +4521,25 @@
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>263</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>260</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -4492,25 +4550,25 @@
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -4521,25 +4579,25 @@
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -4691,10 +4749,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -4720,16 +4778,16 @@
     </row>
     <row r="3" customFormat="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -4738,7 +4796,7 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -4749,16 +4807,16 @@
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -4767,7 +4825,7 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -4778,16 +4836,16 @@
     </row>
     <row r="5" customFormat="1" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -4796,7 +4854,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -4807,16 +4865,16 @@
     </row>
     <row r="6" customFormat="1" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -4825,7 +4883,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -4884,7 +4942,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
@@ -4895,16 +4953,16 @@
     </row>
     <row r="2" customFormat="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -4916,7 +4974,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4927,16 +4985,16 @@
     </row>
     <row r="3" customFormat="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -4945,10 +5003,10 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -4959,16 +5017,16 @@
     </row>
     <row r="4" customFormat="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>282</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>279</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -4977,10 +5035,10 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -4991,16 +5049,16 @@
     </row>
     <row r="5" customFormat="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -5009,10 +5067,10 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -5023,16 +5081,16 @@
     </row>
     <row r="6" customFormat="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -5041,10 +5099,10 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -5101,16 +5159,16 @@
     </row>
     <row r="2" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5121,16 +5179,16 @@
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5141,16 +5199,16 @@
     </row>
     <row r="4" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5161,16 +5219,16 @@
     </row>
     <row r="5" customFormat="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5181,16 +5239,16 @@
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5247,16 +5305,16 @@
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5267,16 +5325,16 @@
     </row>
     <row r="3" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5333,16 +5391,16 @@
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5403,16 +5461,16 @@
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5423,16 +5481,16 @@
     </row>
     <row r="3" customFormat="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -5483,16 +5541,16 @@
     </row>
     <row r="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -5624,10 +5682,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
@@ -5638,19 +5696,19 @@
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5669,10 +5727,10 @@
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P$1:P$1048576"/>
+      <selection activeCell="L1" sqref="L$1:M$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -5685,15 +5743,15 @@
     <col min="6" max="6" width="15.75" customWidth="1"/>
     <col min="7" max="8" width="14.375" customWidth="1"/>
     <col min="9" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="19.875" customWidth="1"/>
-    <col min="14" max="14" width="21.875" customWidth="1"/>
-    <col min="15" max="15" width="18.375" customWidth="1"/>
-    <col min="16" max="16" width="26.875" customWidth="1"/>
+    <col min="11" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="15" max="15" width="19.875" customWidth="1"/>
+    <col min="16" max="16" width="21.875" customWidth="1"/>
+    <col min="17" max="17" width="18.375" customWidth="1"/>
+    <col min="18" max="18" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:16">
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5740,30 +5798,36 @@
         <v>33</v>
       </c>
       <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:16">
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -5772,16 +5836,16 @@
         <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
         <v>32</v>
@@ -5790,30 +5854,36 @@
         <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -5822,16 +5892,16 @@
         <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
         <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
         <v>32</v>
@@ -5840,30 +5910,36 @@
         <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -5872,16 +5948,16 @@
         <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
         <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
         <v>32</v>
@@ -5890,30 +5966,36 @@
         <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
@@ -5922,16 +6004,16 @@
         <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
         <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
         <v>32</v>
@@ -5940,30 +6022,36 @@
         <v>33</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
@@ -5972,16 +6060,16 @@
         <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
         <v>32</v>
@@ -5990,30 +6078,36 @@
         <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -6022,16 +6116,16 @@
         <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
         <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
         <v>32</v>
@@ -6040,7 +6134,13 @@
         <v>33</v>
       </c>
       <c r="P7" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -6053,10 +6153,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P$1:P$1048576"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L$1:M$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -6069,15 +6169,15 @@
     <col min="6" max="6" width="15.75" customWidth="1"/>
     <col min="7" max="8" width="14.375" customWidth="1"/>
     <col min="9" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="19.875" customWidth="1"/>
-    <col min="14" max="14" width="21.875" customWidth="1"/>
-    <col min="15" max="15" width="21.75" customWidth="1"/>
-    <col min="16" max="16" width="45.75" customWidth="1"/>
+    <col min="11" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="15" max="15" width="19.875" customWidth="1"/>
+    <col min="16" max="16" width="21.875" customWidth="1"/>
+    <col min="17" max="17" width="21.75" customWidth="1"/>
+    <col min="18" max="18" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:16">
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6124,30 +6224,36 @@
         <v>33</v>
       </c>
       <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:16">
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -6156,16 +6262,16 @@
         <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
         <v>32</v>
@@ -6174,30 +6280,36 @@
         <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -6206,16 +6318,16 @@
         <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
         <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
         <v>32</v>
@@ -6224,30 +6336,36 @@
         <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -6256,16 +6374,16 @@
         <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
         <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
         <v>32</v>
@@ -6274,30 +6392,36 @@
         <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
@@ -6306,16 +6430,16 @@
         <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
         <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
         <v>32</v>
@@ -6324,30 +6448,36 @@
         <v>33</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
@@ -6356,16 +6486,16 @@
         <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
         <v>32</v>
@@ -6374,30 +6504,36 @@
         <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -6406,16 +6542,16 @@
         <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
         <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
         <v>32</v>
@@ -6424,7 +6560,13 @@
         <v>33</v>
       </c>
       <c r="P7" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -6437,10 +6579,10 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P$1:P$1048576"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L$1:M$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -6455,13 +6597,14 @@
     <col min="8" max="9" width="16.5" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="19.875" customWidth="1"/>
-    <col min="13" max="13" width="21.875" customWidth="1"/>
-    <col min="14" max="15" width="18.375" customWidth="1"/>
-    <col min="16" max="16" width="45.75" customWidth="1"/>
+    <col min="12" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="19.875" customWidth="1"/>
+    <col min="15" max="15" width="21.875" customWidth="1"/>
+    <col min="16" max="17" width="18.375" customWidth="1"/>
+    <col min="18" max="18" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:16">
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6508,30 +6651,36 @@
         <v>33</v>
       </c>
       <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15" customHeight="1" spans="1:16">
+    <row r="2" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -6540,16 +6689,16 @@
         <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
         <v>32</v>
@@ -6558,30 +6707,36 @@
         <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="15" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -6590,16 +6745,16 @@
         <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
         <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
         <v>32</v>
@@ -6608,30 +6763,36 @@
         <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="15" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -6640,16 +6801,16 @@
         <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
         <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
         <v>32</v>
@@ -6658,30 +6819,36 @@
         <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
@@ -6690,16 +6857,16 @@
         <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
         <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
         <v>32</v>
@@ -6708,30 +6875,36 @@
         <v>33</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
@@ -6740,16 +6913,16 @@
         <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
         <v>32</v>
@@ -6758,30 +6931,36 @@
         <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -6790,16 +6969,16 @@
         <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
         <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
         <v>32</v>
@@ -6808,7 +6987,13 @@
         <v>33</v>
       </c>
       <c r="P7" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -6848,451 +7033,451 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="I1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G2">
         <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G3">
         <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="G4">
         <v>197</v>
       </c>
       <c r="H4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F5" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G5">
         <v>197</v>
       </c>
       <c r="H5" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I5" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J5" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K5" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F6" t="s">
         <v>360</v>
-      </c>
-      <c r="C6" t="s">
-        <v>361</v>
-      </c>
-      <c r="D6" t="s">
-        <v>349</v>
-      </c>
-      <c r="E6" t="s">
-        <v>349</v>
-      </c>
-      <c r="F6" t="s">
-        <v>357</v>
       </c>
       <c r="G6">
         <v>197</v>
       </c>
       <c r="H6" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I6" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J6" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K6" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G7">
         <v>197</v>
       </c>
       <c r="H7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C8" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D8" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E8" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F8" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G8">
         <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I8" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J8" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K8" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C9" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D9" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E9" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F9" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G9">
         <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I9" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J9" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K9" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C10" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D10" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E10" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F10" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G10">
         <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I10" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J10" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K10" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B11" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C11" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D11" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E11" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F11" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G11">
         <v>178</v>
       </c>
       <c r="H11" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I11" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J11" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K11" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D12" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E12" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F12" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G12">
         <v>178</v>
       </c>
       <c r="H12" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I12" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J12" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K12" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="23" customHeight="1" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B13" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C13" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D13" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E13" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F13" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G13">
         <v>178</v>
       </c>
       <c r="H13" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="I13" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J13" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K13" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -7330,48 +7515,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F2">
         <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -7387,13 +7572,13 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="47.25" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="19.25" customWidth="1"/>
   </cols>
@@ -7406,43 +7591,157 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H1" t="s">
-        <v>345</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" t="s">
+        <v>393</v>
+      </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="12" spans="3:3">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B12" t="s">
+        <v>395</v>
+      </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B13" t="s">
+        <v>396</v>
+      </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B14" t="s">
+        <v>397</v>
+      </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>384</v>
+      </c>
+      <c r="B15" t="s">
+        <v>398</v>
+      </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>384</v>
+      </c>
+      <c r="B16" t="s">
+        <v>399</v>
+      </c>
       <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B17" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="19" customFormat="1" spans="3:3">
       <c r="C19" s="1"/>
@@ -7487,13 +7786,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E1" t="s">
-        <v>381</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="G1" t="s">
         <v>14</v>
@@ -7504,19 +7803,19 @@
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="B2" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="E2" t="s">
-        <v>381</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>13</v>
@@ -7525,24 +7824,24 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="E3" t="s">
-        <v>381</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>14</v>
@@ -7551,24 +7850,24 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="E4" t="s">
-        <v>381</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -7577,24 +7876,24 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="B5" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="E5" t="s">
-        <v>381</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>16</v>
@@ -7603,24 +7902,24 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="B6" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="E6" t="s">
-        <v>381</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>17</v>
@@ -7629,24 +7928,24 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="B7" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="E7" t="s">
-        <v>381</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>18</v>
@@ -7655,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -7689,91 +7988,91 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="B4" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="B5" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="B6" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="B7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -7785,20 +8084,20 @@
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" customFormat="1" ht="23" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -7807,7 +8106,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:5">
@@ -7815,16 +8114,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:5">
@@ -7832,13 +8131,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -7854,10 +8153,285 @@
       <c r="B5"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="10" customFormat="1" ht="23" customHeight="1" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10"/>
-      <c r="C10" s="1"/>
+    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A9" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="23" customHeight="1" spans="1:18">
+      <c r="A10" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>328</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" customFormat="1" ht="23" customHeight="1" spans="1:3">
       <c r="A11" s="1"/>
@@ -7902,25 +8476,25 @@
   <sheetData>
     <row r="1" customFormat="1" ht="23" customHeight="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F1">
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
         <v>26</v>
@@ -7929,51 +8503,51 @@
         <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P1">
         <v>0</v>
       </c>
       <c r="Q1" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -7982,54 +8556,54 @@
         <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="R2" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -8038,34 +8612,50 @@
         <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
         <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="R3" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -8074,10 +8664,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L$1:M$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -8090,15 +8680,15 @@
     <col min="6" max="6" width="15.75" customWidth="1"/>
     <col min="7" max="8" width="14.375" customWidth="1"/>
     <col min="9" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="19.875" customWidth="1"/>
-    <col min="14" max="14" width="21.875" customWidth="1"/>
-    <col min="15" max="15" width="18.375" customWidth="1"/>
-    <col min="16" max="16" width="45.75" customWidth="1"/>
+    <col min="11" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="15" max="15" width="19.875" customWidth="1"/>
+    <col min="16" max="16" width="21.875" customWidth="1"/>
+    <col min="17" max="17" width="18.375" customWidth="1"/>
+    <col min="18" max="18" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:16">
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8145,30 +8735,36 @@
         <v>33</v>
       </c>
       <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:16">
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -8177,16 +8773,16 @@
         <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
         <v>32</v>
@@ -8195,30 +8791,36 @@
         <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -8227,16 +8829,16 @@
         <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
         <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
         <v>32</v>
@@ -8245,30 +8847,36 @@
         <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -8277,16 +8885,16 @@
         <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
         <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
         <v>32</v>
@@ -8295,30 +8903,36 @@
         <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
@@ -8327,16 +8941,16 @@
         <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
         <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
         <v>32</v>
@@ -8345,30 +8959,36 @@
         <v>33</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
@@ -8377,16 +8997,16 @@
         <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
         <v>32</v>
@@ -8395,30 +9015,36 @@
         <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -8427,16 +9053,16 @@
         <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
         <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
         <v>32</v>
@@ -8445,7 +9071,13 @@
         <v>33</v>
       </c>
       <c r="P7" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -8458,10 +9090,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P$1:P$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L$1:M$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -8474,15 +9106,15 @@
     <col min="6" max="6" width="15.75" customWidth="1"/>
     <col min="7" max="8" width="14.375" customWidth="1"/>
     <col min="9" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="19.875" customWidth="1"/>
-    <col min="14" max="14" width="21.875" customWidth="1"/>
-    <col min="15" max="15" width="18.375" customWidth="1"/>
-    <col min="16" max="16" width="45.75" customWidth="1"/>
+    <col min="11" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="15" max="15" width="19.875" customWidth="1"/>
+    <col min="16" max="16" width="21.875" customWidth="1"/>
+    <col min="17" max="17" width="18.375" customWidth="1"/>
+    <col min="18" max="18" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:16">
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8529,30 +9161,36 @@
         <v>33</v>
       </c>
       <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:16">
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -8561,16 +9199,16 @@
         <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
         <v>32</v>
@@ -8579,30 +9217,36 @@
         <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -8611,16 +9255,16 @@
         <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
         <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
         <v>32</v>
@@ -8629,30 +9273,36 @@
         <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -8661,16 +9311,16 @@
         <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
         <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
         <v>32</v>
@@ -8679,30 +9329,36 @@
         <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>60</v>
-      </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
@@ -8711,16 +9367,16 @@
         <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
         <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
         <v>32</v>
@@ -8729,30 +9385,36 @@
         <v>33</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
@@ -8761,16 +9423,16 @@
         <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
         <v>32</v>
@@ -8779,30 +9441,36 @@
         <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -8811,16 +9479,16 @@
         <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
         <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
         <v>32</v>
@@ -8829,7 +9497,13 @@
         <v>33</v>
       </c>
       <c r="P7" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -8842,10 +9516,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -8858,15 +9532,15 @@
     <col min="6" max="6" width="15.75" customWidth="1"/>
     <col min="7" max="8" width="14.375" customWidth="1"/>
     <col min="9" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="19.875" customWidth="1"/>
-    <col min="14" max="14" width="21.875" customWidth="1"/>
-    <col min="15" max="15" width="18.375" customWidth="1"/>
-    <col min="16" max="16" width="45.75" customWidth="1"/>
+    <col min="11" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="15" max="15" width="19.875" customWidth="1"/>
+    <col min="16" max="16" width="21.875" customWidth="1"/>
+    <col min="17" max="17" width="18.375" customWidth="1"/>
+    <col min="18" max="18" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:16">
+    <row r="1" customFormat="1" ht="15" customHeight="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8913,30 +9587,36 @@
         <v>33</v>
       </c>
       <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:16">
+    <row r="2" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -8945,16 +9625,16 @@
         <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
         <v>32</v>
@@ -8963,30 +9643,36 @@
         <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -8995,16 +9681,16 @@
         <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
         <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
         <v>32</v>
@@ -9013,30 +9699,36 @@
         <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>78</v>
+      <c r="D4" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -9045,16 +9737,16 @@
         <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
         <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
         <v>32</v>
@@ -9063,30 +9755,36 @@
         <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:16">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="23" customHeight="1" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
  